--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
+          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-02 08:50</t>
+          <t>11-03 08:50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1241809291.html</t>
+          <t>/news,002203,1242333917.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>102</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份11月01日被深股通减持93.33万股</t>
+          <t>海亮股份11月02日被深股通减持37万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-02 07:53</t>
+          <t>11-03 07:53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1241801731.html</t>
+          <t>/news,002203,1242326027.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
+          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-01 19:38</t>
+          <t>11-02 08:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1241692171.html</t>
+          <t>/news,002203,1241809291.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
+          <t>海亮股份11月01日被深股通减持93.33万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-01 08:53</t>
+          <t>11-02 07:53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1241305030.html</t>
+          <t>/news,002203,1241801731.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海亮股份10月31日被深股通减持33万股</t>
+          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-01 07:45</t>
+          <t>11-01 19:38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1241295775.html</t>
+          <t>/news,002203,1241692171.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
+          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-01 08:53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1241260925.html</t>
+          <t>/news,002203,1241305030.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
+          <t>海亮股份10月31日被深股通减持33万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10-31 21:52</t>
+          <t>11-01 07:45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1241248353.html</t>
+          <t>/news,002203,1241295775.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
+          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10-31 18:32</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1241186957.html</t>
+          <t>/news,002203,1241260925.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01%</t>
+          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-31 14:01</t>
+          <t>10-31 21:52</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1241068293.html</t>
+          <t>/news,002203,1241248353.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
+          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-31 11:31</t>
+          <t>10-31 18:32</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1240981015.html</t>
+          <t>/news,002203,1241186957.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
+          <t>海亮股份：前三季度营收同比增长16.01%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-31 10:42</t>
+          <t>10-31 14:01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1240932054.html</t>
+          <t>/news,002203,1241068293.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
+          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>10-31 11:31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1240796164.html</t>
+          <t>/news,002203,1240981015.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
+          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-30 23:17</t>
+          <t>10-31 10:42</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1240765953.html</t>
+          <t>/news,002203,1240932054.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
+          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-30 19:01</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1240738815.html</t>
+          <t>/news,002203,1240796164.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
+          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-30 16:09</t>
+          <t>10-30 23:17</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1240722642.html</t>
+          <t>/news,002203,1240765953.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
+          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-30 15:45</t>
+          <t>10-30 19:01</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1240719401.html</t>
+          <t>/news,002203,1240738815.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
+          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-30 15:38</t>
+          <t>10-30 16:09</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1240718008.html</t>
+          <t>/news,002203,1240722642.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
+          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-30 15:45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1240714289.html</t>
+          <t>/news,002203,1240719401.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
+          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 15:38</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1240707038.html</t>
+          <t>/news,002203,1240718008.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份10月28日获深股通增持31.72万股</t>
+          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-29 07:48</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1240599628.html</t>
+          <t>/news,002203,1240714289.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
+          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-28 09:04</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1240060169.html</t>
+          <t>/news,002203,1240707038.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份10月27日获深股通增持7.69万股</t>
+          <t>海亮股份10月28日获深股通增持31.72万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-29 07:48</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1240047226.html</t>
+          <t>/news,002203,1240599628.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
+          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-27 08:48</t>
+          <t>10-28 09:04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1239505387.html</t>
+          <t>/news,002203,1240060169.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海亮股份10月26日被深股通减持10.18万股</t>
+          <t>海亮股份10月27日获深股通增持7.69万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-27 07:42</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1239496073.html</t>
+          <t>/news,002203,1240047226.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
+          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-26 08:46</t>
+          <t>10-27 08:48</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1238977163.html</t>
+          <t>/news,002203,1239505387.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>海亮股份10月25日获深股通增持32.12万股</t>
+          <t>海亮股份10月26日被深股通减持10.18万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-26 07:47</t>
+          <t>10-27 07:42</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1238968262.html</t>
+          <t>/news,002203,1239496073.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
+          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-25 08:47</t>
+          <t>10-26 08:46</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1238457077.html</t>
+          <t>/news,002203,1238977163.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份10月24日获深股通增持14.88万股</t>
+          <t>海亮股份10月25日获深股通增持32.12万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-25 07:42</t>
+          <t>10-26 07:47</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1238446612.html</t>
+          <t>/news,002203,1238968262.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
+          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-24 18:00</t>
+          <t>10-25 08:47</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1238323615.html</t>
+          <t>/news,002203,1238457077.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
+          <t>海亮股份10月24日获深股通增持14.88万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-24 08:57</t>
+          <t>10-25 07:42</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1237923033.html</t>
+          <t>/news,002203,1238446612.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
+          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-24 18:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1237864690.html</t>
+          <t>/news,002203,1238323615.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
+          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 08:57</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1237860223.html</t>
+          <t>/news,002203,1237923033.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份10月21日被深股通减持20.37万股</t>
+          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1237796792.html</t>
+          <t>/news,002203,1237864690.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
+          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1237356514.html</t>
+          <t>/news,002203,1237860223.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海亮股份10月20日被深股通减持22万股</t>
+          <t>海亮股份10月21日被深股通减持20.37万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-21 07:42</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1237346841.html</t>
+          <t>/news,002203,1237796792.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
+          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-20 08:45</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1236895274.html</t>
+          <t>/news,002203,1237356514.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海亮股份10月19日获深股通增持37.45万股</t>
+          <t>海亮股份10月20日被深股通减持22万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-20 07:47</t>
+          <t>10-21 07:42</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1236888525.html</t>
+          <t>/news,002203,1237346841.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
+          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-19 08:59</t>
+          <t>10-20 08:45</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1236448340.html</t>
+          <t>/news,002203,1236895274.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海亮股份10月18日获深股通增持21.27万股</t>
+          <t>海亮股份10月19日获深股通增持37.45万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-20 07:47</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1236441238.html</t>
+          <t>/news,002203,1236888525.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
+          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-18 18:00</t>
+          <t>10-19 08:59</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1236349298.html</t>
+          <t>/news,002203,1236448340.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
+          <t>海亮股份10月18日获深股通增持21.27万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-18 08:51</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1236048585.html</t>
+          <t>/news,002203,1236441238.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海亮股份10月17日获深股通增持19.27万股</t>
+          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-18 18:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1236041241.html</t>
+          <t>/news,002203,1236349298.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，成交价12.24元（10-17）</t>
+          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-18 08:51</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1235954060.html</t>
+          <t>/news,002203,1236048585.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还670.26万元，融资余额13.7亿元（10-14）</t>
+          <t>海亮股份10月17日获深股通增持19.27万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-17 08:47</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1235651362.html</t>
+          <t>/news,002203,1236041241.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净买入891.32万元，居有色金属板块第七</t>
+          <t>大宗交易：海亮股份成交201.96万元，成交价12.24元（10-17）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-16 15:08</t>
+          <t>10-17 18:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1235581586.html</t>
+          <t>/news,002203,1235954060.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>深股通连续2周净买入海亮股份 累计净买入970.1万元</t>
+          <t>海亮股份：融资净偿还670.26万元，融资余额13.7亿元（10-14）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-16 14:07</t>
+          <t>10-17 08:47</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1235576448.html</t>
+          <t>/news,002203,1235651362.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份10月14日获深股通增持23.79万股</t>
+          <t>海亮股份本周融资净买入891.32万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-15 07:48</t>
+          <t>10-16 15:08</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1235511370.html</t>
+          <t>/news,002203,1235581586.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1177万元，折价1.01%（10-14）</t>
+          <t>深股通连续2周净买入海亮股份 累计净买入970.1万元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-14 18:00</t>
+          <t>10-16 14:07</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1235409514.html</t>
+          <t>/news,002203,1235576448.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入210.31万元，融资余额13.76亿元（10-13）</t>
+          <t>海亮股份10月14日获深股通增持23.79万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-14 08:47</t>
+          <t>10-15 07:48</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1235089791.html</t>
+          <t>/news,002203,1235511370.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海亮股份10月13日获深股通增持24.56万股</t>
+          <t>大宗交易：海亮股份成交1177万元，折价1.01%（10-14）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-14 07:52</t>
+          <t>10-14 18:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1235082599.html</t>
+          <t>/news,002203,1235409514.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还416.59万元，融资余额13.74亿元（10-12）</t>
+          <t>海亮股份：融资净买入210.31万元，融资余额13.76亿元（10-13）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-13 08:47</t>
+          <t>10-14 08:47</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1234653293.html</t>
+          <t>/news,002203,1235089791.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海亮股份10月12日获深股通增持13.38万股</t>
+          <t>海亮股份10月13日获深股通增持24.56万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-13 07:58</t>
+          <t>10-14 07:52</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1234647074.html</t>
+          <t>/news,002203,1235082599.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交2073.75万元，成交价11.85元（10-12）</t>
+          <t>海亮股份：融资净偿还416.59万元，融资余额13.74亿元（10-12）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-12 18:01</t>
+          <t>10-13 08:47</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1234530021.html</t>
+          <t>/news,002203,1234653293.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计1793.93万元（10-11）</t>
+          <t>海亮股份10月12日获深股通增持13.38万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-12 08:55</t>
+          <t>10-13 07:58</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1234219895.html</t>
+          <t>/news,002203,1234647074.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入748.1万元，融资余额13.75亿元（10-10）</t>
+          <t>大宗交易：海亮股份成交2073.75万元，成交价11.85元（10-12）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-11 08:44</t>
+          <t>10-12 18:01</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1233844293.html</t>
+          <t>/news,002203,1234530021.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份10月10日被深股通减持16.34万股</t>
+          <t>海亮股份：连续3日融资净买入累计1793.93万元（10-11）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-11 07:44</t>
+          <t>10-12 08:55</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1233835862.html</t>
+          <t>/news,002203,1234219895.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>海亮股份：“海亮转债”第三季度转股1521股</t>
+          <t>海亮股份：融资净买入748.1万元，融资余额13.75亿元（10-10）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-10 17:12</t>
+          <t>10-11 08:44</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1233711216.html</t>
+          <t>/news,002203,1233844293.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入696.33万元，融资余额13.67亿元（09-30）</t>
+          <t>海亮股份10月10日被深股通减持16.34万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-10 09:54</t>
+          <t>10-11 07:44</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1233448078.html</t>
+          <t>/news,002203,1233835862.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净买入1790.88万元，居有色金属板块第四</t>
+          <t>海亮股份：“海亮转债”第三季度转股1521股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-09 15:07</t>
+          <t>10-10 17:12</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1233323236.html</t>
+          <t>/news,002203,1233711216.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加189.57万元，居有色金属板块第九</t>
+          <t>海亮股份：融资净买入696.33万元，融资余额13.67亿元（09-30）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-09 14:07</t>
+          <t>10-10 09:54</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1233317637.html</t>
+          <t>/news,002203,1233448078.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>473</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还782.64万元，融资余额13.6亿元（09-29）</t>
+          <t>海亮股份本周融资净买入1790.88万元，居有色金属板块第四</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-30 08:46</t>
+          <t>10-09 15:07</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1232543292.html</t>
+          <t>/news,002203,1233323236.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份09月29日被深股通减持34.97万股</t>
+          <t>海亮股份本周深股通持股市值增加189.57万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-30 07:56</t>
+          <t>10-09 14:07</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1232537093.html</t>
+          <t>/news,002203,1233317637.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海亮股份：连续9日融资净买入累计7512万元（09-28）</t>
+          <t>海亮股份：融资净偿还782.64万元，融资余额13.6亿元（09-29）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-29 08:43</t>
+          <t>09-30 08:46</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1232095238.html</t>
+          <t>/news,002203,1232543292.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海亮股份09月28日获深股通增持36.87万股</t>
+          <t>海亮股份09月29日被深股通减持34.97万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-29 07:54</t>
+          <t>09-30 07:56</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1232088373.html</t>
+          <t>/news,002203,1232537093.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>海亮股份：连续8日融资净买入累计6267.71万元（09-27）</t>
+          <t>海亮股份：连续9日融资净买入累计7512万元（09-28）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-28 08:46</t>
+          <t>09-29 08:43</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1231643650.html</t>
+          <t>/news,002203,1232095238.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份09月27日获深股通增持26.07万股</t>
+          <t>海亮股份09月28日获深股通增持36.87万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-28 07:48</t>
+          <t>09-29 07:54</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1231637091.html</t>
+          <t>/news,002203,1232088373.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>海亮股份：连续7日融资净买入累计5773.23万元（09-26）</t>
+          <t>海亮股份：连续8日融资净买入累计6267.71万元（09-27）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-27 08:51</t>
+          <t>09-28 08:46</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1231254918.html</t>
+          <t>/news,002203,1231643650.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>海亮股份09月26日获深股通增持9.7万股</t>
+          <t>海亮股份09月27日获深股通增持26.07万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-27 07:50</t>
+          <t>09-28 07:48</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1231247383.html</t>
+          <t>/news,002203,1231637091.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份：连续6日融资净买入累计4938.47万元（09-23）</t>
+          <t>海亮股份：连续7日融资净买入累计5773.23万元（09-26）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-26 08:58</t>
+          <t>09-27 08:51</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1230807031.html</t>
+          <t>/news,002203,1231254918.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净买入3780.49万元，居有色金属板块第三</t>
+          <t>海亮股份09月26日获深股通增持9.7万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-25 15:07</t>
+          <t>09-27 07:50</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1230728297.html</t>
+          <t>/news,002203,1231247383.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>深股通连续3周净卖出海亮股份 累计净卖出3101.12万元</t>
+          <t>海亮股份：连续6日融资净买入累计4938.47万元（09-23）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-25 14:06</t>
+          <t>09-26 08:58</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1230723490.html</t>
+          <t>/news,002203,1230807031.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份09月23日被深股通减持10.04万股</t>
+          <t>海亮股份本周融资净买入3780.49万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-24 07:53</t>
+          <t>09-25 15:07</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1230641220.html</t>
+          <t>/news,002203,1230728297.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交638.55万元，成交价11.85元（09-23）</t>
+          <t>深股通连续3周净卖出海亮股份 累计净卖出3101.12万元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-23 18:00</t>
+          <t>09-25 14:06</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1230564407.html</t>
+          <t>/news,002203,1230723490.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份：连续5日融资净买入累计4080.57万元（09-22）</t>
+          <t>海亮股份09月23日被深股通减持10.04万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-23 08:41</t>
+          <t>09-24 07:53</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1230241526.html</t>
+          <t>/news,002203,1230641220.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>海亮股份09月22日获深股通增持3.75万股</t>
+          <t>大宗交易：海亮股份成交638.55万元，成交价11.85元（09-23）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-23 07:54</t>
+          <t>09-23 18:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1230234901.html</t>
+          <t>/news,002203,1230564407.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交844.9万元，成交价11.90元（09-22）</t>
+          <t>海亮股份：连续5日融资净买入累计4080.57万元（09-22）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-22 18:00</t>
+          <t>09-23 08:41</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1230125306.html</t>
+          <t>/news,002203,1230241526.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净买入累计3547.26万元（09-21）</t>
+          <t>海亮股份09月22日获深股通增持3.75万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-22 08:43</t>
+          <t>09-23 07:54</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1229818459.html</t>
+          <t>/news,002203,1230234901.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计2142.48万元（09-20）</t>
+          <t>大宗交易：海亮股份成交844.9万元，成交价11.90元（09-22）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-21 08:43</t>
+          <t>09-22 18:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1229388492.html</t>
+          <t>/news,002203,1230125306.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份09月20日被深股通减持51.13万股</t>
+          <t>海亮股份：连续4日融资净买入累计3547.26万元（09-21）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-21 07:36</t>
+          <t>09-22 08:43</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1229380570.html</t>
+          <t>/news,002203,1229818459.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入1311.38万元，融资余额13.09亿元（09-19）</t>
+          <t>海亮股份：连续3日融资净买入累计2142.48万元（09-20）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-20 08:41</t>
+          <t>09-21 08:43</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1228978518.html</t>
+          <t>/news,002203,1229388492.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>74</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
+          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-03 08:50</t>
+          <t>11-04 08:46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1242333917.html</t>
+          <t>/news,002203,1242825348.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>85</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份11月02日被深股通减持37万股</t>
+          <t>海亮股份11月03日被深股通减持24.45万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-03 07:53</t>
+          <t>11-04 07:45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1242326027.html</t>
+          <t>/news,002203,1242816307.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
+          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-02 08:50</t>
+          <t>11-03 08:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1241809291.html</t>
+          <t>/news,002203,1242333917.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份11月01日被深股通减持93.33万股</t>
+          <t>海亮股份11月02日被深股通减持37万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-02 07:53</t>
+          <t>11-03 07:53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1241801731.html</t>
+          <t>/news,002203,1242326027.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
+          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-01 19:38</t>
+          <t>11-02 08:50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1241692171.html</t>
+          <t>/news,002203,1241809291.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
+          <t>海亮股份11月01日被深股通减持93.33万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-01 08:53</t>
+          <t>11-02 07:53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1241305030.html</t>
+          <t>/news,002203,1241801731.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海亮股份10月31日被深股通减持33万股</t>
+          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-01 07:45</t>
+          <t>11-01 19:38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1241295775.html</t>
+          <t>/news,002203,1241692171.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
+          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-01 08:53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1241260925.html</t>
+          <t>/news,002203,1241305030.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
+          <t>海亮股份10月31日被深股通减持33万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-31 21:52</t>
+          <t>11-01 07:45</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1241248353.html</t>
+          <t>/news,002203,1241295775.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
+          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-31 18:32</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1241186957.html</t>
+          <t>/news,002203,1241260925.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01%</t>
+          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-31 14:01</t>
+          <t>10-31 21:52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1241068293.html</t>
+          <t>/news,002203,1241248353.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
+          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-31 11:31</t>
+          <t>10-31 18:32</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1240981015.html</t>
+          <t>/news,002203,1241186957.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
+          <t>海亮股份：前三季度营收同比增长16.01%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-31 10:42</t>
+          <t>10-31 14:01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1240932054.html</t>
+          <t>/news,002203,1241068293.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
+          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>10-31 11:31</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1240796164.html</t>
+          <t>/news,002203,1240981015.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
+          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-30 23:17</t>
+          <t>10-31 10:42</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1240765953.html</t>
+          <t>/news,002203,1240932054.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
+          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-30 19:01</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1240738815.html</t>
+          <t>/news,002203,1240796164.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
+          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-30 16:09</t>
+          <t>10-30 23:17</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1240722642.html</t>
+          <t>/news,002203,1240765953.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
+          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-30 15:45</t>
+          <t>10-30 19:01</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1240719401.html</t>
+          <t>/news,002203,1240738815.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
+          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-30 15:38</t>
+          <t>10-30 16:09</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1240718008.html</t>
+          <t>/news,002203,1240722642.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
+          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-30 15:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1240714289.html</t>
+          <t>/news,002203,1240719401.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
+          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 15:38</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1240707038.html</t>
+          <t>/news,002203,1240718008.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份10月28日获深股通增持31.72万股</t>
+          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-29 07:48</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1240599628.html</t>
+          <t>/news,002203,1240714289.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
+          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-28 09:04</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1240060169.html</t>
+          <t>/news,002203,1240707038.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海亮股份10月27日获深股通增持7.69万股</t>
+          <t>海亮股份10月28日获深股通增持31.72万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-29 07:48</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1240047226.html</t>
+          <t>/news,002203,1240599628.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
+          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-27 08:48</t>
+          <t>10-28 09:04</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1239505387.html</t>
+          <t>/news,002203,1240060169.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>海亮股份10月26日被深股通减持10.18万股</t>
+          <t>海亮股份10月27日获深股通增持7.69万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-27 07:42</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1239496073.html</t>
+          <t>/news,002203,1240047226.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
+          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-26 08:46</t>
+          <t>10-27 08:48</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1238977163.html</t>
+          <t>/news,002203,1239505387.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份10月25日获深股通增持32.12万股</t>
+          <t>海亮股份10月26日被深股通减持10.18万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-26 07:47</t>
+          <t>10-27 07:42</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1238968262.html</t>
+          <t>/news,002203,1239496073.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
+          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-25 08:47</t>
+          <t>10-26 08:46</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1238457077.html</t>
+          <t>/news,002203,1238977163.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份10月24日获深股通增持14.88万股</t>
+          <t>海亮股份10月25日获深股通增持32.12万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-25 07:42</t>
+          <t>10-26 07:47</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1238446612.html</t>
+          <t>/news,002203,1238968262.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
+          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-24 18:00</t>
+          <t>10-25 08:47</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1238323615.html</t>
+          <t>/news,002203,1238457077.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
+          <t>海亮股份10月24日获深股通增持14.88万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-24 08:57</t>
+          <t>10-25 07:42</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1237923033.html</t>
+          <t>/news,002203,1238446612.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
+          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-24 18:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1237864690.html</t>
+          <t>/news,002203,1238323615.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
+          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 08:57</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1237860223.html</t>
+          <t>/news,002203,1237923033.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海亮股份10月21日被深股通减持20.37万股</t>
+          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1237796792.html</t>
+          <t>/news,002203,1237864690.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
+          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1237356514.html</t>
+          <t>/news,002203,1237860223.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海亮股份10月20日被深股通减持22万股</t>
+          <t>海亮股份10月21日被深股通减持20.37万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-21 07:42</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1237346841.html</t>
+          <t>/news,002203,1237796792.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
+          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-20 08:45</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1236895274.html</t>
+          <t>/news,002203,1237356514.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海亮股份10月19日获深股通增持37.45万股</t>
+          <t>海亮股份10月20日被深股通减持22万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-20 07:47</t>
+          <t>10-21 07:42</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1236888525.html</t>
+          <t>/news,002203,1237346841.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
+          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-19 08:59</t>
+          <t>10-20 08:45</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1236448340.html</t>
+          <t>/news,002203,1236895274.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海亮股份10月18日获深股通增持21.27万股</t>
+          <t>海亮股份10月19日获深股通增持37.45万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-20 07:47</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1236441238.html</t>
+          <t>/news,002203,1236888525.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
+          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-18 18:00</t>
+          <t>10-19 08:59</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1236349298.html</t>
+          <t>/news,002203,1236448340.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
+          <t>海亮股份10月18日获深股通增持21.27万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-18 08:51</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1236048585.html</t>
+          <t>/news,002203,1236441238.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海亮股份10月17日获深股通增持19.27万股</t>
+          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-18 18:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1236041241.html</t>
+          <t>/news,002203,1236349298.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，成交价12.24元（10-17）</t>
+          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-18 08:51</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1235954060.html</t>
+          <t>/news,002203,1236048585.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还670.26万元，融资余额13.7亿元（10-14）</t>
+          <t>海亮股份10月17日获深股通增持19.27万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-17 08:47</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1235651362.html</t>
+          <t>/news,002203,1236041241.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净买入891.32万元，居有色金属板块第七</t>
+          <t>大宗交易：海亮股份成交201.96万元，成交价12.24元（10-17）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-16 15:08</t>
+          <t>10-17 18:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1235581586.html</t>
+          <t>/news,002203,1235954060.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>深股通连续2周净买入海亮股份 累计净买入970.1万元</t>
+          <t>海亮股份：融资净偿还670.26万元，融资余额13.7亿元（10-14）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-16 14:07</t>
+          <t>10-17 08:47</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1235576448.html</t>
+          <t>/news,002203,1235651362.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份10月14日获深股通增持23.79万股</t>
+          <t>海亮股份本周融资净买入891.32万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-15 07:48</t>
+          <t>10-16 15:08</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1235511370.html</t>
+          <t>/news,002203,1235581586.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1177万元，折价1.01%（10-14）</t>
+          <t>深股通连续2周净买入海亮股份 累计净买入970.1万元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-14 18:00</t>
+          <t>10-16 14:07</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1235409514.html</t>
+          <t>/news,002203,1235576448.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入210.31万元，融资余额13.76亿元（10-13）</t>
+          <t>海亮股份10月14日获深股通增持23.79万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-14 08:47</t>
+          <t>10-15 07:48</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1235089791.html</t>
+          <t>/news,002203,1235511370.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海亮股份10月13日获深股通增持24.56万股</t>
+          <t>大宗交易：海亮股份成交1177万元，折价1.01%（10-14）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-14 07:52</t>
+          <t>10-14 18:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1235082599.html</t>
+          <t>/news,002203,1235409514.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还416.59万元，融资余额13.74亿元（10-12）</t>
+          <t>海亮股份：融资净买入210.31万元，融资余额13.76亿元（10-13）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-13 08:47</t>
+          <t>10-14 08:47</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1234653293.html</t>
+          <t>/news,002203,1235089791.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份10月12日获深股通增持13.38万股</t>
+          <t>海亮股份10月13日获深股通增持24.56万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-13 07:58</t>
+          <t>10-14 07:52</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1234647074.html</t>
+          <t>/news,002203,1235082599.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交2073.75万元，成交价11.85元（10-12）</t>
+          <t>海亮股份：融资净偿还416.59万元，融资余额13.74亿元（10-12）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-12 18:01</t>
+          <t>10-13 08:47</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1234530021.html</t>
+          <t>/news,002203,1234653293.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计1793.93万元（10-11）</t>
+          <t>海亮股份10月12日获深股通增持13.38万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-12 08:55</t>
+          <t>10-13 07:58</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1234219895.html</t>
+          <t>/news,002203,1234647074.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入748.1万元，融资余额13.75亿元（10-10）</t>
+          <t>大宗交易：海亮股份成交2073.75万元，成交价11.85元（10-12）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-11 08:44</t>
+          <t>10-12 18:01</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1233844293.html</t>
+          <t>/news,002203,1234530021.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>海亮股份10月10日被深股通减持16.34万股</t>
+          <t>海亮股份：连续3日融资净买入累计1793.93万元（10-11）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-11 07:44</t>
+          <t>10-12 08:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1233835862.html</t>
+          <t>/news,002203,1234219895.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份：“海亮转债”第三季度转股1521股</t>
+          <t>海亮股份：融资净买入748.1万元，融资余额13.75亿元（10-10）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-10 17:12</t>
+          <t>10-11 08:44</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1233711216.html</t>
+          <t>/news,002203,1233844293.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入696.33万元，融资余额13.67亿元（09-30）</t>
+          <t>海亮股份10月10日被深股通减持16.34万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-10 09:54</t>
+          <t>10-11 07:44</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1233448078.html</t>
+          <t>/news,002203,1233835862.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净买入1790.88万元，居有色金属板块第四</t>
+          <t>海亮股份：“海亮转债”第三季度转股1521股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-09 15:07</t>
+          <t>10-10 17:12</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1233323236.html</t>
+          <t>/news,002203,1233711216.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加189.57万元，居有色金属板块第九</t>
+          <t>海亮股份：融资净买入696.33万元，融资余额13.67亿元（09-30）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-09 14:07</t>
+          <t>10-10 09:54</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1233317637.html</t>
+          <t>/news,002203,1233448078.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>474</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还782.64万元，融资余额13.6亿元（09-29）</t>
+          <t>海亮股份本周融资净买入1790.88万元，居有色金属板块第四</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-30 08:46</t>
+          <t>10-09 15:07</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1232543292.html</t>
+          <t>/news,002203,1233323236.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海亮股份09月29日被深股通减持34.97万股</t>
+          <t>海亮股份本周深股通持股市值增加189.57万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-30 07:56</t>
+          <t>10-09 14:07</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1232537093.html</t>
+          <t>/news,002203,1233317637.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>海亮股份：连续9日融资净买入累计7512万元（09-28）</t>
+          <t>海亮股份：融资净偿还782.64万元，融资余额13.6亿元（09-29）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-29 08:43</t>
+          <t>09-30 08:46</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1232095238.html</t>
+          <t>/news,002203,1232543292.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份09月28日获深股通增持36.87万股</t>
+          <t>海亮股份09月29日被深股通减持34.97万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-29 07:54</t>
+          <t>09-30 07:56</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1232088373.html</t>
+          <t>/news,002203,1232537093.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>海亮股份：连续8日融资净买入累计6267.71万元（09-27）</t>
+          <t>海亮股份：连续9日融资净买入累计7512万元（09-28）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-28 08:46</t>
+          <t>09-29 08:43</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1231643650.html</t>
+          <t>/news,002203,1232095238.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>海亮股份09月27日获深股通增持26.07万股</t>
+          <t>海亮股份09月28日获深股通增持36.87万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-28 07:48</t>
+          <t>09-29 07:54</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1231637091.html</t>
+          <t>/news,002203,1232088373.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份：连续7日融资净买入累计5773.23万元（09-26）</t>
+          <t>海亮股份：连续8日融资净买入累计6267.71万元（09-27）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-27 08:51</t>
+          <t>09-28 08:46</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1231254918.html</t>
+          <t>/news,002203,1231643650.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份09月26日获深股通增持9.7万股</t>
+          <t>海亮股份09月27日获深股通增持26.07万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-27 07:50</t>
+          <t>09-28 07:48</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1231247383.html</t>
+          <t>/news,002203,1231637091.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海亮股份：连续6日融资净买入累计4938.47万元（09-23）</t>
+          <t>海亮股份：连续7日融资净买入累计5773.23万元（09-26）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-26 08:58</t>
+          <t>09-27 08:51</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1230807031.html</t>
+          <t>/news,002203,1231254918.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净买入3780.49万元，居有色金属板块第三</t>
+          <t>海亮股份09月26日获深股通增持9.7万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-25 15:07</t>
+          <t>09-27 07:50</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1230728297.html</t>
+          <t>/news,002203,1231247383.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>深股通连续3周净卖出海亮股份 累计净卖出3101.12万元</t>
+          <t>海亮股份：连续6日融资净买入累计4938.47万元（09-23）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-25 14:06</t>
+          <t>09-26 08:58</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1230723490.html</t>
+          <t>/news,002203,1230807031.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份09月23日被深股通减持10.04万股</t>
+          <t>海亮股份本周融资净买入3780.49万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-24 07:53</t>
+          <t>09-25 15:07</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1230641220.html</t>
+          <t>/news,002203,1230728297.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交638.55万元，成交价11.85元（09-23）</t>
+          <t>深股通连续3周净卖出海亮股份 累计净卖出3101.12万元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-23 18:00</t>
+          <t>09-25 14:06</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1230564407.html</t>
+          <t>/news,002203,1230723490.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海亮股份：连续5日融资净买入累计4080.57万元（09-22）</t>
+          <t>海亮股份09月23日被深股通减持10.04万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-23 08:41</t>
+          <t>09-24 07:53</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1230241526.html</t>
+          <t>/news,002203,1230641220.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海亮股份09月22日获深股通增持3.75万股</t>
+          <t>大宗交易：海亮股份成交638.55万元，成交价11.85元（09-23）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-23 07:54</t>
+          <t>09-23 18:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1230234901.html</t>
+          <t>/news,002203,1230564407.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交844.9万元，成交价11.90元（09-22）</t>
+          <t>海亮股份：连续5日融资净买入累计4080.57万元（09-22）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-22 18:00</t>
+          <t>09-23 08:41</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1230125306.html</t>
+          <t>/news,002203,1230241526.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净买入累计3547.26万元（09-21）</t>
+          <t>海亮股份09月22日获深股通增持3.75万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-22 08:43</t>
+          <t>09-23 07:54</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1229818459.html</t>
+          <t>/news,002203,1230234901.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计2142.48万元（09-20）</t>
+          <t>大宗交易：海亮股份成交844.9万元，成交价11.90元（09-22）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-21 08:43</t>
+          <t>09-22 18:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1229388492.html</t>
+          <t>/news,002203,1230125306.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
+          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-04 08:46</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1242825348.html</t>
+          <t>/news,002203,1243512300.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份11月03日被深股通减持24.45万股</t>
+          <t>海亮股份：接受华福证券等机构调研</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-04 07:45</t>
+          <t>11-07 06:29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1242816307.html</t>
+          <t>/news,002203,1243503533.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
+          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-03 08:50</t>
+          <t>11-06 15:09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1242333917.html</t>
+          <t>/news,002203,1243411409.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份11月02日被深股通减持37万股</t>
+          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-03 07:53</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1242326027.html</t>
+          <t>/news,002203,1243404984.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
+          <t>海亮股份11月04日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-02 08:50</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1241809291.html</t>
+          <t>/news,002203,1243317851.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海亮股份11月01日被深股通减持93.33万股</t>
+          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-02 07:53</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1241801731.html</t>
+          <t>/news,002203,1243229307.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
+          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-01 19:38</t>
+          <t>11-04 08:46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1241692171.html</t>
+          <t>/news,002203,1242825348.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
+          <t>海亮股份11月03日被深股通减持24.45万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-01 08:53</t>
+          <t>11-04 07:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1241305030.html</t>
+          <t>/news,002203,1242816307.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海亮股份10月31日被深股通减持33万股</t>
+          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-01 07:45</t>
+          <t>11-03 08:50</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1241295775.html</t>
+          <t>/news,002203,1242333917.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
+          <t>海亮股份11月02日被深股通减持37万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-03 07:53</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1241260925.html</t>
+          <t>/news,002203,1242326027.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
+          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-31 21:52</t>
+          <t>11-02 08:50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1241248353.html</t>
+          <t>/news,002203,1241809291.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
+          <t>海亮股份11月01日被深股通减持93.33万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-31 18:32</t>
+          <t>11-02 07:53</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1241186957.html</t>
+          <t>/news,002203,1241801731.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01%</t>
+          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-31 14:01</t>
+          <t>11-01 19:38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1241068293.html</t>
+          <t>/news,002203,1241692171.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
+          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-31 11:31</t>
+          <t>11-01 08:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1240981015.html</t>
+          <t>/news,002203,1241305030.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
+          <t>海亮股份10月31日被深股通减持33万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-31 10:42</t>
+          <t>11-01 07:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1240932054.html</t>
+          <t>/news,002203,1241295775.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
+          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1240796164.html</t>
+          <t>/news,002203,1241260925.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
+          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-30 23:17</t>
+          <t>10-31 21:52</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1240765953.html</t>
+          <t>/news,002203,1241248353.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
+          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-30 19:01</t>
+          <t>10-31 18:32</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1240738815.html</t>
+          <t>/news,002203,1241186957.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
+          <t>海亮股份：前三季度营收同比增长16.01%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-30 16:09</t>
+          <t>10-31 14:01</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1240722642.html</t>
+          <t>/news,002203,1241068293.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
+          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-30 15:45</t>
+          <t>10-31 11:31</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1240719401.html</t>
+          <t>/news,002203,1240981015.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
+          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-30 15:38</t>
+          <t>10-31 10:42</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1240718008.html</t>
+          <t>/news,002203,1240932054.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
+          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1240714289.html</t>
+          <t>/news,002203,1240796164.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
+          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 23:17</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1240707038.html</t>
+          <t>/news,002203,1240765953.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海亮股份10月28日获深股通增持31.72万股</t>
+          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-29 07:48</t>
+          <t>10-30 19:01</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1240599628.html</t>
+          <t>/news,002203,1240738815.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
+          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-28 09:04</t>
+          <t>10-30 16:09</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1240060169.html</t>
+          <t>/news,002203,1240722642.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>海亮股份10月27日获深股通增持7.69万股</t>
+          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-30 15:45</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1240047226.html</t>
+          <t>/news,002203,1240719401.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
+          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-27 08:48</t>
+          <t>10-30 15:38</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1239505387.html</t>
+          <t>/news,002203,1240718008.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份10月26日被深股通减持10.18万股</t>
+          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-27 07:42</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1239496073.html</t>
+          <t>/news,002203,1240714289.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
+          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-26 08:46</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1238977163.html</t>
+          <t>/news,002203,1240707038.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份10月25日获深股通增持32.12万股</t>
+          <t>海亮股份10月28日获深股通增持31.72万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-26 07:47</t>
+          <t>10-29 07:48</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1238968262.html</t>
+          <t>/news,002203,1240599628.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
+          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-25 08:47</t>
+          <t>10-28 09:04</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1238457077.html</t>
+          <t>/news,002203,1240060169.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份10月24日获深股通增持14.88万股</t>
+          <t>海亮股份10月27日获深股通增持7.69万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 07:42</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1238446612.html</t>
+          <t>/news,002203,1240047226.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
+          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-24 18:00</t>
+          <t>10-27 08:48</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1238323615.html</t>
+          <t>/news,002203,1239505387.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
+          <t>海亮股份10月26日被深股通减持10.18万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-24 08:57</t>
+          <t>10-27 07:42</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1237923033.html</t>
+          <t>/news,002203,1239496073.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
+          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-26 08:46</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1237864690.html</t>
+          <t>/news,002203,1238977163.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
+          <t>海亮股份10月25日获深股通增持32.12万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-26 07:47</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1237860223.html</t>
+          <t>/news,002203,1238968262.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海亮股份10月21日被深股通减持20.37万股</t>
+          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-25 08:47</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1237796792.html</t>
+          <t>/news,002203,1238457077.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
+          <t>海亮股份10月24日获深股通增持14.88万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-25 07:42</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1237356514.html</t>
+          <t>/news,002203,1238446612.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海亮股份10月20日被深股通减持22万股</t>
+          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-21 07:42</t>
+          <t>10-24 18:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1237346841.html</t>
+          <t>/news,002203,1238323615.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
+          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-20 08:45</t>
+          <t>10-24 08:57</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1236895274.html</t>
+          <t>/news,002203,1237923033.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海亮股份10月19日获深股通增持37.45万股</t>
+          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-20 07:47</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1236888525.html</t>
+          <t>/news,002203,1237864690.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
+          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-19 08:59</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1236448340.html</t>
+          <t>/news,002203,1237860223.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份10月18日获深股通增持21.27万股</t>
+          <t>海亮股份10月21日被深股通减持20.37万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1236441238.html</t>
+          <t>/news,002203,1237796792.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
+          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-18 18:00</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1236349298.html</t>
+          <t>/news,002203,1237356514.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
+          <t>海亮股份10月20日被深股通减持22万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-18 08:51</t>
+          <t>10-21 07:42</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1236048585.html</t>
+          <t>/news,002203,1237346841.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份10月17日获深股通增持19.27万股</t>
+          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-20 08:45</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1236041241.html</t>
+          <t>/news,002203,1236895274.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，成交价12.24元（10-17）</t>
+          <t>海亮股份10月19日获深股通增持37.45万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-20 07:47</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1235954060.html</t>
+          <t>/news,002203,1236888525.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还670.26万元，融资余额13.7亿元（10-14）</t>
+          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-17 08:47</t>
+          <t>10-19 08:59</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1235651362.html</t>
+          <t>/news,002203,1236448340.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净买入891.32万元，居有色金属板块第七</t>
+          <t>海亮股份10月18日获深股通增持21.27万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-16 15:08</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1235581586.html</t>
+          <t>/news,002203,1236441238.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>深股通连续2周净买入海亮股份 累计净买入970.1万元</t>
+          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-16 14:07</t>
+          <t>10-18 18:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1235576448.html</t>
+          <t>/news,002203,1236349298.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份10月14日获深股通增持23.79万股</t>
+          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-15 07:48</t>
+          <t>10-18 08:51</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1235511370.html</t>
+          <t>/news,002203,1236048585.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1177万元，折价1.01%（10-14）</t>
+          <t>海亮股份10月17日获深股通增持19.27万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-14 18:00</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1235409514.html</t>
+          <t>/news,002203,1236041241.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入210.31万元，融资余额13.76亿元（10-13）</t>
+          <t>大宗交易：海亮股份成交201.96万元，成交价12.24元（10-17）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-14 08:47</t>
+          <t>10-17 18:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1235089791.html</t>
+          <t>/news,002203,1235954060.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份10月13日获深股通增持24.56万股</t>
+          <t>海亮股份：融资净偿还670.26万元，融资余额13.7亿元（10-14）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-14 07:52</t>
+          <t>10-17 08:47</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1235082599.html</t>
+          <t>/news,002203,1235651362.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还416.59万元，融资余额13.74亿元（10-12）</t>
+          <t>海亮股份本周融资净买入891.32万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-13 08:47</t>
+          <t>10-16 15:08</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1234653293.html</t>
+          <t>/news,002203,1235581586.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份10月12日获深股通增持13.38万股</t>
+          <t>深股通连续2周净买入海亮股份 累计净买入970.1万元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-13 07:58</t>
+          <t>10-16 14:07</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1234647074.html</t>
+          <t>/news,002203,1235576448.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交2073.75万元，成交价11.85元（10-12）</t>
+          <t>海亮股份10月14日获深股通增持23.79万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-12 18:01</t>
+          <t>10-15 07:48</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1234530021.html</t>
+          <t>/news,002203,1235511370.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计1793.93万元（10-11）</t>
+          <t>大宗交易：海亮股份成交1177万元，折价1.01%（10-14）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-12 08:55</t>
+          <t>10-14 18:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1234219895.html</t>
+          <t>/news,002203,1235409514.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入748.1万元，融资余额13.75亿元（10-10）</t>
+          <t>海亮股份：融资净买入210.31万元，融资余额13.76亿元（10-13）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-11 08:44</t>
+          <t>10-14 08:47</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1233844293.html</t>
+          <t>/news,002203,1235089791.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份10月10日被深股通减持16.34万股</t>
+          <t>海亮股份10月13日获深股通增持24.56万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-11 07:44</t>
+          <t>10-14 07:52</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1233835862.html</t>
+          <t>/news,002203,1235082599.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份：“海亮转债”第三季度转股1521股</t>
+          <t>海亮股份：融资净偿还416.59万元，融资余额13.74亿元（10-12）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-10 17:12</t>
+          <t>10-13 08:47</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1233711216.html</t>
+          <t>/news,002203,1234653293.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入696.33万元，融资余额13.67亿元（09-30）</t>
+          <t>海亮股份10月12日获深股通增持13.38万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-10 09:54</t>
+          <t>10-13 07:58</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1233448078.html</t>
+          <t>/news,002203,1234647074.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净买入1790.88万元，居有色金属板块第四</t>
+          <t>大宗交易：海亮股份成交2073.75万元，成交价11.85元（10-12）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-09 15:07</t>
+          <t>10-12 18:01</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1233323236.html</t>
+          <t>/news,002203,1234530021.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加189.57万元，居有色金属板块第九</t>
+          <t>海亮股份：连续3日融资净买入累计1793.93万元（10-11）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-09 14:07</t>
+          <t>10-12 08:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1233317637.html</t>
+          <t>/news,002203,1234219895.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还782.64万元，融资余额13.6亿元（09-29）</t>
+          <t>海亮股份：融资净买入748.1万元，融资余额13.75亿元（10-10）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-30 08:46</t>
+          <t>10-11 08:44</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1232543292.html</t>
+          <t>/news,002203,1233844293.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份09月29日被深股通减持34.97万股</t>
+          <t>海亮股份10月10日被深股通减持16.34万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-30 07:56</t>
+          <t>10-11 07:44</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1232537093.html</t>
+          <t>/news,002203,1233835862.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>海亮股份：连续9日融资净买入累计7512万元（09-28）</t>
+          <t>海亮股份：“海亮转债”第三季度转股1521股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-29 08:43</t>
+          <t>10-10 17:12</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1232095238.html</t>
+          <t>/news,002203,1233711216.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>海亮股份09月28日获深股通增持36.87万股</t>
+          <t>海亮股份：融资净买入696.33万元，融资余额13.67亿元（09-30）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-29 07:54</t>
+          <t>10-10 09:54</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1232088373.html</t>
+          <t>/news,002203,1233448078.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份：连续8日融资净买入累计6267.71万元（09-27）</t>
+          <t>海亮股份本周融资净买入1790.88万元，居有色金属板块第四</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-28 08:46</t>
+          <t>10-09 15:07</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1231643650.html</t>
+          <t>/news,002203,1233323236.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>482</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份09月27日获深股通增持26.07万股</t>
+          <t>海亮股份本周深股通持股市值增加189.57万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-28 07:48</t>
+          <t>10-09 14:07</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1231637091.html</t>
+          <t>/news,002203,1233317637.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海亮股份：连续7日融资净买入累计5773.23万元（09-26）</t>
+          <t>海亮股份：融资净偿还782.64万元，融资余额13.6亿元（09-29）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-27 08:51</t>
+          <t>09-30 08:46</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1231254918.html</t>
+          <t>/news,002203,1232543292.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份09月26日获深股通增持9.7万股</t>
+          <t>海亮股份09月29日被深股通减持34.97万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-27 07:50</t>
+          <t>09-30 07:56</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1231247383.html</t>
+          <t>/news,002203,1232537093.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海亮股份：连续6日融资净买入累计4938.47万元（09-23）</t>
+          <t>海亮股份：连续9日融资净买入累计7512万元（09-28）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-26 08:58</t>
+          <t>09-29 08:43</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1230807031.html</t>
+          <t>/news,002203,1232095238.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净买入3780.49万元，居有色金属板块第三</t>
+          <t>海亮股份09月28日获深股通增持36.87万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-25 15:07</t>
+          <t>09-29 07:54</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1230728297.html</t>
+          <t>/news,002203,1232088373.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>深股通连续3周净卖出海亮股份 累计净卖出3101.12万元</t>
+          <t>海亮股份：连续8日融资净买入累计6267.71万元（09-27）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-25 14:06</t>
+          <t>09-28 08:46</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1230723490.html</t>
+          <t>/news,002203,1231643650.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海亮股份09月23日被深股通减持10.04万股</t>
+          <t>海亮股份09月27日获深股通增持26.07万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-24 07:53</t>
+          <t>09-28 07:48</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1230641220.html</t>
+          <t>/news,002203,1231637091.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交638.55万元，成交价11.85元（09-23）</t>
+          <t>海亮股份：连续7日融资净买入累计5773.23万元（09-26）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-23 18:00</t>
+          <t>09-27 08:51</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1230564407.html</t>
+          <t>/news,002203,1231254918.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海亮股份：连续5日融资净买入累计4080.57万元（09-22）</t>
+          <t>海亮股份09月26日获深股通增持9.7万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-23 08:41</t>
+          <t>09-27 07:50</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1230241526.html</t>
+          <t>/news,002203,1231247383.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份09月22日获深股通增持3.75万股</t>
+          <t>海亮股份：连续6日融资净买入累计4938.47万元（09-23）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-23 07:54</t>
+          <t>09-26 08:58</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1230234901.html</t>
+          <t>/news,002203,1230807031.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交844.9万元，成交价11.90元（09-22）</t>
+          <t>海亮股份本周融资净买入3780.49万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-22 18:00</t>
+          <t>09-25 15:07</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1230125306.html</t>
+          <t>/news,002203,1230728297.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
+          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-08 08:45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1243512300.html</t>
+          <t>/news,002203,1243982408.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>106</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份：接受华福证券等机构调研</t>
+          <t>海亮股份11月07日获深股通增持70.03万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-07 06:29</t>
+          <t>11-08 07:41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1243503533.html</t>
+          <t>/news,002203,1243972851.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
+          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-06 15:09</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1243411409.html</t>
+          <t>/news,002203,1243512300.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
+          <t>海亮股份：接受华福证券等机构调研</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 06:29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1243404984.html</t>
+          <t>/news,002203,1243503533.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海亮股份11月04日被深股通减持3.02万股</t>
+          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-06 15:09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1243317851.html</t>
+          <t>/news,002203,1243411409.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
+          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1243229307.html</t>
+          <t>/news,002203,1243404984.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
+          <t>海亮股份11月04日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-04 08:46</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1242825348.html</t>
+          <t>/news,002203,1243317851.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份11月03日被深股通减持24.45万股</t>
+          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-04 07:45</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1242816307.html</t>
+          <t>/news,002203,1243229307.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
+          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-03 08:50</t>
+          <t>11-04 08:46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1242333917.html</t>
+          <t>/news,002203,1242825348.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份11月02日被深股通减持37万股</t>
+          <t>海亮股份11月03日被深股通减持24.45万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-03 07:53</t>
+          <t>11-04 07:45</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1242326027.html</t>
+          <t>/news,002203,1242816307.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
+          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-02 08:50</t>
+          <t>11-03 08:50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1241809291.html</t>
+          <t>/news,002203,1242333917.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海亮股份11月01日被深股通减持93.33万股</t>
+          <t>海亮股份11月02日被深股通减持37万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-02 07:53</t>
+          <t>11-03 07:53</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1241801731.html</t>
+          <t>/news,002203,1242326027.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
+          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-01 19:38</t>
+          <t>11-02 08:50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1241692171.html</t>
+          <t>/news,002203,1241809291.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
+          <t>海亮股份11月01日被深股通减持93.33万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-01 08:53</t>
+          <t>11-02 07:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1241305030.html</t>
+          <t>/news,002203,1241801731.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,39 +915,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海亮股份10月31日被深股通减持33万股</t>
+          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-01 07:45</t>
+          <t>11-01 19:38</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1241295775.html</t>
+          <t>/news,002203,1241692171.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
+          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-01 08:53</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1241260925.html</t>
+          <t>/news,002203,1241305030.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,39 +979,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
+          <t>海亮股份10月31日被深股通减持33万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-31 21:52</t>
+          <t>11-01 07:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1241248353.html</t>
+          <t>/news,002203,1241295775.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
+          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-31 18:32</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1241186957.html</t>
+          <t>/news,002203,1241260925.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01%</t>
+          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-31 14:01</t>
+          <t>10-31 21:52</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1241068293.html</t>
+          <t>/news,002203,1241248353.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
+          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-31 11:31</t>
+          <t>10-31 18:32</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1240981015.html</t>
+          <t>/news,002203,1241186957.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
+          <t>海亮股份：前三季度营收同比增长16.01%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-31 10:42</t>
+          <t>10-31 14:01</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1240932054.html</t>
+          <t>/news,002203,1241068293.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
+          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>10-31 11:31</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1240796164.html</t>
+          <t>/news,002203,1240981015.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
+          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-30 23:17</t>
+          <t>10-31 10:42</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1240765953.html</t>
+          <t>/news,002203,1240932054.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
+          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-30 19:01</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1240738815.html</t>
+          <t>/news,002203,1240796164.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
+          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-30 16:09</t>
+          <t>10-30 23:17</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1240722642.html</t>
+          <t>/news,002203,1240765953.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
+          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-30 15:45</t>
+          <t>10-30 19:01</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1240719401.html</t>
+          <t>/news,002203,1240738815.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
+          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-30 15:38</t>
+          <t>10-30 16:09</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1240718008.html</t>
+          <t>/news,002203,1240722642.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
+          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-30 15:45</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1240714289.html</t>
+          <t>/news,002203,1240719401.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
+          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 15:38</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1240707038.html</t>
+          <t>/news,002203,1240718008.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份10月28日获深股通增持31.72万股</t>
+          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-29 07:48</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1240599628.html</t>
+          <t>/news,002203,1240714289.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
+          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 09:04</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1240060169.html</t>
+          <t>/news,002203,1240707038.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份10月27日获深股通增持7.69万股</t>
+          <t>海亮股份10月28日获深股通增持31.72万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-29 07:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1240047226.html</t>
+          <t>/news,002203,1240599628.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
+          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-27 08:48</t>
+          <t>10-28 09:04</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1239505387.html</t>
+          <t>/news,002203,1240060169.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海亮股份10月26日被深股通减持10.18万股</t>
+          <t>海亮股份10月27日获深股通增持7.69万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-27 07:42</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1239496073.html</t>
+          <t>/news,002203,1240047226.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
+          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-26 08:46</t>
+          <t>10-27 08:48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1238977163.html</t>
+          <t>/news,002203,1239505387.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份10月25日获深股通增持32.12万股</t>
+          <t>海亮股份10月26日被深股通减持10.18万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-26 07:47</t>
+          <t>10-27 07:42</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1238968262.html</t>
+          <t>/news,002203,1239496073.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
+          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 08:47</t>
+          <t>10-26 08:46</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1238457077.html</t>
+          <t>/news,002203,1238977163.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份10月24日获深股通增持14.88万股</t>
+          <t>海亮股份10月25日获深股通增持32.12万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-25 07:42</t>
+          <t>10-26 07:47</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1238446612.html</t>
+          <t>/news,002203,1238968262.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
+          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-24 18:00</t>
+          <t>10-25 08:47</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1238323615.html</t>
+          <t>/news,002203,1238457077.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
+          <t>海亮股份10月24日获深股通增持14.88万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-24 08:57</t>
+          <t>10-25 07:42</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1237923033.html</t>
+          <t>/news,002203,1238446612.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
+          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-24 18:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1237864690.html</t>
+          <t>/news,002203,1238323615.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
+          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 08:57</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1237860223.html</t>
+          <t>/news,002203,1237923033.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份10月21日被深股通减持20.37万股</t>
+          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1237796792.html</t>
+          <t>/news,002203,1237864690.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
+          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1237356514.html</t>
+          <t>/news,002203,1237860223.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>海亮股份10月20日被深股通减持22万股</t>
+          <t>海亮股份10月21日被深股通减持20.37万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-21 07:42</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1237346841.html</t>
+          <t>/news,002203,1237796792.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
+          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-20 08:45</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1236895274.html</t>
+          <t>/news,002203,1237356514.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份10月19日获深股通增持37.45万股</t>
+          <t>海亮股份10月20日被深股通减持22万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-20 07:47</t>
+          <t>10-21 07:42</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1236888525.html</t>
+          <t>/news,002203,1237346841.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
+          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-19 08:59</t>
+          <t>10-20 08:45</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1236448340.html</t>
+          <t>/news,002203,1236895274.html</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份10月18日获深股通增持21.27万股</t>
+          <t>海亮股份10月19日获深股通增持37.45万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-20 07:47</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1236441238.html</t>
+          <t>/news,002203,1236888525.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
+          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-18 18:00</t>
+          <t>10-19 08:59</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1236349298.html</t>
+          <t>/news,002203,1236448340.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
+          <t>海亮股份10月18日获深股通增持21.27万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-18 08:51</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1236048585.html</t>
+          <t>/news,002203,1236441238.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海亮股份10月17日获深股通增持19.27万股</t>
+          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-18 18:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1236041241.html</t>
+          <t>/news,002203,1236349298.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，成交价12.24元（10-17）</t>
+          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-18 08:51</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1235954060.html</t>
+          <t>/news,002203,1236048585.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还670.26万元，融资余额13.7亿元（10-14）</t>
+          <t>海亮股份10月17日获深股通增持19.27万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-17 08:47</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1235651362.html</t>
+          <t>/news,002203,1236041241.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净买入891.32万元，居有色金属板块第七</t>
+          <t>大宗交易：海亮股份成交201.96万元，成交价12.24元（10-17）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-16 15:08</t>
+          <t>10-17 18:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1235581586.html</t>
+          <t>/news,002203,1235954060.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>深股通连续2周净买入海亮股份 累计净买入970.1万元</t>
+          <t>海亮股份：融资净偿还670.26万元，融资余额13.7亿元（10-14）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-16 14:07</t>
+          <t>10-17 08:47</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1235576448.html</t>
+          <t>/news,002203,1235651362.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>海亮股份10月14日获深股通增持23.79万股</t>
+          <t>海亮股份本周融资净买入891.32万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-15 07:48</t>
+          <t>10-16 15:08</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1235511370.html</t>
+          <t>/news,002203,1235581586.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1177万元，折价1.01%（10-14）</t>
+          <t>深股通连续2周净买入海亮股份 累计净买入970.1万元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-14 18:00</t>
+          <t>10-16 14:07</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1235409514.html</t>
+          <t>/news,002203,1235576448.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入210.31万元，融资余额13.76亿元（10-13）</t>
+          <t>海亮股份10月14日获深股通增持23.79万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-14 08:47</t>
+          <t>10-15 07:48</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1235089791.html</t>
+          <t>/news,002203,1235511370.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份10月13日获深股通增持24.56万股</t>
+          <t>大宗交易：海亮股份成交1177万元，折价1.01%（10-14）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-14 07:52</t>
+          <t>10-14 18:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1235082599.html</t>
+          <t>/news,002203,1235409514.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还416.59万元，融资余额13.74亿元（10-12）</t>
+          <t>海亮股份：融资净买入210.31万元，融资余额13.76亿元（10-13）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-13 08:47</t>
+          <t>10-14 08:47</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1234653293.html</t>
+          <t>/news,002203,1235089791.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份10月12日获深股通增持13.38万股</t>
+          <t>海亮股份10月13日获深股通增持24.56万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-13 07:58</t>
+          <t>10-14 07:52</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1234647074.html</t>
+          <t>/news,002203,1235082599.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交2073.75万元，成交价11.85元（10-12）</t>
+          <t>海亮股份：融资净偿还416.59万元，融资余额13.74亿元（10-12）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-12 18:01</t>
+          <t>10-13 08:47</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1234530021.html</t>
+          <t>/news,002203,1234653293.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计1793.93万元（10-11）</t>
+          <t>海亮股份10月12日获深股通增持13.38万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-12 08:55</t>
+          <t>10-13 07:58</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1234219895.html</t>
+          <t>/news,002203,1234647074.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入748.1万元，融资余额13.75亿元（10-10）</t>
+          <t>大宗交易：海亮股份成交2073.75万元，成交价11.85元（10-12）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-11 08:44</t>
+          <t>10-12 18:01</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1233844293.html</t>
+          <t>/news,002203,1234530021.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份10月10日被深股通减持16.34万股</t>
+          <t>海亮股份：连续3日融资净买入累计1793.93万元（10-11）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-11 07:44</t>
+          <t>10-12 08:55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1233835862.html</t>
+          <t>/news,002203,1234219895.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>海亮股份：“海亮转债”第三季度转股1521股</t>
+          <t>海亮股份：融资净买入748.1万元，融资余额13.75亿元（10-10）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-10 17:12</t>
+          <t>10-11 08:44</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1233711216.html</t>
+          <t>/news,002203,1233844293.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入696.33万元，融资余额13.67亿元（09-30）</t>
+          <t>海亮股份10月10日被深股通减持16.34万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-10 09:54</t>
+          <t>10-11 07:44</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1233448078.html</t>
+          <t>/news,002203,1233835862.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净买入1790.88万元，居有色金属板块第四</t>
+          <t>海亮股份：“海亮转债”第三季度转股1521股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-09 15:07</t>
+          <t>10-10 17:12</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1233323236.html</t>
+          <t>/news,002203,1233711216.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加189.57万元，居有色金属板块第九</t>
+          <t>海亮股份：融资净买入696.33万元，融资余额13.67亿元（09-30）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-09 14:07</t>
+          <t>10-10 09:54</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1233317637.html</t>
+          <t>/news,002203,1233448078.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还782.64万元，融资余额13.6亿元（09-29）</t>
+          <t>海亮股份本周融资净买入1790.88万元，居有色金属板块第四</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-30 08:46</t>
+          <t>10-09 15:07</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1232543292.html</t>
+          <t>/news,002203,1233323236.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>484</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份09月29日被深股通减持34.97万股</t>
+          <t>海亮股份本周深股通持股市值增加189.57万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-30 07:56</t>
+          <t>10-09 14:07</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1232537093.html</t>
+          <t>/news,002203,1233317637.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海亮股份：连续9日融资净买入累计7512万元（09-28）</t>
+          <t>海亮股份：融资净偿还782.64万元，融资余额13.6亿元（09-29）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-29 08:43</t>
+          <t>09-30 08:46</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1232095238.html</t>
+          <t>/news,002203,1232543292.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份09月28日获深股通增持36.87万股</t>
+          <t>海亮股份09月29日被深股通减持34.97万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-29 07:54</t>
+          <t>09-30 07:56</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1232088373.html</t>
+          <t>/news,002203,1232537093.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>海亮股份：连续8日融资净买入累计6267.71万元（09-27）</t>
+          <t>海亮股份：连续9日融资净买入累计7512万元（09-28）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-28 08:46</t>
+          <t>09-29 08:43</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1231643650.html</t>
+          <t>/news,002203,1232095238.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海亮股份09月27日获深股通增持26.07万股</t>
+          <t>海亮股份09月28日获深股通增持36.87万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-28 07:48</t>
+          <t>09-29 07:54</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1231637091.html</t>
+          <t>/news,002203,1232088373.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海亮股份：连续7日融资净买入累计5773.23万元（09-26）</t>
+          <t>海亮股份：连续8日融资净买入累计6267.71万元（09-27）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-27 08:51</t>
+          <t>09-28 08:46</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1231254918.html</t>
+          <t>/news,002203,1231643650.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海亮股份09月26日获深股通增持9.7万股</t>
+          <t>海亮股份09月27日获深股通增持26.07万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-27 07:50</t>
+          <t>09-28 07:48</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1231247383.html</t>
+          <t>/news,002203,1231637091.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份：连续6日融资净买入累计4938.47万元（09-23）</t>
+          <t>海亮股份：连续7日融资净买入累计5773.23万元（09-26）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-26 08:58</t>
+          <t>09-27 08:51</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1230807031.html</t>
+          <t>/news,002203,1231254918.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净买入3780.49万元，居有色金属板块第三</t>
+          <t>海亮股份09月26日获深股通增持9.7万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-25 15:07</t>
+          <t>09-27 07:50</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1230728297.html</t>
+          <t>/news,002203,1231247383.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>114</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -905,7 +905,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>512</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1033,7 +1033,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1097,7 +1097,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1129,7 +1129,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1289,7 +1289,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1385,7 +1385,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1417,7 +1417,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1801,7 +1801,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2761,7 +2761,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2825,7 +2825,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>91</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
+          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-08 08:45</t>
+          <t>11-09 09:01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1243982408.html</t>
+          <t>/news,002203,1244438992.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份11月07日获深股通增持70.03万股</t>
+          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-08 07:41</t>
+          <t>11-09 08:47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1243972851.html</t>
+          <t>/news,002203,1244435978.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>104</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
+          <t>海亮股份11月08日被深股通减持11.21万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1243512300.html</t>
+          <t>/news,002203,1244425901.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份：接受华福证券等机构调研</t>
+          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-07 06:29</t>
+          <t>11-08 08:45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1243503533.html</t>
+          <t>/news,002203,1243982408.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
+          <t>海亮股份11月07日获深股通增持70.03万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-06 15:09</t>
+          <t>11-08 07:41</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1243411409.html</t>
+          <t>/news,002203,1243972851.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
+          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1243404984.html</t>
+          <t>/news,002203,1243512300.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海亮股份11月04日被深股通减持3.02万股</t>
+          <t>海亮股份：接受华福证券等机构调研</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-07 06:29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1243317851.html</t>
+          <t>/news,002203,1243503533.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
+          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-06 15:09</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1243229307.html</t>
+          <t>/news,002203,1243411409.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
+          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-04 08:46</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1242825348.html</t>
+          <t>/news,002203,1243404984.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份11月03日被深股通减持24.45万股</t>
+          <t>海亮股份11月04日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 07:45</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1242816307.html</t>
+          <t>/news,002203,1243317851.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
+          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-03 08:50</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1242333917.html</t>
+          <t>/news,002203,1243229307.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海亮股份11月02日被深股通减持37万股</t>
+          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-03 07:53</t>
+          <t>11-04 08:46</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1242326027.html</t>
+          <t>/news,002203,1242825348.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
+          <t>海亮股份11月03日被深股通减持24.45万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-02 08:50</t>
+          <t>11-04 07:45</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1241809291.html</t>
+          <t>/news,002203,1242816307.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海亮股份11月01日被深股通减持93.33万股</t>
+          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-02 07:53</t>
+          <t>11-03 08:50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1241801731.html</t>
+          <t>/news,002203,1242333917.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
+          <t>海亮股份11月02日被深股通减持37万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-01 19:38</t>
+          <t>11-03 07:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1241692171.html</t>
+          <t>/news,002203,1242326027.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
+          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-01 08:53</t>
+          <t>11-02 08:50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1241305030.html</t>
+          <t>/news,002203,1241809291.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份10月31日被深股通减持33万股</t>
+          <t>海亮股份11月01日被深股通减持93.33万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,51 +989,51 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-01 07:45</t>
+          <t>11-02 07:53</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1241295775.html</t>
+          <t>/news,002203,1241801731.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
+          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-01 19:38</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1241260925.html</t>
+          <t>/news,002203,1241692171.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
+          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-31 21:52</t>
+          <t>11-01 08:53</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1241248353.html</t>
+          <t>/news,002203,1241305030.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
+          <t>海亮股份10月31日被深股通减持33万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-31 18:32</t>
+          <t>11-01 07:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1241186957.html</t>
+          <t>/news,002203,1241295775.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01%</t>
+          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-31 14:01</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1241068293.html</t>
+          <t>/news,002203,1241260925.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
+          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-31 11:31</t>
+          <t>10-31 21:52</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1240981015.html</t>
+          <t>/news,002203,1241248353.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
+          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-31 10:42</t>
+          <t>10-31 18:32</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1240932054.html</t>
+          <t>/news,002203,1241186957.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
+          <t>海亮股份：前三季度营收同比增长16.01%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>10-31 14:01</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1240796164.html</t>
+          <t>/news,002203,1241068293.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
+          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-30 23:17</t>
+          <t>10-31 11:31</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1240765953.html</t>
+          <t>/news,002203,1240981015.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
+          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-30 19:01</t>
+          <t>10-31 10:42</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1240738815.html</t>
+          <t>/news,002203,1240932054.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
+          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-30 16:09</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1240722642.html</t>
+          <t>/news,002203,1240796164.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
+          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-30 15:45</t>
+          <t>10-30 23:17</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1240719401.html</t>
+          <t>/news,002203,1240765953.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
+          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-30 15:38</t>
+          <t>10-30 19:01</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1240718008.html</t>
+          <t>/news,002203,1240738815.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
+          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-30 16:09</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1240714289.html</t>
+          <t>/news,002203,1240722642.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
+          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 15:45</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1240707038.html</t>
+          <t>/news,002203,1240719401.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份10月28日获深股通增持31.72万股</t>
+          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-29 07:48</t>
+          <t>10-30 15:38</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1240599628.html</t>
+          <t>/news,002203,1240718008.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
+          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 09:04</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1240060169.html</t>
+          <t>/news,002203,1240714289.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海亮股份10月27日获深股通增持7.69万股</t>
+          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1240047226.html</t>
+          <t>/news,002203,1240707038.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
+          <t>海亮股份10月28日获深股通增持31.72万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-27 08:48</t>
+          <t>10-29 07:48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1239505387.html</t>
+          <t>/news,002203,1240599628.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份10月26日被深股通减持10.18万股</t>
+          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-27 07:42</t>
+          <t>10-28 09:04</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1239496073.html</t>
+          <t>/news,002203,1240060169.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
+          <t>海亮股份10月27日获深股通增持7.69万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-26 08:46</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1238977163.html</t>
+          <t>/news,002203,1240047226.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份10月25日获深股通增持32.12万股</t>
+          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 07:47</t>
+          <t>10-27 08:48</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1238968262.html</t>
+          <t>/news,002203,1239505387.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
+          <t>海亮股份10月26日被深股通减持10.18万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 08:47</t>
+          <t>10-27 07:42</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1238457077.html</t>
+          <t>/news,002203,1239496073.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海亮股份10月24日获深股通增持14.88万股</t>
+          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 07:42</t>
+          <t>10-26 08:46</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1238446612.html</t>
+          <t>/news,002203,1238977163.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
+          <t>海亮股份10月25日获深股通增持32.12万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-24 18:00</t>
+          <t>10-26 07:47</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1238323615.html</t>
+          <t>/news,002203,1238968262.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
+          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-24 08:57</t>
+          <t>10-25 08:47</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1237923033.html</t>
+          <t>/news,002203,1238457077.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
+          <t>海亮股份10月24日获深股通增持14.88万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-25 07:42</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1237864690.html</t>
+          <t>/news,002203,1238446612.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
+          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 18:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1237860223.html</t>
+          <t>/news,002203,1238323615.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>海亮股份10月21日被深股通减持20.37万股</t>
+          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-24 08:57</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1237796792.html</t>
+          <t>/news,002203,1237923033.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
+          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1237356514.html</t>
+          <t>/news,002203,1237864690.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份10月20日被深股通减持22万股</t>
+          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-21 07:42</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1237346841.html</t>
+          <t>/news,002203,1237860223.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
+          <t>海亮股份10月21日被深股通减持20.37万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-20 08:45</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1236895274.html</t>
+          <t>/news,002203,1237796792.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份10月19日获深股通增持37.45万股</t>
+          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-20 07:47</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1236888525.html</t>
+          <t>/news,002203,1237356514.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
+          <t>海亮股份10月20日被深股通减持22万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-19 08:59</t>
+          <t>10-21 07:42</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1236448340.html</t>
+          <t>/news,002203,1237346841.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份10月18日获深股通增持21.27万股</t>
+          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-20 08:45</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1236441238.html</t>
+          <t>/news,002203,1236895274.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
+          <t>海亮股份10月19日获深股通增持37.45万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-18 18:00</t>
+          <t>10-20 07:47</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1236349298.html</t>
+          <t>/news,002203,1236888525.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
+          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-18 08:51</t>
+          <t>10-19 08:59</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1236048585.html</t>
+          <t>/news,002203,1236448340.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份10月17日获深股通增持19.27万股</t>
+          <t>海亮股份10月18日获深股通增持21.27万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1236041241.html</t>
+          <t>/news,002203,1236441238.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，成交价12.24元（10-17）</t>
+          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-18 18:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1235954060.html</t>
+          <t>/news,002203,1236349298.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还670.26万元，融资余额13.7亿元（10-14）</t>
+          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-17 08:47</t>
+          <t>10-18 08:51</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1235651362.html</t>
+          <t>/news,002203,1236048585.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净买入891.32万元，居有色金属板块第七</t>
+          <t>海亮股份10月17日获深股通增持19.27万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-16 15:08</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1235581586.html</t>
+          <t>/news,002203,1236041241.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>深股通连续2周净买入海亮股份 累计净买入970.1万元</t>
+          <t>大宗交易：海亮股份成交201.96万元，成交价12.24元（10-17）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-16 14:07</t>
+          <t>10-17 18:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1235576448.html</t>
+          <t>/news,002203,1235954060.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份10月14日获深股通增持23.79万股</t>
+          <t>海亮股份：融资净偿还670.26万元，融资余额13.7亿元（10-14）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-15 07:48</t>
+          <t>10-17 08:47</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1235511370.html</t>
+          <t>/news,002203,1235651362.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1177万元，折价1.01%（10-14）</t>
+          <t>海亮股份本周融资净买入891.32万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-14 18:00</t>
+          <t>10-16 15:08</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1235409514.html</t>
+          <t>/news,002203,1235581586.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入210.31万元，融资余额13.76亿元（10-13）</t>
+          <t>深股通连续2周净买入海亮股份 累计净买入970.1万元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-14 08:47</t>
+          <t>10-16 14:07</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1235089791.html</t>
+          <t>/news,002203,1235576448.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份10月13日获深股通增持24.56万股</t>
+          <t>海亮股份10月14日获深股通增持23.79万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-14 07:52</t>
+          <t>10-15 07:48</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1235082599.html</t>
+          <t>/news,002203,1235511370.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还416.59万元，融资余额13.74亿元（10-12）</t>
+          <t>大宗交易：海亮股份成交1177万元，折价1.01%（10-14）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-13 08:47</t>
+          <t>10-14 18:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1234653293.html</t>
+          <t>/news,002203,1235409514.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海亮股份10月12日获深股通增持13.38万股</t>
+          <t>海亮股份：融资净买入210.31万元，融资余额13.76亿元（10-13）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-13 07:58</t>
+          <t>10-14 08:47</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1234647074.html</t>
+          <t>/news,002203,1235089791.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交2073.75万元，成交价11.85元（10-12）</t>
+          <t>海亮股份10月13日获深股通增持24.56万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-12 18:01</t>
+          <t>10-14 07:52</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1234530021.html</t>
+          <t>/news,002203,1235082599.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计1793.93万元（10-11）</t>
+          <t>海亮股份：融资净偿还416.59万元，融资余额13.74亿元（10-12）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-12 08:55</t>
+          <t>10-13 08:47</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1234219895.html</t>
+          <t>/news,002203,1234653293.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入748.1万元，融资余额13.75亿元（10-10）</t>
+          <t>海亮股份10月12日获深股通增持13.38万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-11 08:44</t>
+          <t>10-13 07:58</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1233844293.html</t>
+          <t>/news,002203,1234647074.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>海亮股份10月10日被深股通减持16.34万股</t>
+          <t>大宗交易：海亮股份成交2073.75万元，成交价11.85元（10-12）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-11 07:44</t>
+          <t>10-12 18:01</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1233835862.html</t>
+          <t>/news,002203,1234530021.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份：“海亮转债”第三季度转股1521股</t>
+          <t>海亮股份：连续3日融资净买入累计1793.93万元（10-11）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-10 17:12</t>
+          <t>10-12 08:55</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1233711216.html</t>
+          <t>/news,002203,1234219895.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入696.33万元，融资余额13.67亿元（09-30）</t>
+          <t>海亮股份：融资净买入748.1万元，融资余额13.75亿元（10-10）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-10 09:54</t>
+          <t>10-11 08:44</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1233448078.html</t>
+          <t>/news,002203,1233844293.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净买入1790.88万元，居有色金属板块第四</t>
+          <t>海亮股份10月10日被深股通减持16.34万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-09 15:07</t>
+          <t>10-11 07:44</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1233323236.html</t>
+          <t>/news,002203,1233835862.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加189.57万元，居有色金属板块第九</t>
+          <t>海亮股份：“海亮转债”第三季度转股1521股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-09 14:07</t>
+          <t>10-10 17:12</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1233317637.html</t>
+          <t>/news,002203,1233711216.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还782.64万元，融资余额13.6亿元（09-29）</t>
+          <t>海亮股份：融资净买入696.33万元，融资余额13.67亿元（09-30）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-30 08:46</t>
+          <t>10-10 09:54</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1232543292.html</t>
+          <t>/news,002203,1233448078.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份09月29日被深股通减持34.97万股</t>
+          <t>海亮股份本周融资净买入1790.88万元，居有色金属板块第四</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-30 07:56</t>
+          <t>10-09 15:07</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1232537093.html</t>
+          <t>/news,002203,1233323236.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>486</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>海亮股份：连续9日融资净买入累计7512万元（09-28）</t>
+          <t>海亮股份本周深股通持股市值增加189.57万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-29 08:43</t>
+          <t>10-09 14:07</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1232095238.html</t>
+          <t>/news,002203,1233317637.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海亮股份09月28日获深股通增持36.87万股</t>
+          <t>海亮股份：融资净偿还782.64万元，融资余额13.6亿元（09-29）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-29 07:54</t>
+          <t>09-30 08:46</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1232088373.html</t>
+          <t>/news,002203,1232543292.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海亮股份：连续8日融资净买入累计6267.71万元（09-27）</t>
+          <t>海亮股份09月29日被深股通减持34.97万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-28 08:46</t>
+          <t>09-30 07:56</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1231643650.html</t>
+          <t>/news,002203,1232537093.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>484</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海亮股份09月27日获深股通增持26.07万股</t>
+          <t>海亮股份：连续9日融资净买入累计7512万元（09-28）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-28 07:48</t>
+          <t>09-29 08:43</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1231637091.html</t>
+          <t>/news,002203,1232095238.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份：连续7日融资净买入累计5773.23万元（09-26）</t>
+          <t>海亮股份09月28日获深股通增持36.87万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-27 08:51</t>
+          <t>09-29 07:54</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1231254918.html</t>
+          <t>/news,002203,1232088373.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>海亮股份09月26日获深股通增持9.7万股</t>
+          <t>海亮股份：连续8日融资净买入累计6267.71万元（09-27）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-27 07:50</t>
+          <t>09-28 08:46</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1231247383.html</t>
+          <t>/news,002203,1231643650.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
+          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-09 09:01</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1244438992.html</t>
+          <t>/news,002203,1244898603.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>103</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
+          <t>海亮股份11月09日被深股通减持77.83万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,51 +509,51 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-09 08:47</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1244435978.html</t>
+          <t>/news,002203,1244892219.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海亮股份11月08日被深股通减持11.21万股</t>
+          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-09 09:01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1244425901.html</t>
+          <t>/news,002203,1244438992.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
+          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-08 08:45</t>
+          <t>11-09 08:47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1243982408.html</t>
+          <t>/news,002203,1244435978.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海亮股份11月07日获深股通增持70.03万股</t>
+          <t>海亮股份11月08日被深股通减持11.21万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-08 07:41</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1243972851.html</t>
+          <t>/news,002203,1244425901.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
+          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-08 08:45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1243512300.html</t>
+          <t>/news,002203,1243982408.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海亮股份：接受华福证券等机构调研</t>
+          <t>海亮股份11月07日获深股通增持70.03万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-07 06:29</t>
+          <t>11-08 07:41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1243503533.html</t>
+          <t>/news,002203,1243972851.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
+          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-06 15:09</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1243411409.html</t>
+          <t>/news,002203,1243512300.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
+          <t>海亮股份：接受华福证券等机构调研</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 06:29</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1243404984.html</t>
+          <t>/news,002203,1243503533.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份11月04日被深股通减持3.02万股</t>
+          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-06 15:09</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1243317851.html</t>
+          <t>/news,002203,1243411409.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
+          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1243229307.html</t>
+          <t>/news,002203,1243404984.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
+          <t>海亮股份11月04日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 08:46</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1242825348.html</t>
+          <t>/news,002203,1243317851.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份11月03日被深股通减持24.45万股</t>
+          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-04 07:45</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1242816307.html</t>
+          <t>/news,002203,1243229307.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
+          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 08:50</t>
+          <t>11-04 08:46</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1242333917.html</t>
+          <t>/news,002203,1242825348.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海亮股份11月02日被深股通减持37万股</t>
+          <t>海亮股份11月03日被深股通减持24.45万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-03 07:53</t>
+          <t>11-04 07:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1242326027.html</t>
+          <t>/news,002203,1242816307.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
+          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-02 08:50</t>
+          <t>11-03 08:50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1241809291.html</t>
+          <t>/news,002203,1242333917.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份11月01日被深股通减持93.33万股</t>
+          <t>海亮股份11月02日被深股通减持37万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-02 07:53</t>
+          <t>11-03 07:53</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1241801731.html</t>
+          <t>/news,002203,1242326027.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
+          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-01 19:38</t>
+          <t>11-02 08:50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1241692171.html</t>
+          <t>/news,002203,1241809291.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
+          <t>海亮股份11月01日被深股通减持93.33万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-01 08:53</t>
+          <t>11-02 07:53</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1241305030.html</t>
+          <t>/news,002203,1241801731.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,39 +1075,39 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份10月31日被深股通减持33万股</t>
+          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-01 07:45</t>
+          <t>11-01 19:38</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1241295775.html</t>
+          <t>/news,002203,1241692171.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
+          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-01 08:53</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1241260925.html</t>
+          <t>/news,002203,1241305030.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,39 +1139,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
+          <t>海亮股份10月31日被深股通减持33万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-31 21:52</t>
+          <t>11-01 07:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1241248353.html</t>
+          <t>/news,002203,1241295775.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
+          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-31 18:32</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1241186957.html</t>
+          <t>/news,002203,1241260925.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01%</t>
+          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-31 14:01</t>
+          <t>10-31 21:52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1241068293.html</t>
+          <t>/news,002203,1241248353.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
+          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-31 11:31</t>
+          <t>10-31 18:32</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1240981015.html</t>
+          <t>/news,002203,1241186957.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
+          <t>海亮股份：前三季度营收同比增长16.01%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-31 10:42</t>
+          <t>10-31 14:01</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1240932054.html</t>
+          <t>/news,002203,1241068293.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
+          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>10-31 11:31</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1240796164.html</t>
+          <t>/news,002203,1240981015.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
+          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-30 23:17</t>
+          <t>10-31 10:42</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1240765953.html</t>
+          <t>/news,002203,1240932054.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
+          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-30 19:01</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1240738815.html</t>
+          <t>/news,002203,1240796164.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
+          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-30 16:09</t>
+          <t>10-30 23:17</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1240722642.html</t>
+          <t>/news,002203,1240765953.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
+          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-30 15:45</t>
+          <t>10-30 19:01</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1240719401.html</t>
+          <t>/news,002203,1240738815.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
+          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-30 15:38</t>
+          <t>10-30 16:09</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1240718008.html</t>
+          <t>/news,002203,1240722642.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
+          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-30 15:45</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1240714289.html</t>
+          <t>/news,002203,1240719401.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
+          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 15:38</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1240707038.html</t>
+          <t>/news,002203,1240718008.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海亮股份10月28日获深股通增持31.72万股</t>
+          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-29 07:48</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1240599628.html</t>
+          <t>/news,002203,1240714289.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
+          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 09:04</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1240060169.html</t>
+          <t>/news,002203,1240707038.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海亮股份10月27日获深股通增持7.69万股</t>
+          <t>海亮股份10月28日获深股通增持31.72万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-29 07:48</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1240047226.html</t>
+          <t>/news,002203,1240599628.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
+          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-27 08:48</t>
+          <t>10-28 09:04</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1239505387.html</t>
+          <t>/news,002203,1240060169.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海亮股份10月26日被深股通减持10.18万股</t>
+          <t>海亮股份10月27日获深股通增持7.69万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-27 07:42</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1239496073.html</t>
+          <t>/news,002203,1240047226.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
+          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 08:46</t>
+          <t>10-27 08:48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1238977163.html</t>
+          <t>/news,002203,1239505387.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海亮股份10月25日获深股通增持32.12万股</t>
+          <t>海亮股份10月26日被深股通减持10.18万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 07:47</t>
+          <t>10-27 07:42</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1238968262.html</t>
+          <t>/news,002203,1239496073.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
+          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 08:47</t>
+          <t>10-26 08:46</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1238457077.html</t>
+          <t>/news,002203,1238977163.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份10月24日获深股通增持14.88万股</t>
+          <t>海亮股份10月25日获深股通增持32.12万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 07:42</t>
+          <t>10-26 07:47</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1238446612.html</t>
+          <t>/news,002203,1238968262.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
+          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-24 18:00</t>
+          <t>10-25 08:47</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1238323615.html</t>
+          <t>/news,002203,1238457077.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
+          <t>海亮股份10月24日获深股通增持14.88万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-24 08:57</t>
+          <t>10-25 07:42</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1237923033.html</t>
+          <t>/news,002203,1238446612.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
+          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-24 18:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1237864690.html</t>
+          <t>/news,002203,1238323615.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
+          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 08:57</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1237860223.html</t>
+          <t>/news,002203,1237923033.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海亮股份10月21日被深股通减持20.37万股</t>
+          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1237796792.html</t>
+          <t>/news,002203,1237864690.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
+          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1237356514.html</t>
+          <t>/news,002203,1237860223.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海亮股份10月20日被深股通减持22万股</t>
+          <t>海亮股份10月21日被深股通减持20.37万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-21 07:42</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1237346841.html</t>
+          <t>/news,002203,1237796792.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
+          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-20 08:45</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1236895274.html</t>
+          <t>/news,002203,1237356514.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海亮股份10月19日获深股通增持37.45万股</t>
+          <t>海亮股份10月20日被深股通减持22万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-20 07:47</t>
+          <t>10-21 07:42</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1236888525.html</t>
+          <t>/news,002203,1237346841.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
+          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-19 08:59</t>
+          <t>10-20 08:45</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1236448340.html</t>
+          <t>/news,002203,1236895274.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份10月18日获深股通增持21.27万股</t>
+          <t>海亮股份10月19日获深股通增持37.45万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-20 07:47</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1236441238.html</t>
+          <t>/news,002203,1236888525.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
+          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-18 18:00</t>
+          <t>10-19 08:59</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1236349298.html</t>
+          <t>/news,002203,1236448340.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
+          <t>海亮股份10月18日获深股通增持21.27万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-18 08:51</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1236048585.html</t>
+          <t>/news,002203,1236441238.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>海亮股份10月17日获深股通增持19.27万股</t>
+          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-18 18:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1236041241.html</t>
+          <t>/news,002203,1236349298.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，成交价12.24元（10-17）</t>
+          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-18 08:51</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1235954060.html</t>
+          <t>/news,002203,1236048585.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还670.26万元，融资余额13.7亿元（10-14）</t>
+          <t>海亮股份10月17日获深股通增持19.27万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-17 08:47</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1235651362.html</t>
+          <t>/news,002203,1236041241.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净买入891.32万元，居有色金属板块第七</t>
+          <t>大宗交易：海亮股份成交201.96万元，成交价12.24元（10-17）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-16 15:08</t>
+          <t>10-17 18:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1235581586.html</t>
+          <t>/news,002203,1235954060.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>深股通连续2周净买入海亮股份 累计净买入970.1万元</t>
+          <t>海亮股份：融资净偿还670.26万元，融资余额13.7亿元（10-14）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-16 14:07</t>
+          <t>10-17 08:47</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1235576448.html</t>
+          <t>/news,002203,1235651362.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份10月14日获深股通增持23.79万股</t>
+          <t>海亮股份本周融资净买入891.32万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-15 07:48</t>
+          <t>10-16 15:08</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1235511370.html</t>
+          <t>/news,002203,1235581586.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1177万元，折价1.01%（10-14）</t>
+          <t>深股通连续2周净买入海亮股份 累计净买入970.1万元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-14 18:00</t>
+          <t>10-16 14:07</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1235409514.html</t>
+          <t>/news,002203,1235576448.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入210.31万元，融资余额13.76亿元（10-13）</t>
+          <t>海亮股份10月14日获深股通增持23.79万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-14 08:47</t>
+          <t>10-15 07:48</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1235089791.html</t>
+          <t>/news,002203,1235511370.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>海亮股份10月13日获深股通增持24.56万股</t>
+          <t>大宗交易：海亮股份成交1177万元，折价1.01%（10-14）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-14 07:52</t>
+          <t>10-14 18:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1235082599.html</t>
+          <t>/news,002203,1235409514.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还416.59万元，融资余额13.74亿元（10-12）</t>
+          <t>海亮股份：融资净买入210.31万元，融资余额13.76亿元（10-13）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-13 08:47</t>
+          <t>10-14 08:47</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1234653293.html</t>
+          <t>/news,002203,1235089791.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>海亮股份10月12日获深股通增持13.38万股</t>
+          <t>海亮股份10月13日获深股通增持24.56万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-13 07:58</t>
+          <t>10-14 07:52</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1234647074.html</t>
+          <t>/news,002203,1235082599.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交2073.75万元，成交价11.85元（10-12）</t>
+          <t>海亮股份：融资净偿还416.59万元，融资余额13.74亿元（10-12）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-12 18:01</t>
+          <t>10-13 08:47</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1234530021.html</t>
+          <t>/news,002203,1234653293.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计1793.93万元（10-11）</t>
+          <t>海亮股份10月12日获深股通增持13.38万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-12 08:55</t>
+          <t>10-13 07:58</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1234219895.html</t>
+          <t>/news,002203,1234647074.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入748.1万元，融资余额13.75亿元（10-10）</t>
+          <t>大宗交易：海亮股份成交2073.75万元，成交价11.85元（10-12）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-11 08:44</t>
+          <t>10-12 18:01</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1233844293.html</t>
+          <t>/news,002203,1234530021.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海亮股份10月10日被深股通减持16.34万股</t>
+          <t>海亮股份：连续3日融资净买入累计1793.93万元（10-11）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-11 07:44</t>
+          <t>10-12 08:55</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1233835862.html</t>
+          <t>/news,002203,1234219895.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份：“海亮转债”第三季度转股1521股</t>
+          <t>海亮股份：融资净买入748.1万元，融资余额13.75亿元（10-10）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-10 17:12</t>
+          <t>10-11 08:44</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1233711216.html</t>
+          <t>/news,002203,1233844293.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入696.33万元，融资余额13.67亿元（09-30）</t>
+          <t>海亮股份10月10日被深股通减持16.34万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-10 09:54</t>
+          <t>10-11 07:44</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1233448078.html</t>
+          <t>/news,002203,1233835862.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净买入1790.88万元，居有色金属板块第四</t>
+          <t>海亮股份：“海亮转债”第三季度转股1521股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-09 15:07</t>
+          <t>10-10 17:12</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1233323236.html</t>
+          <t>/news,002203,1233711216.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加189.57万元，居有色金属板块第九</t>
+          <t>海亮股份：融资净买入696.33万元，融资余额13.67亿元（09-30）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-09 14:07</t>
+          <t>10-10 09:54</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1233317637.html</t>
+          <t>/news,002203,1233448078.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还782.64万元，融资余额13.6亿元（09-29）</t>
+          <t>海亮股份本周融资净买入1790.88万元，居有色金属板块第四</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-30 08:46</t>
+          <t>10-09 15:07</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1232543292.html</t>
+          <t>/news,002203,1233323236.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海亮股份09月29日被深股通减持34.97万股</t>
+          <t>海亮股份本周深股通持股市值增加189.57万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-30 07:56</t>
+          <t>10-09 14:07</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1232537093.html</t>
+          <t>/news,002203,1233317637.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海亮股份：连续9日融资净买入累计7512万元（09-28）</t>
+          <t>海亮股份：融资净偿还782.64万元，融资余额13.6亿元（09-29）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-29 08:43</t>
+          <t>09-30 08:46</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1232095238.html</t>
+          <t>/news,002203,1232543292.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份09月28日获深股通增持36.87万股</t>
+          <t>海亮股份09月29日被深股通减持34.97万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-29 07:54</t>
+          <t>09-30 07:56</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1232088373.html</t>
+          <t>/news,002203,1232537093.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>海亮股份：连续8日融资净买入累计6267.71万元（09-27）</t>
+          <t>海亮股份：连续9日融资净买入累计7512万元（09-28）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-28 08:46</t>
+          <t>09-29 08:43</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1231643650.html</t>
+          <t>/news,002203,1232095238.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>98</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
+          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-11 08:41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1244898603.html</t>
+          <t>/news,002203,1245422348.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>88</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份11月09日被深股通减持77.83万股</t>
+          <t>海亮股份11月10日被深股通减持28.27万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,51 +509,51 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1244892219.html</t>
+          <t>/news,002203,1245413580.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
+          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-09 09:01</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1244438992.html</t>
+          <t>/news,002203,1245274801.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
+          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-09 08:47</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1244435978.html</t>
+          <t>/news,002203,1244898603.html</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海亮股份11月08日被深股通减持11.21万股</t>
+          <t>海亮股份11月09日被深股通减持77.83万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,51 +605,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1244425901.html</t>
+          <t>/news,002203,1244892219.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
+          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-08 08:45</t>
+          <t>11-09 09:01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1243982408.html</t>
+          <t>/news,002203,1244438992.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海亮股份11月07日获深股通增持70.03万股</t>
+          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-08 07:41</t>
+          <t>11-09 08:47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1243972851.html</t>
+          <t>/news,002203,1244435978.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
+          <t>海亮股份11月08日被深股通减持11.21万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1243512300.html</t>
+          <t>/news,002203,1244425901.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海亮股份：接受华福证券等机构调研</t>
+          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-07 06:29</t>
+          <t>11-08 08:45</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1243503533.html</t>
+          <t>/news,002203,1243982408.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
+          <t>海亮股份11月07日获深股通增持70.03万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-06 15:09</t>
+          <t>11-08 07:41</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1243411409.html</t>
+          <t>/news,002203,1243972851.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
+          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1243404984.html</t>
+          <t>/news,002203,1243512300.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海亮股份11月04日被深股通减持3.02万股</t>
+          <t>海亮股份：接受华福证券等机构调研</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-07 06:29</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1243317851.html</t>
+          <t>/news,002203,1243503533.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
+          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-06 15:09</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1243229307.html</t>
+          <t>/news,002203,1243411409.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
+          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-04 08:46</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1242825348.html</t>
+          <t>/news,002203,1243404984.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海亮股份11月03日被深股通减持24.45万股</t>
+          <t>海亮股份11月04日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-04 07:45</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1242816307.html</t>
+          <t>/news,002203,1243317851.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
+          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,12 +957,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-03 08:50</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1242333917.html</t>
+          <t>/news,002203,1243229307.html</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份11月02日被深股通减持37万股</t>
+          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-03 07:53</t>
+          <t>11-04 08:46</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1242326027.html</t>
+          <t>/news,002203,1242825348.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
+          <t>海亮股份11月03日被深股通减持24.45万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-02 08:50</t>
+          <t>11-04 07:45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1241809291.html</t>
+          <t>/news,002203,1242816307.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份11月01日被深股通减持93.33万股</t>
+          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-02 07:53</t>
+          <t>11-03 08:50</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1241801731.html</t>
+          <t>/news,002203,1242333917.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
+          <t>海亮股份11月02日被深股通减持37万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-01 19:38</t>
+          <t>11-03 07:53</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1241692171.html</t>
+          <t>/news,002203,1242326027.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
+          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-01 08:53</t>
+          <t>11-02 08:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1241305030.html</t>
+          <t>/news,002203,1241809291.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份10月31日被深股通减持33万股</t>
+          <t>海亮股份11月01日被深股通减持93.33万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,51 +1149,51 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-01 07:45</t>
+          <t>11-02 07:53</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1241295775.html</t>
+          <t>/news,002203,1241801731.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
+          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-01 19:38</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1241260925.html</t>
+          <t>/news,002203,1241692171.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
+          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-31 21:52</t>
+          <t>11-01 08:53</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1241248353.html</t>
+          <t>/news,002203,1241305030.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
+          <t>海亮股份10月31日被深股通减持33万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-31 18:32</t>
+          <t>11-01 07:45</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1241186957.html</t>
+          <t>/news,002203,1241295775.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01%</t>
+          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-31 14:01</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1241068293.html</t>
+          <t>/news,002203,1241260925.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
+          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-31 11:31</t>
+          <t>10-31 21:52</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1240981015.html</t>
+          <t>/news,002203,1241248353.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
+          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-31 10:42</t>
+          <t>10-31 18:32</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1240932054.html</t>
+          <t>/news,002203,1241186957.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
+          <t>海亮股份：前三季度营收同比增长16.01%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>10-31 14:01</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1240796164.html</t>
+          <t>/news,002203,1241068293.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
+          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-30 23:17</t>
+          <t>10-31 11:31</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1240765953.html</t>
+          <t>/news,002203,1240981015.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
+          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-30 19:01</t>
+          <t>10-31 10:42</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1240738815.html</t>
+          <t>/news,002203,1240932054.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
+          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-30 16:09</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1240722642.html</t>
+          <t>/news,002203,1240796164.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>473</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
+          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-30 15:45</t>
+          <t>10-30 23:17</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1240719401.html</t>
+          <t>/news,002203,1240765953.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
+          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-30 15:38</t>
+          <t>10-30 19:01</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1240718008.html</t>
+          <t>/news,002203,1240738815.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
+          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-30 16:09</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1240714289.html</t>
+          <t>/news,002203,1240722642.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
+          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 15:45</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1240707038.html</t>
+          <t>/news,002203,1240719401.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海亮股份10月28日获深股通增持31.72万股</t>
+          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-29 07:48</t>
+          <t>10-30 15:38</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1240599628.html</t>
+          <t>/news,002203,1240718008.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
+          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 09:04</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1240060169.html</t>
+          <t>/news,002203,1240714289.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海亮股份10月27日获深股通增持7.69万股</t>
+          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1240047226.html</t>
+          <t>/news,002203,1240707038.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
+          <t>海亮股份10月28日获深股通增持31.72万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-27 08:48</t>
+          <t>10-29 07:48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1239505387.html</t>
+          <t>/news,002203,1240599628.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海亮股份10月26日被深股通减持10.18万股</t>
+          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-27 07:42</t>
+          <t>10-28 09:04</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1239496073.html</t>
+          <t>/news,002203,1240060169.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
+          <t>海亮股份10月27日获深股通增持7.69万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-26 08:46</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1238977163.html</t>
+          <t>/news,002203,1240047226.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份10月25日获深股通增持32.12万股</t>
+          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-26 07:47</t>
+          <t>10-27 08:48</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1238968262.html</t>
+          <t>/news,002203,1239505387.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
+          <t>海亮股份10月26日被深股通减持10.18万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 08:47</t>
+          <t>10-27 07:42</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1238457077.html</t>
+          <t>/news,002203,1239496073.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>海亮股份10月24日获深股通增持14.88万股</t>
+          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 07:42</t>
+          <t>10-26 08:46</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1238446612.html</t>
+          <t>/news,002203,1238977163.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
+          <t>海亮股份10月25日获深股通增持32.12万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-24 18:00</t>
+          <t>10-26 07:47</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1238323615.html</t>
+          <t>/news,002203,1238968262.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
+          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-24 08:57</t>
+          <t>10-25 08:47</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1237923033.html</t>
+          <t>/news,002203,1238457077.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
+          <t>海亮股份10月24日获深股通增持14.88万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-25 07:42</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1237864690.html</t>
+          <t>/news,002203,1238446612.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
+          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 18:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1237860223.html</t>
+          <t>/news,002203,1238323615.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海亮股份10月21日被深股通减持20.37万股</t>
+          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-24 08:57</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1237796792.html</t>
+          <t>/news,002203,1237923033.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
+          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1237356514.html</t>
+          <t>/news,002203,1237864690.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海亮股份10月20日被深股通减持22万股</t>
+          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-21 07:42</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1237346841.html</t>
+          <t>/news,002203,1237860223.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
+          <t>海亮股份10月21日被深股通减持20.37万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-20 08:45</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1236895274.html</t>
+          <t>/news,002203,1237796792.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份10月19日获深股通增持37.45万股</t>
+          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-20 07:47</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1236888525.html</t>
+          <t>/news,002203,1237356514.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
+          <t>海亮股份10月20日被深股通减持22万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-19 08:59</t>
+          <t>10-21 07:42</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1236448340.html</t>
+          <t>/news,002203,1237346841.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份10月18日获深股通增持21.27万股</t>
+          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-20 08:45</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1236441238.html</t>
+          <t>/news,002203,1236895274.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
+          <t>海亮股份10月19日获深股通增持37.45万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-18 18:00</t>
+          <t>10-20 07:47</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1236349298.html</t>
+          <t>/news,002203,1236888525.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
+          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-18 08:51</t>
+          <t>10-19 08:59</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1236048585.html</t>
+          <t>/news,002203,1236448340.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份10月17日获深股通增持19.27万股</t>
+          <t>海亮股份10月18日获深股通增持21.27万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1236041241.html</t>
+          <t>/news,002203,1236441238.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，成交价12.24元（10-17）</t>
+          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-18 18:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1235954060.html</t>
+          <t>/news,002203,1236349298.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还670.26万元，融资余额13.7亿元（10-14）</t>
+          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-17 08:47</t>
+          <t>10-18 08:51</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1235651362.html</t>
+          <t>/news,002203,1236048585.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净买入891.32万元，居有色金属板块第七</t>
+          <t>海亮股份10月17日获深股通增持19.27万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-16 15:08</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1235581586.html</t>
+          <t>/news,002203,1236041241.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>深股通连续2周净买入海亮股份 累计净买入970.1万元</t>
+          <t>大宗交易：海亮股份成交201.96万元，成交价12.24元（10-17）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-16 14:07</t>
+          <t>10-17 18:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1235576448.html</t>
+          <t>/news,002203,1235954060.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海亮股份10月14日获深股通增持23.79万股</t>
+          <t>海亮股份：融资净偿还670.26万元，融资余额13.7亿元（10-14）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-15 07:48</t>
+          <t>10-17 08:47</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1235511370.html</t>
+          <t>/news,002203,1235651362.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>504</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1177万元，折价1.01%（10-14）</t>
+          <t>海亮股份本周融资净买入891.32万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-14 18:00</t>
+          <t>10-16 15:08</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1235409514.html</t>
+          <t>/news,002203,1235581586.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入210.31万元，融资余额13.76亿元（10-13）</t>
+          <t>深股通连续2周净买入海亮股份 累计净买入970.1万元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-14 08:47</t>
+          <t>10-16 14:07</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1235089791.html</t>
+          <t>/news,002203,1235576448.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>海亮股份10月13日获深股通增持24.56万股</t>
+          <t>海亮股份10月14日获深股通增持23.79万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-14 07:52</t>
+          <t>10-15 07:48</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1235082599.html</t>
+          <t>/news,002203,1235511370.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还416.59万元，融资余额13.74亿元（10-12）</t>
+          <t>大宗交易：海亮股份成交1177万元，折价1.01%（10-14）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-13 08:47</t>
+          <t>10-14 18:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1234653293.html</t>
+          <t>/news,002203,1235409514.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份10月12日获深股通增持13.38万股</t>
+          <t>海亮股份：融资净买入210.31万元，融资余额13.76亿元（10-13）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-13 07:58</t>
+          <t>10-14 08:47</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1234647074.html</t>
+          <t>/news,002203,1235089791.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交2073.75万元，成交价11.85元（10-12）</t>
+          <t>海亮股份10月13日获深股通增持24.56万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-12 18:01</t>
+          <t>10-14 07:52</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1234530021.html</t>
+          <t>/news,002203,1235082599.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计1793.93万元（10-11）</t>
+          <t>海亮股份：融资净偿还416.59万元，融资余额13.74亿元（10-12）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-12 08:55</t>
+          <t>10-13 08:47</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1234219895.html</t>
+          <t>/news,002203,1234653293.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入748.1万元，融资余额13.75亿元（10-10）</t>
+          <t>海亮股份10月12日获深股通增持13.38万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-11 08:44</t>
+          <t>10-13 07:58</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1233844293.html</t>
+          <t>/news,002203,1234647074.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海亮股份10月10日被深股通减持16.34万股</t>
+          <t>大宗交易：海亮股份成交2073.75万元，成交价11.85元（10-12）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-11 07:44</t>
+          <t>10-12 18:01</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1233835862.html</t>
+          <t>/news,002203,1234530021.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份：“海亮转债”第三季度转股1521股</t>
+          <t>海亮股份：连续3日融资净买入累计1793.93万元（10-11）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-10 17:12</t>
+          <t>10-12 08:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1233711216.html</t>
+          <t>/news,002203,1234219895.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入696.33万元，融资余额13.67亿元（09-30）</t>
+          <t>海亮股份：融资净买入748.1万元，融资余额13.75亿元（10-10）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-10 09:54</t>
+          <t>10-11 08:44</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1233448078.html</t>
+          <t>/news,002203,1233844293.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净买入1790.88万元，居有色金属板块第四</t>
+          <t>海亮股份10月10日被深股通减持16.34万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-09 15:07</t>
+          <t>10-11 07:44</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1233323236.html</t>
+          <t>/news,002203,1233835862.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加189.57万元，居有色金属板块第九</t>
+          <t>海亮股份：“海亮转债”第三季度转股1521股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-09 14:07</t>
+          <t>10-10 17:12</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1233317637.html</t>
+          <t>/news,002203,1233711216.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还782.64万元，融资余额13.6亿元（09-29）</t>
+          <t>海亮股份：融资净买入696.33万元，融资余额13.67亿元（09-30）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-30 08:46</t>
+          <t>10-10 09:54</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1232543292.html</t>
+          <t>/news,002203,1233448078.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,22 +2963,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份09月29日被深股通减持34.97万股</t>
+          <t>海亮股份本周融资净买入1790.88万元，居有色金属板块第四</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-30 07:56</t>
+          <t>10-09 15:07</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1232537093.html</t>
+          <t>/news,002203,1233323236.html</t>
         </is>
       </c>
     </row>
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>海亮股份：连续9日融资净买入累计7512万元（09-28）</t>
+          <t>海亮股份本周深股通持股市值增加189.57万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-29 08:43</t>
+          <t>10-09 14:07</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1232095238.html</t>
+          <t>/news,002203,1233317637.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-11 08:41</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1245422348.html</t>
+          <t>/news,002203,1246196435.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份11月10日被深股通减持28.27万股</t>
+          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-11 07:54</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1245413580.html</t>
+          <t>/news,002203,1246101667.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
+          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-13 14:13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1245274801.html</t>
+          <t>/news,002203,1246094933.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
+          <t>海亮股份11月11日被深股通减持56.81万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1244898603.html</t>
+          <t>/news,002203,1245986384.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海亮股份11月09日被深股通减持77.83万股</t>
+          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,51 +605,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-12 00:09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1244892219.html</t>
+          <t>/news,002203,1246096434.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>628</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
+          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-09 09:01</t>
+          <t>11-11 18:28</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1244438992.html</t>
+          <t>/news,002203,1245898758.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
+          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-09 08:47</t>
+          <t>11-11 08:41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1244435978.html</t>
+          <t>/news,002203,1245422348.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份11月08日被深股通减持11.21万股</t>
+          <t>海亮股份11月10日被深股通减持28.27万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-11 07:54</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1244425901.html</t>
+          <t>/news,002203,1245413580.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
+          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-08 08:45</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1243982408.html</t>
+          <t>/news,002203,1245274801.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份11月07日获深股通增持70.03万股</t>
+          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-08 07:41</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1243972851.html</t>
+          <t>/news,002203,1244898603.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
+          <t>海亮股份11月09日被深股通减持77.83万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,51 +797,51 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1243512300.html</t>
+          <t>/news,002203,1244892219.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海亮股份：接受华福证券等机构调研</t>
+          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-07 06:29</t>
+          <t>11-09 09:01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1243503533.html</t>
+          <t>/news,002203,1244438992.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
+          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-06 15:09</t>
+          <t>11-09 08:47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1243411409.html</t>
+          <t>/news,002203,1244435978.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
+          <t>海亮股份11月08日被深股通减持11.21万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1243404984.html</t>
+          <t>/news,002203,1244425901.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海亮股份11月04日被深股通减持3.02万股</t>
+          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-08 08:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1243317851.html</t>
+          <t>/news,002203,1243982408.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
+          <t>海亮股份11月07日获深股通增持70.03万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-08 07:41</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1243229307.html</t>
+          <t>/news,002203,1243972851.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
+          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-04 08:46</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1242825348.html</t>
+          <t>/news,002203,1243512300.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>641</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海亮股份11月03日被深股通减持24.45万股</t>
+          <t>海亮股份：接受华福证券等机构调研</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-04 07:45</t>
+          <t>11-07 06:29</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1242816307.html</t>
+          <t>/news,002203,1243503533.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
+          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-03 08:50</t>
+          <t>11-06 15:09</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1242333917.html</t>
+          <t>/news,002203,1243411409.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份11月02日被深股通减持37万股</t>
+          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-03 07:53</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1242326027.html</t>
+          <t>/news,002203,1243404984.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
+          <t>海亮股份11月04日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-02 08:50</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1241809291.html</t>
+          <t>/news,002203,1243317851.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份11月01日被深股通减持93.33万股</t>
+          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-02 07:53</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1241801731.html</t>
+          <t>/news,002203,1243229307.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
+          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-01 19:38</t>
+          <t>11-04 08:46</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1241692171.html</t>
+          <t>/news,002203,1242825348.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
+          <t>海亮股份11月03日被深股通减持24.45万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-01 08:53</t>
+          <t>11-04 07:45</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1241305030.html</t>
+          <t>/news,002203,1242816307.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份10月31日被深股通减持33万股</t>
+          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-01 07:45</t>
+          <t>11-03 08:50</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1241295775.html</t>
+          <t>/news,002203,1242333917.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
+          <t>海亮股份11月02日被深股通减持37万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-03 07:53</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1241260925.html</t>
+          <t>/news,002203,1242326027.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
+          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-31 21:52</t>
+          <t>11-02 08:50</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1241248353.html</t>
+          <t>/news,002203,1241809291.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
+          <t>海亮股份11月01日被深股通减持93.33万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-31 18:32</t>
+          <t>11-02 07:53</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1241186957.html</t>
+          <t>/news,002203,1241801731.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01%</t>
+          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-31 14:01</t>
+          <t>11-01 19:38</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1241068293.html</t>
+          <t>/news,002203,1241692171.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
+          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-31 11:31</t>
+          <t>11-01 08:53</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1240981015.html</t>
+          <t>/news,002203,1241305030.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
+          <t>海亮股份10月31日被深股通减持33万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-31 10:42</t>
+          <t>11-01 07:45</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1240932054.html</t>
+          <t>/news,002203,1241295775.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
+          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1240796164.html</t>
+          <t>/news,002203,1241260925.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
+          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-30 23:17</t>
+          <t>10-31 21:52</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1240765953.html</t>
+          <t>/news,002203,1241248353.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
+          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-30 19:01</t>
+          <t>10-31 18:32</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1240738815.html</t>
+          <t>/news,002203,1241186957.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
+          <t>海亮股份：前三季度营收同比增长16.01%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-30 16:09</t>
+          <t>10-31 14:01</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1240722642.html</t>
+          <t>/news,002203,1241068293.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
+          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-30 15:45</t>
+          <t>10-31 11:31</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1240719401.html</t>
+          <t>/news,002203,1240981015.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
+          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-30 15:38</t>
+          <t>10-31 10:42</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1240718008.html</t>
+          <t>/news,002203,1240932054.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
+          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1240714289.html</t>
+          <t>/news,002203,1240796164.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
+          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 23:17</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1240707038.html</t>
+          <t>/news,002203,1240765953.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海亮股份10月28日获深股通增持31.72万股</t>
+          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-29 07:48</t>
+          <t>10-30 19:01</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1240599628.html</t>
+          <t>/news,002203,1240738815.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
+          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 09:04</t>
+          <t>10-30 16:09</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1240060169.html</t>
+          <t>/news,002203,1240722642.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海亮股份10月27日获深股通增持7.69万股</t>
+          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-30 15:45</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1240047226.html</t>
+          <t>/news,002203,1240719401.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
+          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-27 08:48</t>
+          <t>10-30 15:38</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1239505387.html</t>
+          <t>/news,002203,1240718008.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海亮股份10月26日被深股通减持10.18万股</t>
+          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-27 07:42</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1239496073.html</t>
+          <t>/news,002203,1240714289.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
+          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-26 08:46</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1238977163.html</t>
+          <t>/news,002203,1240707038.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份10月25日获深股通增持32.12万股</t>
+          <t>海亮股份10月28日获深股通增持31.72万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-26 07:47</t>
+          <t>10-29 07:48</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1238968262.html</t>
+          <t>/news,002203,1240599628.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
+          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 08:47</t>
+          <t>10-28 09:04</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1238457077.html</t>
+          <t>/news,002203,1240060169.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海亮股份10月24日获深股通增持14.88万股</t>
+          <t>海亮股份10月27日获深股通增持7.69万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 07:42</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1238446612.html</t>
+          <t>/news,002203,1240047226.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
+          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-24 18:00</t>
+          <t>10-27 08:48</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1238323615.html</t>
+          <t>/news,002203,1239505387.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
+          <t>海亮股份10月26日被深股通减持10.18万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-24 08:57</t>
+          <t>10-27 07:42</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1237923033.html</t>
+          <t>/news,002203,1239496073.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
+          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-26 08:46</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1237864690.html</t>
+          <t>/news,002203,1238977163.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
+          <t>海亮股份10月25日获深股通增持32.12万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-26 07:47</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1237860223.html</t>
+          <t>/news,002203,1238968262.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份10月21日被深股通减持20.37万股</t>
+          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-25 08:47</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1237796792.html</t>
+          <t>/news,002203,1238457077.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
+          <t>海亮股份10月24日获深股通增持14.88万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-25 07:42</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1237356514.html</t>
+          <t>/news,002203,1238446612.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>海亮股份10月20日被深股通减持22万股</t>
+          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-21 07:42</t>
+          <t>10-24 18:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1237346841.html</t>
+          <t>/news,002203,1238323615.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
+          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-20 08:45</t>
+          <t>10-24 08:57</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1236895274.html</t>
+          <t>/news,002203,1237923033.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>544</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>海亮股份10月19日获深股通增持37.45万股</t>
+          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-20 07:47</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1236888525.html</t>
+          <t>/news,002203,1237864690.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
+          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-19 08:59</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1236448340.html</t>
+          <t>/news,002203,1237860223.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份10月18日获深股通增持21.27万股</t>
+          <t>海亮股份10月21日被深股通减持20.37万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1236441238.html</t>
+          <t>/news,002203,1237796792.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
+          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-18 18:00</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1236349298.html</t>
+          <t>/news,002203,1237356514.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
+          <t>海亮股份10月20日被深股通减持22万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-18 08:51</t>
+          <t>10-21 07:42</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1236048585.html</t>
+          <t>/news,002203,1237346841.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份10月17日获深股通增持19.27万股</t>
+          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-20 08:45</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1236041241.html</t>
+          <t>/news,002203,1236895274.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，成交价12.24元（10-17）</t>
+          <t>海亮股份10月19日获深股通增持37.45万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-20 07:47</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1235954060.html</t>
+          <t>/news,002203,1236888525.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还670.26万元，融资余额13.7亿元（10-14）</t>
+          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-17 08:47</t>
+          <t>10-19 08:59</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1235651362.html</t>
+          <t>/news,002203,1236448340.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净买入891.32万元，居有色金属板块第七</t>
+          <t>海亮股份10月18日获深股通增持21.27万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-16 15:08</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1235581586.html</t>
+          <t>/news,002203,1236441238.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>深股通连续2周净买入海亮股份 累计净买入970.1万元</t>
+          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-16 14:07</t>
+          <t>10-18 18:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1235576448.html</t>
+          <t>/news,002203,1236349298.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>海亮股份10月14日获深股通增持23.79万股</t>
+          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-15 07:48</t>
+          <t>10-18 08:51</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1235511370.html</t>
+          <t>/news,002203,1236048585.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1177万元，折价1.01%（10-14）</t>
+          <t>海亮股份10月17日获深股通增持19.27万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-14 18:00</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1235409514.html</t>
+          <t>/news,002203,1236041241.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入210.31万元，融资余额13.76亿元（10-13）</t>
+          <t>大宗交易：海亮股份成交201.96万元，成交价12.24元（10-17）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-14 08:47</t>
+          <t>10-17 18:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1235089791.html</t>
+          <t>/news,002203,1235954060.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份10月13日获深股通增持24.56万股</t>
+          <t>海亮股份：融资净偿还670.26万元，融资余额13.7亿元（10-14）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-14 07:52</t>
+          <t>10-17 08:47</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1235082599.html</t>
+          <t>/news,002203,1235651362.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>508</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还416.59万元，融资余额13.74亿元（10-12）</t>
+          <t>海亮股份本周融资净买入891.32万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-13 08:47</t>
+          <t>10-16 15:08</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1234653293.html</t>
+          <t>/news,002203,1235581586.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>501</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份10月12日获深股通增持13.38万股</t>
+          <t>深股通连续2周净买入海亮股份 累计净买入970.1万元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-13 07:58</t>
+          <t>10-16 14:07</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1234647074.html</t>
+          <t>/news,002203,1235576448.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交2073.75万元，成交价11.85元（10-12）</t>
+          <t>海亮股份10月14日获深股通增持23.79万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-12 18:01</t>
+          <t>10-15 07:48</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1234530021.html</t>
+          <t>/news,002203,1235511370.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计1793.93万元（10-11）</t>
+          <t>大宗交易：海亮股份成交1177万元，折价1.01%（10-14）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-12 08:55</t>
+          <t>10-14 18:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1234219895.html</t>
+          <t>/news,002203,1235409514.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入748.1万元，融资余额13.75亿元（10-10）</t>
+          <t>海亮股份：融资净买入210.31万元，融资余额13.76亿元（10-13）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-11 08:44</t>
+          <t>10-14 08:47</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1233844293.html</t>
+          <t>/news,002203,1235089791.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海亮股份10月10日被深股通减持16.34万股</t>
+          <t>海亮股份10月13日获深股通增持24.56万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-11 07:44</t>
+          <t>10-14 07:52</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1233835862.html</t>
+          <t>/news,002203,1235082599.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海亮股份：“海亮转债”第三季度转股1521股</t>
+          <t>海亮股份：融资净偿还416.59万元，融资余额13.74亿元（10-12）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-10 17:12</t>
+          <t>10-13 08:47</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1233711216.html</t>
+          <t>/news,002203,1234653293.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入696.33万元，融资余额13.67亿元（09-30）</t>
+          <t>海亮股份10月12日获深股通增持13.38万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-10 09:54</t>
+          <t>10-13 07:58</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1233448078.html</t>
+          <t>/news,002203,1234647074.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净买入1790.88万元，居有色金属板块第四</t>
+          <t>大宗交易：海亮股份成交2073.75万元，成交价11.85元（10-12）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-09 15:07</t>
+          <t>10-12 18:01</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1233323236.html</t>
+          <t>/news,002203,1234530021.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加189.57万元，居有色金属板块第九</t>
+          <t>海亮股份：连续3日融资净买入累计1793.93万元（10-11）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-09 14:07</t>
+          <t>10-12 08:55</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1233317637.html</t>
+          <t>/news,002203,1234219895.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>112</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-15 08:46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1246196435.html</t>
+          <t>/news,002203,1246697605.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>104</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
+          <t>海亮股份11月14日获深股通增持20.87万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-15 07:48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1246101667.html</t>
+          <t>/news,002203,1246689780.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-13 14:13</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1246094933.html</t>
+          <t>/news,002203,1246198626.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份11月11日被深股通减持56.81万股</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1245986384.html</t>
+          <t>/news,002203,1246196435.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
+          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-12 00:09</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1246096434.html</t>
+          <t>/news,002203,1246101667.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
+          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-11 18:28</t>
+          <t>11-13 14:13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1245898758.html</t>
+          <t>/news,002203,1246094933.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
+          <t>海亮股份11月11日被深股通减持56.81万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-11 08:41</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1245422348.html</t>
+          <t>/news,002203,1245986384.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份11月10日被深股通减持28.27万股</t>
+          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-11 07:54</t>
+          <t>11-12 00:09</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1245413580.html</t>
+          <t>/news,002203,1246096434.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
+          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-11 18:28</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1245274801.html</t>
+          <t>/news,002203,1245898758.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
+          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-11 08:41</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1244898603.html</t>
+          <t>/news,002203,1245422348.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份11月09日被深股通减持77.83万股</t>
+          <t>海亮股份11月10日被深股通减持28.27万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,51 +797,51 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1244892219.html</t>
+          <t>/news,002203,1245413580.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
+          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-09 09:01</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1244438992.html</t>
+          <t>/news,002203,1245274801.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
+          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-09 08:47</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1244435978.html</t>
+          <t>/news,002203,1244898603.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海亮股份11月08日被深股通减持11.21万股</t>
+          <t>海亮股份11月09日被深股通减持77.83万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,51 +893,51 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1244425901.html</t>
+          <t>/news,002203,1244892219.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
+          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-08 08:45</t>
+          <t>11-09 09:01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1243982408.html</t>
+          <t>/news,002203,1244438992.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海亮股份11月07日获深股通增持70.03万股</t>
+          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-08 07:41</t>
+          <t>11-09 08:47</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1243972851.html</t>
+          <t>/news,002203,1244435978.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
+          <t>海亮股份11月08日被深股通减持11.21万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1243512300.html</t>
+          <t>/news,002203,1244425901.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海亮股份：接受华福证券等机构调研</t>
+          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-07 06:29</t>
+          <t>11-08 08:45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1243503533.html</t>
+          <t>/news,002203,1243982408.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
+          <t>海亮股份11月07日获深股通增持70.03万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-06 15:09</t>
+          <t>11-08 07:41</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1243411409.html</t>
+          <t>/news,002203,1243972851.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
+          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1243404984.html</t>
+          <t>/news,002203,1243512300.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海亮股份11月04日被深股通减持3.02万股</t>
+          <t>海亮股份：接受华福证券等机构调研</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-07 06:29</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1243317851.html</t>
+          <t>/news,002203,1243503533.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
+          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-06 15:09</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1243229307.html</t>
+          <t>/news,002203,1243411409.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
+          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-04 08:46</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1242825348.html</t>
+          <t>/news,002203,1243404984.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海亮股份11月03日被深股通减持24.45万股</t>
+          <t>海亮股份11月04日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-04 07:45</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1242816307.html</t>
+          <t>/news,002203,1243317851.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
+          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-03 08:50</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1242333917.html</t>
+          <t>/news,002203,1243229307.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>海亮股份11月02日被深股通减持37万股</t>
+          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-03 07:53</t>
+          <t>11-04 08:46</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1242326027.html</t>
+          <t>/news,002203,1242825348.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
+          <t>海亮股份11月03日被深股通减持24.45万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-02 08:50</t>
+          <t>11-04 07:45</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1241809291.html</t>
+          <t>/news,002203,1242816307.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份11月01日被深股通减持93.33万股</t>
+          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-02 07:53</t>
+          <t>11-03 08:50</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1241801731.html</t>
+          <t>/news,002203,1242333917.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
+          <t>海亮股份11月02日被深股通减持37万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-01 19:38</t>
+          <t>11-03 07:53</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1241692171.html</t>
+          <t>/news,002203,1242326027.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
+          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-01 08:53</t>
+          <t>11-02 08:50</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1241305030.html</t>
+          <t>/news,002203,1241809291.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>海亮股份10月31日被深股通减持33万股</t>
+          <t>海亮股份11月01日被深股通减持93.33万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,51 +1437,51 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-01 07:45</t>
+          <t>11-02 07:53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1241295775.html</t>
+          <t>/news,002203,1241801731.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
+          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-01 19:38</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1241260925.html</t>
+          <t>/news,002203,1241692171.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
+          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-31 21:52</t>
+          <t>11-01 08:53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1241248353.html</t>
+          <t>/news,002203,1241305030.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
+          <t>海亮股份10月31日被深股通减持33万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-31 18:32</t>
+          <t>11-01 07:45</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1241186957.html</t>
+          <t>/news,002203,1241295775.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01%</t>
+          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-31 14:01</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1241068293.html</t>
+          <t>/news,002203,1241260925.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>508</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
+          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-31 11:31</t>
+          <t>10-31 21:52</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1240981015.html</t>
+          <t>/news,002203,1241248353.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
+          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-31 10:42</t>
+          <t>10-31 18:32</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1240932054.html</t>
+          <t>/news,002203,1241186957.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
+          <t>海亮股份：前三季度营收同比增长16.01%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>10-31 14:01</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1240796164.html</t>
+          <t>/news,002203,1241068293.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
+          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-30 23:17</t>
+          <t>10-31 11:31</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1240765953.html</t>
+          <t>/news,002203,1240981015.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
+          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-30 19:01</t>
+          <t>10-31 10:42</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1240738815.html</t>
+          <t>/news,002203,1240932054.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
+          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-30 16:09</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1240722642.html</t>
+          <t>/news,002203,1240796164.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
+          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-30 15:45</t>
+          <t>10-30 23:17</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1240719401.html</t>
+          <t>/news,002203,1240765953.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
+          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-30 15:38</t>
+          <t>10-30 19:01</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1240718008.html</t>
+          <t>/news,002203,1240738815.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
+          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-30 16:09</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1240714289.html</t>
+          <t>/news,002203,1240722642.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
+          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 15:45</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1240707038.html</t>
+          <t>/news,002203,1240719401.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份10月28日获深股通增持31.72万股</t>
+          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-29 07:48</t>
+          <t>10-30 15:38</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1240599628.html</t>
+          <t>/news,002203,1240718008.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
+          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 09:04</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1240060169.html</t>
+          <t>/news,002203,1240714289.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海亮股份10月27日获深股通增持7.69万股</t>
+          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1240047226.html</t>
+          <t>/news,002203,1240707038.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
+          <t>海亮股份10月28日获深股通增持31.72万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-27 08:48</t>
+          <t>10-29 07:48</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1239505387.html</t>
+          <t>/news,002203,1240599628.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海亮股份10月26日被深股通减持10.18万股</t>
+          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-27 07:42</t>
+          <t>10-28 09:04</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1239496073.html</t>
+          <t>/news,002203,1240060169.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
+          <t>海亮股份10月27日获深股通增持7.69万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-26 08:46</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1238977163.html</t>
+          <t>/news,002203,1240047226.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海亮股份10月25日获深股通增持32.12万股</t>
+          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-26 07:47</t>
+          <t>10-27 08:48</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1238968262.html</t>
+          <t>/news,002203,1239505387.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
+          <t>海亮股份10月26日被深股通减持10.18万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 08:47</t>
+          <t>10-27 07:42</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1238457077.html</t>
+          <t>/news,002203,1239496073.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份10月24日获深股通增持14.88万股</t>
+          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 07:42</t>
+          <t>10-26 08:46</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1238446612.html</t>
+          <t>/news,002203,1238977163.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
+          <t>海亮股份10月25日获深股通增持32.12万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-24 18:00</t>
+          <t>10-26 07:47</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1238323615.html</t>
+          <t>/news,002203,1238968262.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
+          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-24 08:57</t>
+          <t>10-25 08:47</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1237923033.html</t>
+          <t>/news,002203,1238457077.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
+          <t>海亮股份10月24日获深股通增持14.88万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-25 07:42</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1237864690.html</t>
+          <t>/news,002203,1238446612.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
+          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 18:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1237860223.html</t>
+          <t>/news,002203,1238323615.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份10月21日被深股通减持20.37万股</t>
+          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-24 08:57</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1237796792.html</t>
+          <t>/news,002203,1237923033.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
+          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1237356514.html</t>
+          <t>/news,002203,1237864690.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份10月20日被深股通减持22万股</t>
+          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-21 07:42</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1237346841.html</t>
+          <t>/news,002203,1237860223.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
+          <t>海亮股份10月21日被深股通减持20.37万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,12 +2429,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-20 08:45</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1236895274.html</t>
+          <t>/news,002203,1237796792.html</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海亮股份10月19日获深股通增持37.45万股</t>
+          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-20 07:47</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1236888525.html</t>
+          <t>/news,002203,1237356514.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
+          <t>海亮股份10月20日被深股通减持22万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-19 08:59</t>
+          <t>10-21 07:42</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1236448340.html</t>
+          <t>/news,002203,1237346841.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>海亮股份10月18日获深股通增持21.27万股</t>
+          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-20 08:45</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1236441238.html</t>
+          <t>/news,002203,1236895274.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
+          <t>海亮股份10月19日获深股通增持37.45万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-18 18:00</t>
+          <t>10-20 07:47</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1236349298.html</t>
+          <t>/news,002203,1236888525.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
+          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-18 08:51</t>
+          <t>10-19 08:59</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1236048585.html</t>
+          <t>/news,002203,1236448340.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>海亮股份10月17日获深股通增持19.27万股</t>
+          <t>海亮股份10月18日获深股通增持21.27万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1236041241.html</t>
+          <t>/news,002203,1236441238.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，成交价12.24元（10-17）</t>
+          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-18 18:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1235954060.html</t>
+          <t>/news,002203,1236349298.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还670.26万元，融资余额13.7亿元（10-14）</t>
+          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-17 08:47</t>
+          <t>10-18 08:51</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1235651362.html</t>
+          <t>/news,002203,1236048585.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净买入891.32万元，居有色金属板块第七</t>
+          <t>海亮股份10月17日获深股通增持19.27万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-16 15:08</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1235581586.html</t>
+          <t>/news,002203,1236041241.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>深股通连续2周净买入海亮股份 累计净买入970.1万元</t>
+          <t>大宗交易：海亮股份成交201.96万元，成交价12.24元（10-17）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-16 14:07</t>
+          <t>10-17 18:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1235576448.html</t>
+          <t>/news,002203,1235954060.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海亮股份10月14日获深股通增持23.79万股</t>
+          <t>海亮股份：融资净偿还670.26万元，融资余额13.7亿元（10-14）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-15 07:48</t>
+          <t>10-17 08:47</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1235511370.html</t>
+          <t>/news,002203,1235651362.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1177万元，折价1.01%（10-14）</t>
+          <t>海亮股份本周融资净买入891.32万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-14 18:00</t>
+          <t>10-16 15:08</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1235409514.html</t>
+          <t>/news,002203,1235581586.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入210.31万元，融资余额13.76亿元（10-13）</t>
+          <t>深股通连续2周净买入海亮股份 累计净买入970.1万元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-14 08:47</t>
+          <t>10-16 14:07</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1235089791.html</t>
+          <t>/news,002203,1235576448.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海亮股份10月13日获深股通增持24.56万股</t>
+          <t>海亮股份10月14日获深股通增持23.79万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-14 07:52</t>
+          <t>10-15 07:48</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1235082599.html</t>
+          <t>/news,002203,1235511370.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还416.59万元，融资余额13.74亿元（10-12）</t>
+          <t>大宗交易：海亮股份成交1177万元，折价1.01%（10-14）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-13 08:47</t>
+          <t>10-14 18:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1234653293.html</t>
+          <t>/news,002203,1235409514.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海亮股份10月12日获深股通增持13.38万股</t>
+          <t>海亮股份：融资净买入210.31万元，融资余额13.76亿元（10-13）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-13 07:58</t>
+          <t>10-14 08:47</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1234647074.html</t>
+          <t>/news,002203,1235089791.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交2073.75万元，成交价11.85元（10-12）</t>
+          <t>海亮股份10月13日获深股通增持24.56万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-12 18:01</t>
+          <t>10-14 07:52</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1234530021.html</t>
+          <t>/news,002203,1235082599.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计1793.93万元（10-11）</t>
+          <t>海亮股份：融资净偿还416.59万元，融资余额13.74亿元（10-12）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-12 08:55</t>
+          <t>10-13 08:47</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1234219895.html</t>
+          <t>/news,002203,1234653293.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>108</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
+          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-15 08:46</t>
+          <t>11-17 08:41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1246697605.html</t>
+          <t>/news,002203,1247674915.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份11月14日获深股通增持20.87万股</t>
+          <t>海亮股份11月16日被深股通减持54.02万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-15 07:48</t>
+          <t>11-17 07:33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1246689780.html</t>
+          <t>/news,002203,1247664706.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-16 18:01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1246198626.html</t>
+          <t>/news,002203,1247541531.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-16 14:08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1246196435.html</t>
+          <t>/news,002203,1247446516.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>136</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
+          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-16 08:41</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1246101667.html</t>
+          <t>/news,002203,1247182099.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,39 +627,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
+          <t>海亮股份11月15日被深股通减持42.2万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-13 14:13</t>
+          <t>11-16 07:46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1246094933.html</t>
+          <t>/news,002203,1247174778.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>765</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海亮股份11月11日被深股通减持56.81万股</t>
+          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-15 16:32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1245986384.html</t>
+          <t>/news,002203,1247048599.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
+          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-12 00:09</t>
+          <t>11-15 08:46</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1246096434.html</t>
+          <t>/news,002203,1246697605.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
+          <t>海亮股份11月14日获深股通增持20.87万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-11 18:28</t>
+          <t>11-15 07:48</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1245898758.html</t>
+          <t>/news,002203,1246689780.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-11 08:41</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1245422348.html</t>
+          <t>/news,002203,1246198626.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份11月10日被深股通减持28.27万股</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-11 07:54</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1245413580.html</t>
+          <t>/news,002203,1246196435.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
+          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1245274801.html</t>
+          <t>/news,002203,1246101667.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
+          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-13 14:13</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1244898603.html</t>
+          <t>/news,002203,1246094933.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海亮股份11月09日被深股通减持77.83万股</t>
+          <t>海亮股份11月11日被深股通减持56.81万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,51 +893,51 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1244892219.html</t>
+          <t>/news,002203,1245986384.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
+          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-09 09:01</t>
+          <t>11-12 00:09</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1244438992.html</t>
+          <t>/news,002203,1246096434.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>686</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
+          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-09 08:47</t>
+          <t>11-11 18:28</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1244435978.html</t>
+          <t>/news,002203,1245898758.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份11月08日被深股通减持11.21万股</t>
+          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-11 08:41</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1244425901.html</t>
+          <t>/news,002203,1245422348.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
+          <t>海亮股份11月10日被深股通减持28.27万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-08 08:45</t>
+          <t>11-11 07:54</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1243982408.html</t>
+          <t>/news,002203,1245413580.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份11月07日获深股通增持70.03万股</t>
+          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-08 07:41</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1243972851.html</t>
+          <t>/news,002203,1245274801.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
+          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1243512300.html</t>
+          <t>/news,002203,1244898603.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海亮股份：接受华福证券等机构调研</t>
+          <t>海亮股份11月09日被深股通减持77.83万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,51 +1117,51 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-07 06:29</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1243503533.html</t>
+          <t>/news,002203,1244892219.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
+          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-06 15:09</t>
+          <t>11-09 09:01</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1243411409.html</t>
+          <t>/news,002203,1244438992.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
+          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-09 08:47</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1243404984.html</t>
+          <t>/news,002203,1244435978.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海亮股份11月04日被深股通减持3.02万股</t>
+          <t>海亮股份11月08日被深股通减持11.21万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1243317851.html</t>
+          <t>/news,002203,1244425901.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
+          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-08 08:45</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1243229307.html</t>
+          <t>/news,002203,1243982408.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
+          <t>海亮股份11月07日获深股通增持70.03万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-04 08:46</t>
+          <t>11-08 07:41</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1242825348.html</t>
+          <t>/news,002203,1243972851.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份11月03日被深股通减持24.45万股</t>
+          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-04 07:45</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1242816307.html</t>
+          <t>/news,002203,1243512300.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
+          <t>海亮股份：接受华福证券等机构调研</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-03 08:50</t>
+          <t>11-07 06:29</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1242333917.html</t>
+          <t>/news,002203,1243503533.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>海亮股份11月02日被深股通减持37万股</t>
+          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-03 07:53</t>
+          <t>11-06 15:09</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1242326027.html</t>
+          <t>/news,002203,1243411409.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
+          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-02 08:50</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1241809291.html</t>
+          <t>/news,002203,1243404984.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>海亮股份11月01日被深股通减持93.33万股</t>
+          <t>海亮股份11月04日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-02 07:53</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1241801731.html</t>
+          <t>/news,002203,1243317851.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
+          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-01 19:38</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1241692171.html</t>
+          <t>/news,002203,1243229307.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
+          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-01 08:53</t>
+          <t>11-04 08:46</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1241305030.html</t>
+          <t>/news,002203,1242825348.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海亮股份10月31日被深股通减持33万股</t>
+          <t>海亮股份11月03日被深股通减持24.45万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-01 07:45</t>
+          <t>11-04 07:45</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1241295775.html</t>
+          <t>/news,002203,1242816307.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
+          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-03 08:50</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1241260925.html</t>
+          <t>/news,002203,1242333917.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
+          <t>海亮股份11月02日被深股通减持37万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-31 21:52</t>
+          <t>11-03 07:53</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1241248353.html</t>
+          <t>/news,002203,1242326027.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
+          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-31 18:32</t>
+          <t>11-02 08:50</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1241186957.html</t>
+          <t>/news,002203,1241809291.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01%</t>
+          <t>海亮股份11月01日被深股通减持93.33万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-31 14:01</t>
+          <t>11-02 07:53</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1241068293.html</t>
+          <t>/news,002203,1241801731.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
+          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-31 11:31</t>
+          <t>11-01 19:38</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1240981015.html</t>
+          <t>/news,002203,1241692171.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
+          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-31 10:42</t>
+          <t>11-01 08:53</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1240932054.html</t>
+          <t>/news,002203,1241305030.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
+          <t>海亮股份10月31日被深股通减持33万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 07:45</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1240796164.html</t>
+          <t>/news,002203,1241295775.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
+          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-30 23:17</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1240765953.html</t>
+          <t>/news,002203,1241260925.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
+          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-30 19:01</t>
+          <t>10-31 21:52</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1240738815.html</t>
+          <t>/news,002203,1241248353.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
+          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-30 16:09</t>
+          <t>10-31 18:32</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1240722642.html</t>
+          <t>/news,002203,1241186957.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
+          <t>海亮股份：前三季度营收同比增长16.01%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-30 15:45</t>
+          <t>10-31 14:01</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1240719401.html</t>
+          <t>/news,002203,1241068293.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
+          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-30 15:38</t>
+          <t>10-31 11:31</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1240718008.html</t>
+          <t>/news,002203,1240981015.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
+          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-31 10:42</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1240714289.html</t>
+          <t>/news,002203,1240932054.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
+          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1240707038.html</t>
+          <t>/news,002203,1240796164.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>504</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份10月28日获深股通增持31.72万股</t>
+          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-29 07:48</t>
+          <t>10-30 23:17</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1240599628.html</t>
+          <t>/news,002203,1240765953.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
+          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 09:04</t>
+          <t>10-30 19:01</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1240060169.html</t>
+          <t>/news,002203,1240738815.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份10月27日获深股通增持7.69万股</t>
+          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-30 16:09</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1240047226.html</t>
+          <t>/news,002203,1240722642.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
+          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-27 08:48</t>
+          <t>10-30 15:45</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1239505387.html</t>
+          <t>/news,002203,1240719401.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份10月26日被深股通减持10.18万股</t>
+          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-27 07:42</t>
+          <t>10-30 15:38</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1239496073.html</t>
+          <t>/news,002203,1240718008.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
+          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 08:46</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1238977163.html</t>
+          <t>/news,002203,1240714289.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>海亮股份10月25日获深股通增持32.12万股</t>
+          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-26 07:47</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1238968262.html</t>
+          <t>/news,002203,1240707038.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
+          <t>海亮股份10月28日获深股通增持31.72万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 08:47</t>
+          <t>10-29 07:48</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1238457077.html</t>
+          <t>/news,002203,1240599628.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>海亮股份10月24日获深股通增持14.88万股</t>
+          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 07:42</t>
+          <t>10-28 09:04</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1238446612.html</t>
+          <t>/news,002203,1240060169.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
+          <t>海亮股份10月27日获深股通增持7.69万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-24 18:00</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1238323615.html</t>
+          <t>/news,002203,1240047226.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
+          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-24 08:57</t>
+          <t>10-27 08:48</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1237923033.html</t>
+          <t>/news,002203,1239505387.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
+          <t>海亮股份10月26日被深股通减持10.18万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-27 07:42</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1237864690.html</t>
+          <t>/news,002203,1239496073.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
+          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-26 08:46</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1237860223.html</t>
+          <t>/news,002203,1238977163.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份10月21日被深股通减持20.37万股</t>
+          <t>海亮股份10月25日获深股通增持32.12万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-26 07:47</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1237796792.html</t>
+          <t>/news,002203,1238968262.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
+          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-25 08:47</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1237356514.html</t>
+          <t>/news,002203,1238457077.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海亮股份10月20日被深股通减持22万股</t>
+          <t>海亮股份10月24日获深股通增持14.88万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-21 07:42</t>
+          <t>10-25 07:42</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1237346841.html</t>
+          <t>/news,002203,1238446612.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
+          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-20 08:45</t>
+          <t>10-24 18:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1236895274.html</t>
+          <t>/news,002203,1238323615.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份10月19日获深股通增持37.45万股</t>
+          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-20 07:47</t>
+          <t>10-24 08:57</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1236888525.html</t>
+          <t>/news,002203,1237923033.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
+          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-19 08:59</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1236448340.html</t>
+          <t>/news,002203,1237864690.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>海亮股份10月18日获深股通增持21.27万股</t>
+          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1236441238.html</t>
+          <t>/news,002203,1237860223.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
+          <t>海亮股份10月21日被深股通减持20.37万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-18 18:00</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1236349298.html</t>
+          <t>/news,002203,1237796792.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
+          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-18 08:51</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1236048585.html</t>
+          <t>/news,002203,1237356514.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海亮股份10月17日获深股通增持19.27万股</t>
+          <t>海亮股份10月20日被深股通减持22万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-21 07:42</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1236041241.html</t>
+          <t>/news,002203,1237346841.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，成交价12.24元（10-17）</t>
+          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-20 08:45</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1235954060.html</t>
+          <t>/news,002203,1236895274.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还670.26万元，融资余额13.7亿元（10-14）</t>
+          <t>海亮股份10月19日获深股通增持37.45万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-17 08:47</t>
+          <t>10-20 07:47</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1235651362.html</t>
+          <t>/news,002203,1236888525.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净买入891.32万元，居有色金属板块第七</t>
+          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-16 15:08</t>
+          <t>10-19 08:59</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1235581586.html</t>
+          <t>/news,002203,1236448340.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>深股通连续2周净买入海亮股份 累计净买入970.1万元</t>
+          <t>海亮股份10月18日获深股通增持21.27万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-16 14:07</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1235576448.html</t>
+          <t>/news,002203,1236441238.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海亮股份10月14日获深股通增持23.79万股</t>
+          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-15 07:48</t>
+          <t>10-18 18:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1235511370.html</t>
+          <t>/news,002203,1236349298.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1177万元，折价1.01%（10-14）</t>
+          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,12 +2909,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-14 18:00</t>
+          <t>10-18 08:51</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1235409514.html</t>
+          <t>/news,002203,1236048585.html</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入210.31万元，融资余额13.76亿元（10-13）</t>
+          <t>海亮股份10月17日获深股通增持19.27万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-14 08:47</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1235089791.html</t>
+          <t>/news,002203,1236041241.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份10月13日获深股通增持24.56万股</t>
+          <t>大宗交易：海亮股份成交201.96万元，成交价12.24元（10-17）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-14 07:52</t>
+          <t>10-17 18:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1235082599.html</t>
+          <t>/news,002203,1235954060.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还416.59万元，融资余额13.74亿元（10-12）</t>
+          <t>海亮股份：融资净偿还670.26万元，融资余额13.7亿元（10-14）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-13 08:47</t>
+          <t>10-17 08:47</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1234653293.html</t>
+          <t>/news,002203,1235651362.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>97</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
+          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-17 08:41</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1247674915.html</t>
+          <t>/news,002203,1248162901.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份11月16日被深股通减持54.02万股</t>
+          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-17 07:33</t>
+          <t>11-17 18:01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1247664706.html</t>
+          <t>/news,002203,1248042520.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
+          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-16 18:01</t>
+          <t>11-17 08:41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1247541531.html</t>
+          <t>/news,002203,1247674915.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
+          <t>海亮股份11月16日被深股通减持54.02万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-16 14:08</t>
+          <t>11-17 07:33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1247446516.html</t>
+          <t>/news,002203,1247664706.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
+          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-16 08:41</t>
+          <t>11-16 18:01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1247182099.html</t>
+          <t>/news,002203,1247541531.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海亮股份11月15日被深股通减持42.2万股</t>
+          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-16 07:46</t>
+          <t>11-16 14:08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1247174778.html</t>
+          <t>/news,002203,1247446516.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-15 16:32</t>
+          <t>11-16 08:41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1247048599.html</t>
+          <t>/news,002203,1247182099.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
+          <t>海亮股份11月15日被深股通减持42.2万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-15 08:46</t>
+          <t>11-16 07:46</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1246697605.html</t>
+          <t>/news,002203,1247174778.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>779</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海亮股份11月14日获深股通增持20.87万股</t>
+          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-15 07:48</t>
+          <t>11-15 16:32</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1246689780.html</t>
+          <t>/news,002203,1247048599.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-15 08:46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1246198626.html</t>
+          <t>/news,002203,1246697605.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份11月14日获深股通增持20.87万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-15 07:48</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1246196435.html</t>
+          <t>/news,002203,1246689780.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1246101667.html</t>
+          <t>/news,002203,1246198626.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-13 14:13</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1246094933.html</t>
+          <t>/news,002203,1246196435.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,61 +883,61 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海亮股份11月11日被深股通减持56.81万股</t>
+          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1245986384.html</t>
+          <t>/news,002203,1246101667.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
+          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-12 00:09</t>
+          <t>11-13 14:13</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1246096434.html</t>
+          <t>/news,002203,1246094933.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
+          <t>海亮股份11月11日被深股通减持56.81万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-11 18:28</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1245898758.html</t>
+          <t>/news,002203,1245986384.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
+          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-11 08:41</t>
+          <t>11-12 00:09</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1245422348.html</t>
+          <t>/news,002203,1246096434.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>688</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海亮股份11月10日被深股通减持28.27万股</t>
+          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-11 07:54</t>
+          <t>11-11 18:28</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1245413580.html</t>
+          <t>/news,002203,1245898758.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
+          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-11 08:41</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1245274801.html</t>
+          <t>/news,002203,1245422348.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
+          <t>海亮股份11月10日被深股通减持28.27万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-11 07:54</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1244898603.html</t>
+          <t>/news,002203,1245413580.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海亮股份11月09日被深股通减持77.83万股</t>
+          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,51 +1117,51 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1244892219.html</t>
+          <t>/news,002203,1245274801.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
+          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-09 09:01</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1244438992.html</t>
+          <t>/news,002203,1244898603.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
+          <t>海亮股份11月09日被深股通减持77.83万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-09 08:47</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1244435978.html</t>
+          <t>/news,002203,1244892219.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海亮股份11月08日被深股通减持11.21万股</t>
+          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-09 09:01</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1244425901.html</t>
+          <t>/news,002203,1244438992.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
+          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-08 08:45</t>
+          <t>11-09 08:47</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1243982408.html</t>
+          <t>/news,002203,1244435978.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>海亮股份11月07日获深股通增持70.03万股</t>
+          <t>海亮股份11月08日被深股通减持11.21万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-08 07:41</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1243972851.html</t>
+          <t>/news,002203,1244425901.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
+          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-08 08:45</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1243512300.html</t>
+          <t>/news,002203,1243982408.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份：接受华福证券等机构调研</t>
+          <t>海亮股份11月07日获深股通增持70.03万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-07 06:29</t>
+          <t>11-08 07:41</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1243503533.html</t>
+          <t>/news,002203,1243972851.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
+          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-06 15:09</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1243411409.html</t>
+          <t>/news,002203,1243512300.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>677</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
+          <t>海亮股份：接受华福证券等机构调研</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 06:29</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1243404984.html</t>
+          <t>/news,002203,1243503533.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>海亮股份11月04日被深股通减持3.02万股</t>
+          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-06 15:09</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1243317851.html</t>
+          <t>/news,002203,1243411409.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
+          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1243229307.html</t>
+          <t>/news,002203,1243404984.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
+          <t>海亮股份11月04日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-04 08:46</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1242825348.html</t>
+          <t>/news,002203,1243317851.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海亮股份11月03日被深股通减持24.45万股</t>
+          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-04 07:45</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1242816307.html</t>
+          <t>/news,002203,1243229307.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
+          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-03 08:50</t>
+          <t>11-04 08:46</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1242333917.html</t>
+          <t>/news,002203,1242825348.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份11月02日被深股通减持37万股</t>
+          <t>海亮股份11月03日被深股通减持24.45万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-03 07:53</t>
+          <t>11-04 07:45</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1242326027.html</t>
+          <t>/news,002203,1242816307.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
+          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-02 08:50</t>
+          <t>11-03 08:50</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1241809291.html</t>
+          <t>/news,002203,1242333917.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份11月01日被深股通减持93.33万股</t>
+          <t>海亮股份11月02日被深股通减持37万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-02 07:53</t>
+          <t>11-03 07:53</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1241801731.html</t>
+          <t>/news,002203,1242326027.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
+          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-01 19:38</t>
+          <t>11-02 08:50</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1241692171.html</t>
+          <t>/news,002203,1241809291.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
+          <t>海亮股份11月01日被深股通减持93.33万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-01 08:53</t>
+          <t>11-02 07:53</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1241305030.html</t>
+          <t>/news,002203,1241801731.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,39 +1747,39 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海亮股份10月31日被深股通减持33万股</t>
+          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-01 07:45</t>
+          <t>11-01 19:38</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1241295775.html</t>
+          <t>/news,002203,1241692171.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
+          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-01 08:53</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1241260925.html</t>
+          <t>/news,002203,1241305030.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,39 +1811,39 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
+          <t>海亮股份10月31日被深股通减持33万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-31 21:52</t>
+          <t>11-01 07:45</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1241248353.html</t>
+          <t>/news,002203,1241295775.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
+          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 18:32</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1241186957.html</t>
+          <t>/news,002203,1241260925.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>544</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01%</t>
+          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-31 14:01</t>
+          <t>10-31 21:52</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1241068293.html</t>
+          <t>/news,002203,1241248353.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
+          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-31 11:31</t>
+          <t>10-31 18:32</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1240981015.html</t>
+          <t>/news,002203,1241186957.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
+          <t>海亮股份：前三季度营收同比增长16.01%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-31 10:42</t>
+          <t>10-31 14:01</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1240932054.html</t>
+          <t>/news,002203,1241068293.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
+          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>10-31 11:31</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1240796164.html</t>
+          <t>/news,002203,1240981015.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
+          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-30 23:17</t>
+          <t>10-31 10:42</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1240765953.html</t>
+          <t>/news,002203,1240932054.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
+          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-30 19:01</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1240738815.html</t>
+          <t>/news,002203,1240796164.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
+          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-30 16:09</t>
+          <t>10-30 23:17</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1240722642.html</t>
+          <t>/news,002203,1240765953.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
+          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-30 15:45</t>
+          <t>10-30 19:01</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1240719401.html</t>
+          <t>/news,002203,1240738815.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
+          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-30 15:38</t>
+          <t>10-30 16:09</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1240718008.html</t>
+          <t>/news,002203,1240722642.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
+          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-30 15:45</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1240714289.html</t>
+          <t>/news,002203,1240719401.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>664</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
+          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 15:38</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1240707038.html</t>
+          <t>/news,002203,1240718008.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份10月28日获深股通增持31.72万股</t>
+          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-29 07:48</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1240599628.html</t>
+          <t>/news,002203,1240714289.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
+          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-28 09:04</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1240060169.html</t>
+          <t>/news,002203,1240707038.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>海亮股份10月27日获深股通增持7.69万股</t>
+          <t>海亮股份10月28日获深股通增持31.72万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-29 07:48</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1240047226.html</t>
+          <t>/news,002203,1240599628.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
+          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-27 08:48</t>
+          <t>10-28 09:04</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1239505387.html</t>
+          <t>/news,002203,1240060169.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份10月26日被深股通减持10.18万股</t>
+          <t>海亮股份10月27日获深股通增持7.69万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-27 07:42</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1239496073.html</t>
+          <t>/news,002203,1240047226.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
+          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-26 08:46</t>
+          <t>10-27 08:48</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1238977163.html</t>
+          <t>/news,002203,1239505387.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份10月25日获深股通增持32.12万股</t>
+          <t>海亮股份10月26日被深股通减持10.18万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-26 07:47</t>
+          <t>10-27 07:42</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1238968262.html</t>
+          <t>/news,002203,1239496073.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
+          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 08:47</t>
+          <t>10-26 08:46</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1238457077.html</t>
+          <t>/news,002203,1238977163.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海亮股份10月24日获深股通增持14.88万股</t>
+          <t>海亮股份10月25日获深股通增持32.12万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 07:42</t>
+          <t>10-26 07:47</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1238446612.html</t>
+          <t>/news,002203,1238968262.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
+          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-24 18:00</t>
+          <t>10-25 08:47</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1238323615.html</t>
+          <t>/news,002203,1238457077.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
+          <t>海亮股份10月24日获深股通增持14.88万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-24 08:57</t>
+          <t>10-25 07:42</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1237923033.html</t>
+          <t>/news,002203,1238446612.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
+          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-24 18:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1237864690.html</t>
+          <t>/news,002203,1238323615.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
+          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 08:57</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1237860223.html</t>
+          <t>/news,002203,1237923033.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份10月21日被深股通减持20.37万股</t>
+          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1237796792.html</t>
+          <t>/news,002203,1237864690.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
+          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1237356514.html</t>
+          <t>/news,002203,1237860223.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海亮股份10月20日被深股通减持22万股</t>
+          <t>海亮股份10月21日被深股通减持20.37万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-21 07:42</t>
+          <t>10-22 07:49</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1237346841.html</t>
+          <t>/news,002203,1237796792.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
+          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-20 08:45</t>
+          <t>10-21 08:50</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1236895274.html</t>
+          <t>/news,002203,1237356514.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海亮股份10月19日获深股通增持37.45万股</t>
+          <t>海亮股份10月20日被深股通减持22万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-20 07:47</t>
+          <t>10-21 07:42</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1236888525.html</t>
+          <t>/news,002203,1237346841.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
+          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,12 +2813,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-19 08:59</t>
+          <t>10-20 08:45</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1236448340.html</t>
+          <t>/news,002203,1236895274.html</t>
         </is>
       </c>
     </row>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>海亮股份10月18日获深股通增持21.27万股</t>
+          <t>海亮股份10月19日获深股通增持37.45万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-20 07:47</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1236441238.html</t>
+          <t>/news,002203,1236888525.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
+          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-18 18:00</t>
+          <t>10-19 08:59</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1236349298.html</t>
+          <t>/news,002203,1236448340.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
+          <t>海亮股份10月18日获深股通增持21.27万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-18 08:51</t>
+          <t>10-19 07:58</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1236048585.html</t>
+          <t>/news,002203,1236441238.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海亮股份10月17日获深股通增持19.27万股</t>
+          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-18 18:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1236041241.html</t>
+          <t>/news,002203,1236349298.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，成交价12.24元（10-17）</t>
+          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-18 08:51</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1235954060.html</t>
+          <t>/news,002203,1236048585.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还670.26万元，融资余额13.7亿元（10-14）</t>
+          <t>海亮股份10月17日获深股通增持19.27万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-17 08:47</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1235651362.html</t>
+          <t>/news,002203,1236041241.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
+          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-21 10:57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1248162901.html</t>
+          <t>/news,002203,1249017367.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
+          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-17 18:01</t>
+          <t>11-21 10:09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1248042520.html</t>
+          <t>/news,002203,1249059951.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
+          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-17 08:41</t>
+          <t>11-21 08:42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1247674915.html</t>
+          <t>/news,002203,1248870718.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份11月16日被深股通减持54.02万股</t>
+          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-17 07:33</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1247664706.html</t>
+          <t>/news,002203,1248769900.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
+          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-16 18:01</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1247541531.html</t>
+          <t>/news,002203,1248763121.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
+          <t>海亮股份11月18日获深股通增持12.96万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-16 14:08</t>
+          <t>11-19 07:47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1247446516.html</t>
+          <t>/news,002203,1248637816.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>777</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
+          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-16 08:41</t>
+          <t>11-18 18:06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1247182099.html</t>
+          <t>/news,002203,1248552209.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份11月15日被深股通减持42.2万股</t>
+          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-16 07:46</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1247174778.html</t>
+          <t>/news,002203,1248512763.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-15 16:32</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1247048599.html</t>
+          <t>/news,002203,1248512666.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
+          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-15 08:46</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1246697605.html</t>
+          <t>/news,002203,1248512327.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份11月14日获深股通增持20.87万股</t>
+          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-15 07:48</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1246689780.html</t>
+          <t>/news,002203,1248162901.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-17 18:01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1246198626.html</t>
+          <t>/news,002203,1248042520.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-17 08:41</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1246196435.html</t>
+          <t>/news,002203,1247674915.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
+          <t>海亮股份11月16日被深股通减持54.02万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-17 07:33</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1246101667.html</t>
+          <t>/news,002203,1247664706.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
+          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-13 14:13</t>
+          <t>11-16 18:01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1246094933.html</t>
+          <t>/news,002203,1247541531.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>699</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海亮股份11月11日被深股通减持56.81万股</t>
+          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-16 14:08</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1245986384.html</t>
+          <t>/news,002203,1247446516.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
+          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-12 00:09</t>
+          <t>11-16 08:41</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1246096434.html</t>
+          <t>/news,002203,1247182099.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
+          <t>海亮股份11月15日被深股通减持42.2万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-11 18:28</t>
+          <t>11-16 07:46</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1245898758.html</t>
+          <t>/news,002203,1247174778.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>797</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
+          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-11 08:41</t>
+          <t>11-15 16:32</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1245422348.html</t>
+          <t>/news,002203,1247048599.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份11月10日被深股通减持28.27万股</t>
+          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-11 07:54</t>
+          <t>11-15 08:46</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1245413580.html</t>
+          <t>/news,002203,1246697605.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
+          <t>海亮股份11月14日获深股通增持20.87万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,12 +1117,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-15 07:48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1245274801.html</t>
+          <t>/news,002203,1246689780.html</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1244898603.html</t>
+          <t>/news,002203,1246198626.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海亮股份11月09日被深股通减持77.83万股</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1244892219.html</t>
+          <t>/news,002203,1246196435.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
+          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-09 09:01</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1244438992.html</t>
+          <t>/news,002203,1246101667.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
+          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-09 08:47</t>
+          <t>11-13 14:13</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1244435978.html</t>
+          <t>/news,002203,1246094933.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>海亮股份11月08日被深股通减持11.21万股</t>
+          <t>海亮股份11月11日被深股通减持56.81万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1244425901.html</t>
+          <t>/news,002203,1245986384.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
+          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-08 08:45</t>
+          <t>11-12 00:09</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1243982408.html</t>
+          <t>/news,002203,1246096434.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>693</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份11月07日获深股通增持70.03万股</t>
+          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-08 07:41</t>
+          <t>11-11 18:28</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1243972851.html</t>
+          <t>/news,002203,1245898758.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
+          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-11 08:41</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1243512300.html</t>
+          <t>/news,002203,1245422348.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份：接受华福证券等机构调研</t>
+          <t>海亮股份11月10日被深股通减持28.27万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-07 06:29</t>
+          <t>11-11 07:54</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1243503533.html</t>
+          <t>/news,002203,1245413580.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>474</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
+          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-06 15:09</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1243411409.html</t>
+          <t>/news,002203,1245274801.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
+          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1243404984.html</t>
+          <t>/news,002203,1244898603.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份11月04日被深股通减持3.02万股</t>
+          <t>海亮股份11月09日被深股通减持77.83万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,51 +1501,51 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1243317851.html</t>
+          <t>/news,002203,1244892219.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
+          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-09 09:01</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1243229307.html</t>
+          <t>/news,002203,1244438992.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
+          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-04 08:46</t>
+          <t>11-09 08:47</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1242825348.html</t>
+          <t>/news,002203,1244435978.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份11月03日被深股通减持24.45万股</t>
+          <t>海亮股份11月08日被深股通减持11.21万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-04 07:45</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1242816307.html</t>
+          <t>/news,002203,1244425901.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
+          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-03 08:50</t>
+          <t>11-08 08:45</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1242333917.html</t>
+          <t>/news,002203,1243982408.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份11月02日被深股通减持37万股</t>
+          <t>海亮股份11月07日获深股通增持70.03万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-03 07:53</t>
+          <t>11-08 07:41</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1242326027.html</t>
+          <t>/news,002203,1243972851.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
+          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-02 08:50</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1241809291.html</t>
+          <t>/news,002203,1243512300.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>682</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海亮股份11月01日被深股通减持93.33万股</t>
+          <t>海亮股份：接受华福证券等机构调研</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-02 07:53</t>
+          <t>11-07 06:29</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1241801731.html</t>
+          <t>/news,002203,1243503533.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
+          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-01 19:38</t>
+          <t>11-06 15:09</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1241692171.html</t>
+          <t>/news,002203,1243411409.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
+          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-01 08:53</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1241305030.html</t>
+          <t>/news,002203,1243404984.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份10月31日被深股通减持33万股</t>
+          <t>海亮股份11月04日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-01 07:45</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1241295775.html</t>
+          <t>/news,002203,1243317851.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
+          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1241260925.html</t>
+          <t>/news,002203,1243229307.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
+          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-31 21:52</t>
+          <t>11-04 08:46</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1241248353.html</t>
+          <t>/news,002203,1242825348.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
+          <t>海亮股份11月03日被深股通减持24.45万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-31 18:32</t>
+          <t>11-04 07:45</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1241186957.html</t>
+          <t>/news,002203,1242816307.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01%</t>
+          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-31 14:01</t>
+          <t>11-03 08:50</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1241068293.html</t>
+          <t>/news,002203,1242333917.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
+          <t>海亮股份11月02日被深股通减持37万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-31 11:31</t>
+          <t>11-03 07:53</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1240981015.html</t>
+          <t>/news,002203,1242326027.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
+          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-31 10:42</t>
+          <t>11-02 08:50</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1240932054.html</t>
+          <t>/news,002203,1241809291.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
+          <t>海亮股份11月01日被深股通减持93.33万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-02 07:53</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1240796164.html</t>
+          <t>/news,002203,1241801731.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
+          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-30 23:17</t>
+          <t>11-01 19:38</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1240765953.html</t>
+          <t>/news,002203,1241692171.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
+          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-30 19:01</t>
+          <t>11-01 08:53</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1240738815.html</t>
+          <t>/news,002203,1241305030.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
+          <t>海亮股份10月31日被深股通减持33万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-30 16:09</t>
+          <t>11-01 07:45</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1240722642.html</t>
+          <t>/news,002203,1241295775.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>671</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
+          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-30 15:45</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1240719401.html</t>
+          <t>/news,002203,1241260925.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
+          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-30 15:38</t>
+          <t>10-31 21:52</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1240718008.html</t>
+          <t>/news,002203,1241248353.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
+          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-31 18:32</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1240714289.html</t>
+          <t>/news,002203,1241186957.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
+          <t>海亮股份：前三季度营收同比增长16.01%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 14:01</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1240707038.html</t>
+          <t>/news,002203,1241068293.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>海亮股份10月28日获深股通增持31.72万股</t>
+          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-29 07:48</t>
+          <t>10-31 11:31</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1240599628.html</t>
+          <t>/news,002203,1240981015.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
+          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-28 09:04</t>
+          <t>10-31 10:42</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1240060169.html</t>
+          <t>/news,002203,1240932054.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份10月27日获深股通增持7.69万股</t>
+          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1240047226.html</t>
+          <t>/news,002203,1240796164.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>515</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
+          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-27 08:48</t>
+          <t>10-30 23:17</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1239505387.html</t>
+          <t>/news,002203,1240765953.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份10月26日被深股通减持10.18万股</t>
+          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-27 07:42</t>
+          <t>10-30 19:01</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1239496073.html</t>
+          <t>/news,002203,1240738815.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
+          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-26 08:46</t>
+          <t>10-30 16:09</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1238977163.html</t>
+          <t>/news,002203,1240722642.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海亮股份10月25日获深股通增持32.12万股</t>
+          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-26 07:47</t>
+          <t>10-30 15:45</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1238968262.html</t>
+          <t>/news,002203,1240719401.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
+          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 08:47</t>
+          <t>10-30 15:38</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1238457077.html</t>
+          <t>/news,002203,1240718008.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>561</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份10月24日获深股通增持14.88万股</t>
+          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 07:42</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1238446612.html</t>
+          <t>/news,002203,1240714289.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
+          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-24 18:00</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1238323615.html</t>
+          <t>/news,002203,1240707038.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
+          <t>海亮股份10月28日获深股通增持31.72万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-24 08:57</t>
+          <t>10-29 07:48</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1237923033.html</t>
+          <t>/news,002203,1240599628.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
+          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-28 09:04</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1237864690.html</t>
+          <t>/news,002203,1240060169.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
+          <t>海亮股份10月27日获深股通增持7.69万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1237860223.html</t>
+          <t>/news,002203,1240047226.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海亮股份10月21日被深股通减持20.37万股</t>
+          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-22 07:49</t>
+          <t>10-27 08:48</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1237796792.html</t>
+          <t>/news,002203,1239505387.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还154.91万元，融资余额13.7亿元（10-20）</t>
+          <t>海亮股份10月26日被深股通减持10.18万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-21 08:50</t>
+          <t>10-27 07:42</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1237356514.html</t>
+          <t>/news,002203,1239496073.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海亮股份10月20日被深股通减持22万股</t>
+          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-21 07:42</t>
+          <t>10-26 08:46</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1237346841.html</t>
+          <t>/news,002203,1238977163.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还227.17万元，融资余额13.71亿元（10-19）</t>
+          <t>海亮股份10月25日获深股通增持32.12万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-20 08:45</t>
+          <t>10-26 07:47</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1236895274.html</t>
+          <t>/news,002203,1238968262.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>海亮股份10月19日获深股通增持37.45万股</t>
+          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-20 07:47</t>
+          <t>10-25 08:47</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1236888525.html</t>
+          <t>/news,002203,1238457077.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入506.65万元，融资余额13.73亿元（10-18）</t>
+          <t>海亮股份10月24日获深股通增持14.88万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-19 08:59</t>
+          <t>10-25 07:42</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1236448340.html</t>
+          <t>/news,002203,1238446612.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海亮股份10月18日获深股通增持21.27万股</t>
+          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-19 07:58</t>
+          <t>10-24 18:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1236441238.html</t>
+          <t>/news,002203,1238323615.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交201.96万元，溢价0.33%（10-18）</t>
+          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-18 18:00</t>
+          <t>10-24 08:57</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1236349298.html</t>
+          <t>/news,002203,1237923033.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还121.44万元，融资余额13.68亿元（10-17）</t>
+          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-18 08:51</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1236048585.html</t>
+          <t>/news,002203,1237864690.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>海亮股份10月17日获深股通增持19.27万股</t>
+          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1236041241.html</t>
+          <t>/news,002203,1237860223.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-21 10:57</t>
+          <t>11-21 14:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1249017367.html</t>
+          <t>/news,002203,1249114151.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
+          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-21 10:09</t>
+          <t>11-21 10:57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1249059951.html</t>
+          <t>/news,002203,1249017367.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>88</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
+          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,83 +541,83 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-21 08:42</t>
+          <t>11-21 10:09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1248870718.html</t>
+          <t>/news,002203,1249059951.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
+          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-21 08:42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1248769900.html</t>
+          <t>/news,002203,1248870718.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
+          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1248763121.html</t>
+          <t>/news,002203,1248769900.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,39 +627,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海亮股份11月18日获深股通增持12.96万股</t>
+          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-19 07:47</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1248637816.html</t>
+          <t>/news,002203,1248763121.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>海亮股份11月18日获深股通增持12.96万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-18 18:06</t>
+          <t>11-19 07:47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1248552209.html</t>
+          <t>/news,002203,1248637816.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>781</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
+          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-18 18:06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1248512763.html</t>
+          <t>/news,002203,1248552209.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
+          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -738,24 +738,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1248512666.html</t>
+          <t>/news,002203,1248512763.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
+          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -770,14 +770,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1248512327.html</t>
+          <t>/news,002203,1248512666.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
+          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1248162901.html</t>
+          <t>/news,002203,1248512327.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
+          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-17 18:01</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1248042520.html</t>
+          <t>/news,002203,1248162901.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
+          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-17 08:41</t>
+          <t>11-17 18:01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1247674915.html</t>
+          <t>/news,002203,1248042520.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海亮股份11月16日被深股通减持54.02万股</t>
+          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-17 07:33</t>
+          <t>11-17 08:41</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1247664706.html</t>
+          <t>/news,002203,1247674915.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
+          <t>海亮股份11月16日被深股通减持54.02万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-16 18:01</t>
+          <t>11-17 07:33</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1247541531.html</t>
+          <t>/news,002203,1247664706.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
+          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-16 14:08</t>
+          <t>11-16 18:01</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1247446516.html</t>
+          <t>/news,002203,1247541531.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
+          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-16 08:41</t>
+          <t>11-16 14:08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1247182099.html</t>
+          <t>/news,002203,1247446516.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海亮股份11月15日被深股通减持42.2万股</t>
+          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-16 07:46</t>
+          <t>11-16 08:41</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1247174778.html</t>
+          <t>/news,002203,1247182099.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份11月15日被深股通减持42.2万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-15 16:32</t>
+          <t>11-16 07:46</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1247048599.html</t>
+          <t>/news,002203,1247174778.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>797</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
+          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-15 08:46</t>
+          <t>11-15 16:32</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1246697605.html</t>
+          <t>/news,002203,1247048599.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海亮股份11月14日获深股通增持20.87万股</t>
+          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-15 07:48</t>
+          <t>11-15 08:46</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1246689780.html</t>
+          <t>/news,002203,1246697605.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份11月14日获深股通增持20.87万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-15 07:48</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1246198626.html</t>
+          <t>/news,002203,1246689780.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1246196435.html</t>
+          <t>/news,002203,1246198626.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1246101667.html</t>
+          <t>/news,002203,1246196435.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
+          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-13 14:13</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1246094933.html</t>
+          <t>/news,002203,1246101667.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,39 +1267,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>海亮股份11月11日被深股通减持56.81万股</t>
+          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-13 14:13</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1245986384.html</t>
+          <t>/news,002203,1246094933.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
+          <t>海亮股份11月11日被深股通减持56.81万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-12 00:09</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1246096434.html</t>
+          <t>/news,002203,1245986384.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
+          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-11 18:28</t>
+          <t>11-12 00:09</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1245898758.html</t>
+          <t>/news,002203,1246096434.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>693</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
+          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-11 08:41</t>
+          <t>11-11 18:28</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1245422348.html</t>
+          <t>/news,002203,1245898758.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份11月10日被深股通减持28.27万股</t>
+          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-11 07:54</t>
+          <t>11-11 08:41</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1245413580.html</t>
+          <t>/news,002203,1245422348.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
+          <t>海亮股份11月10日被深股通减持28.27万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-11 07:54</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1245274801.html</t>
+          <t>/news,002203,1245413580.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>474</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
+          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1244898603.html</t>
+          <t>/news,002203,1245274801.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份11月09日被深股通减持77.83万股</t>
+          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,83 +1501,83 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1244892219.html</t>
+          <t>/news,002203,1244898603.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
+          <t>海亮股份11月09日被深股通减持77.83万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-09 09:01</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1244438992.html</t>
+          <t>/news,002203,1244892219.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
+          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-09 08:47</t>
+          <t>11-09 09:01</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1244435978.html</t>
+          <t>/news,002203,1244438992.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份11月08日被深股通减持11.21万股</t>
+          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-09 08:47</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1244425901.html</t>
+          <t>/news,002203,1244435978.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
+          <t>海亮股份11月08日被深股通减持11.21万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-08 08:45</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1243982408.html</t>
+          <t>/news,002203,1244425901.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份11月07日获深股通增持70.03万股</t>
+          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-08 07:41</t>
+          <t>11-08 08:45</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1243972851.html</t>
+          <t>/news,002203,1243982408.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
+          <t>海亮股份11月07日获深股通增持70.03万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-08 07:41</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1243512300.html</t>
+          <t>/news,002203,1243972851.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海亮股份：接受华福证券等机构调研</t>
+          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-07 06:29</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1243503533.html</t>
+          <t>/news,002203,1243512300.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>682</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
+          <t>海亮股份：接受华福证券等机构调研</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-06 15:09</t>
+          <t>11-07 06:29</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1243411409.html</t>
+          <t>/news,002203,1243503533.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
+          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-06 15:09</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1243404984.html</t>
+          <t>/news,002203,1243411409.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份11月04日被深股通减持3.02万股</t>
+          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1243317851.html</t>
+          <t>/news,002203,1243404984.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
+          <t>海亮股份11月04日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1243229307.html</t>
+          <t>/news,002203,1243317851.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
+          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-04 08:46</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1242825348.html</t>
+          <t>/news,002203,1243229307.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份11月03日被深股通减持24.45万股</t>
+          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-04 07:45</t>
+          <t>11-04 08:46</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1242816307.html</t>
+          <t>/news,002203,1242825348.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
+          <t>海亮股份11月03日被深股通减持24.45万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-03 08:50</t>
+          <t>11-04 07:45</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1242333917.html</t>
+          <t>/news,002203,1242816307.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海亮股份11月02日被深股通减持37万股</t>
+          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-03 07:53</t>
+          <t>11-03 08:50</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1242326027.html</t>
+          <t>/news,002203,1242333917.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
+          <t>海亮股份11月02日被深股通减持37万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-02 08:50</t>
+          <t>11-03 07:53</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1241809291.html</t>
+          <t>/news,002203,1242326027.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海亮股份11月01日被深股通减持93.33万股</t>
+          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-02 07:53</t>
+          <t>11-02 08:50</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1241801731.html</t>
+          <t>/news,002203,1241809291.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
+          <t>海亮股份11月01日被深股通减持93.33万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-01 19:38</t>
+          <t>11-02 07:53</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1241692171.html</t>
+          <t>/news,002203,1241801731.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
+          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-01 08:53</t>
+          <t>11-01 19:38</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1241305030.html</t>
+          <t>/news,002203,1241692171.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份10月31日被深股通减持33万股</t>
+          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-01 07:45</t>
+          <t>11-01 08:53</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1241295775.html</t>
+          <t>/news,002203,1241305030.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
+          <t>海亮股份10月31日被深股通减持33万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,51 +2173,51 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-01 07:45</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1241260925.html</t>
+          <t>/news,002203,1241295775.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
+          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-31 21:52</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1241248353.html</t>
+          <t>/news,002203,1241260925.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
+          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-31 18:32</t>
+          <t>10-31 21:52</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1241186957.html</t>
+          <t>/news,002203,1241248353.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01%</t>
+          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-31 14:01</t>
+          <t>10-31 18:32</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1241068293.html</t>
+          <t>/news,002203,1241186957.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
+          <t>海亮股份：前三季度营收同比增长16.01%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-31 11:31</t>
+          <t>10-31 14:01</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1240981015.html</t>
+          <t>/news,002203,1241068293.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
+          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-31 10:42</t>
+          <t>10-31 11:31</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1240932054.html</t>
+          <t>/news,002203,1240981015.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
+          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>10-31 10:42</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1240796164.html</t>
+          <t>/news,002203,1240932054.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
+          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-30 23:17</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1240765953.html</t>
+          <t>/news,002203,1240796164.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>515</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
+          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-30 19:01</t>
+          <t>10-30 23:17</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1240738815.html</t>
+          <t>/news,002203,1240765953.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
+          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-30 16:09</t>
+          <t>10-30 19:01</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1240722642.html</t>
+          <t>/news,002203,1240738815.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
+          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-30 15:45</t>
+          <t>10-30 16:09</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1240719401.html</t>
+          <t>/news,002203,1240722642.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
+          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-30 15:38</t>
+          <t>10-30 15:45</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1240718008.html</t>
+          <t>/news,002203,1240719401.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
+          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-30 15:38</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1240714289.html</t>
+          <t>/news,002203,1240718008.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>561</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
+          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1240707038.html</t>
+          <t>/news,002203,1240714289.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>海亮股份10月28日获深股通增持31.72万股</t>
+          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-29 07:48</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1240599628.html</t>
+          <t>/news,002203,1240707038.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
+          <t>海亮股份10月28日获深股通增持31.72万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-28 09:04</t>
+          <t>10-29 07:48</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1240060169.html</t>
+          <t>/news,002203,1240599628.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份10月27日获深股通增持7.69万股</t>
+          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-28 09:04</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1240047226.html</t>
+          <t>/news,002203,1240060169.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
+          <t>海亮股份10月27日获深股通增持7.69万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-27 08:48</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1239505387.html</t>
+          <t>/news,002203,1240047226.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份10月26日被深股通减持10.18万股</t>
+          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-27 07:42</t>
+          <t>10-27 08:48</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1239496073.html</t>
+          <t>/news,002203,1239505387.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
+          <t>海亮股份10月26日被深股通减持10.18万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-26 08:46</t>
+          <t>10-27 07:42</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1238977163.html</t>
+          <t>/news,002203,1239496073.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份10月25日获深股通增持32.12万股</t>
+          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-26 07:47</t>
+          <t>10-26 08:46</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1238968262.html</t>
+          <t>/news,002203,1238977163.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
+          <t>海亮股份10月25日获深股通增持32.12万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-25 08:47</t>
+          <t>10-26 07:47</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1238457077.html</t>
+          <t>/news,002203,1238968262.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海亮股份10月24日获深股通增持14.88万股</t>
+          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-25 07:42</t>
+          <t>10-25 08:47</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1238446612.html</t>
+          <t>/news,002203,1238457077.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
+          <t>海亮股份10月24日获深股通增持14.88万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-24 18:00</t>
+          <t>10-25 07:42</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1238323615.html</t>
+          <t>/news,002203,1238446612.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
+          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-24 08:57</t>
+          <t>10-24 18:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1237923033.html</t>
+          <t>/news,002203,1238323615.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
+          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-24 08:57</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1237864690.html</t>
+          <t>/news,002203,1237923033.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加445.01万元，居有色金属板块第七</t>
+          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-23 15:07</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1237860223.html</t>
+          <t>/news,002203,1237864690.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>103</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
+          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-21 14:00</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1249114151.html</t>
+          <t>/news,002203,1249355580.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>108</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份11月21日获深股通增持13.24万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-21 10:57</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1249017367.html</t>
+          <t>/news,002203,1249347600.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>689</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
+          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-21 10:09</t>
+          <t>11-21 14:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1249059951.html</t>
+          <t>/news,002203,1249114151.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
+          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,51 +573,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-21 08:42</t>
+          <t>11-21 10:57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1248870718.html</t>
+          <t>/news,002203,1249017367.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
+          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-21 10:09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1248769900.html</t>
+          <t>/news,002203,1249059951.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,103 +627,103 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
+          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1248763121.html</t>
+          <t>/news,002203,1248870718.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海亮股份11月18日获深股通增持12.96万股</t>
+          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-19 07:47</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1248637816.html</t>
+          <t>/news,002203,1248769900.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-18 18:06</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1248552209.html</t>
+          <t>/news,002203,1248763121.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
+          <t>海亮股份11月18日获深股通增持12.96万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-19 07:47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1248512763.html</t>
+          <t>/news,002203,1248637816.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>817</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
+          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-18 18:06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1248512666.html</t>
+          <t>/news,002203,1248552209.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>507</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
+          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -802,24 +802,24 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1248512327.html</t>
+          <t>/news,002203,1248512763.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
+          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1248162901.html</t>
+          <t>/news,002203,1248512666.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
+          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-17 18:01</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1248042520.html</t>
+          <t>/news,002203,1248512327.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
+          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-17 08:41</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1247674915.html</t>
+          <t>/news,002203,1248162901.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海亮股份11月16日被深股通减持54.02万股</t>
+          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-17 07:33</t>
+          <t>11-17 18:01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1247664706.html</t>
+          <t>/news,002203,1248042520.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
+          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-16 18:01</t>
+          <t>11-17 08:41</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1247541531.html</t>
+          <t>/news,002203,1247674915.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
+          <t>海亮股份11月16日被深股通减持54.02万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-16 14:08</t>
+          <t>11-17 07:33</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1247446516.html</t>
+          <t>/news,002203,1247664706.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
+          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-16 08:41</t>
+          <t>11-16 18:01</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1247182099.html</t>
+          <t>/news,002203,1247541531.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>705</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份11月15日被深股通减持42.2万股</t>
+          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-16 07:46</t>
+          <t>11-16 14:08</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1247174778.html</t>
+          <t>/news,002203,1247446516.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-15 16:32</t>
+          <t>11-16 08:41</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1247048599.html</t>
+          <t>/news,002203,1247182099.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
+          <t>海亮股份11月15日被深股通减持42.2万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-15 08:46</t>
+          <t>11-16 07:46</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1246697605.html</t>
+          <t>/news,002203,1247174778.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>802</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份11月14日获深股通增持20.87万股</t>
+          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-15 07:48</t>
+          <t>11-15 16:32</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1246689780.html</t>
+          <t>/news,002203,1247048599.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-15 08:46</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1246198626.html</t>
+          <t>/news,002203,1246697605.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份11月14日获深股通增持20.87万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-15 07:48</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1246196435.html</t>
+          <t>/news,002203,1246689780.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1246101667.html</t>
+          <t>/news,002203,1246198626.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-13 14:13</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1246094933.html</t>
+          <t>/news,002203,1246196435.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,61 +1299,61 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份11月11日被深股通减持56.81万股</t>
+          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1245986384.html</t>
+          <t>/news,002203,1246101667.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
+          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-12 00:09</t>
+          <t>11-13 14:13</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1246096434.html</t>
+          <t>/news,002203,1246094933.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
+          <t>海亮股份11月11日被深股通减持56.81万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-11 18:28</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1245898758.html</t>
+          <t>/news,002203,1245986384.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
+          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-11 08:41</t>
+          <t>11-12 00:09</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1245422348.html</t>
+          <t>/news,002203,1246096434.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>694</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>海亮股份11月10日被深股通减持28.27万股</t>
+          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-11 07:54</t>
+          <t>11-11 18:28</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1245413580.html</t>
+          <t>/news,002203,1245898758.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
+          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-11 08:41</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1245274801.html</t>
+          <t>/news,002203,1245422348.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
+          <t>海亮股份11月10日被深股通减持28.27万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-11 07:54</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1244898603.html</t>
+          <t>/news,002203,1245413580.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海亮股份11月09日被深股通减持77.83万股</t>
+          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,51 +1533,51 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1244892219.html</t>
+          <t>/news,002203,1245274801.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
+          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-09 09:01</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1244438992.html</t>
+          <t>/news,002203,1244898603.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
+          <t>海亮股份11月09日被深股通减持77.83万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,51 +1597,51 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-09 08:47</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1244435978.html</t>
+          <t>/news,002203,1244892219.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海亮股份11月08日被深股通减持11.21万股</t>
+          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-09 09:01</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1244425901.html</t>
+          <t>/news,002203,1244438992.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
+          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-08 08:45</t>
+          <t>11-09 08:47</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1243982408.html</t>
+          <t>/news,002203,1244435978.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海亮股份11月07日获深股通增持70.03万股</t>
+          <t>海亮股份11月08日被深股通减持11.21万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-08 07:41</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1243972851.html</t>
+          <t>/news,002203,1244425901.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
+          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-08 08:45</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1243512300.html</t>
+          <t>/news,002203,1243982408.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海亮股份：接受华福证券等机构调研</t>
+          <t>海亮股份11月07日获深股通增持70.03万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-07 06:29</t>
+          <t>11-08 07:41</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1243503533.html</t>
+          <t>/news,002203,1243972851.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
+          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-06 15:09</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1243411409.html</t>
+          <t>/news,002203,1243512300.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>684</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
+          <t>海亮股份：接受华福证券等机构调研</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 06:29</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1243404984.html</t>
+          <t>/news,002203,1243503533.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海亮股份11月04日被深股通减持3.02万股</t>
+          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-06 15:09</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1243317851.html</t>
+          <t>/news,002203,1243411409.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
+          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1243229307.html</t>
+          <t>/news,002203,1243404984.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
+          <t>海亮股份11月04日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-04 08:46</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1242825348.html</t>
+          <t>/news,002203,1243317851.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份11月03日被深股通减持24.45万股</t>
+          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-04 07:45</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1242816307.html</t>
+          <t>/news,002203,1243229307.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
+          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-03 08:50</t>
+          <t>11-04 08:46</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1242333917.html</t>
+          <t>/news,002203,1242825348.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份11月02日被深股通减持37万股</t>
+          <t>海亮股份11月03日被深股通减持24.45万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-03 07:53</t>
+          <t>11-04 07:45</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1242326027.html</t>
+          <t>/news,002203,1242816307.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
+          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-02 08:50</t>
+          <t>11-03 08:50</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1241809291.html</t>
+          <t>/news,002203,1242333917.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份11月01日被深股通减持93.33万股</t>
+          <t>海亮股份11月02日被深股通减持37万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-02 07:53</t>
+          <t>11-03 07:53</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1241801731.html</t>
+          <t>/news,002203,1242326027.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
+          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-01 19:38</t>
+          <t>11-02 08:50</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1241692171.html</t>
+          <t>/news,002203,1241809291.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
+          <t>海亮股份11月01日被深股通减持93.33万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-01 08:53</t>
+          <t>11-02 07:53</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1241305030.html</t>
+          <t>/news,002203,1241801731.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>499</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,39 +2163,39 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份10月31日被深股通减持33万股</t>
+          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-01 07:45</t>
+          <t>11-01 19:38</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1241295775.html</t>
+          <t>/news,002203,1241692171.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
+          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-01 08:53</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1241260925.html</t>
+          <t>/news,002203,1241305030.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,39 +2227,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
+          <t>海亮股份10月31日被深股通减持33万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-31 21:52</t>
+          <t>11-01 07:45</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1241248353.html</t>
+          <t>/news,002203,1241295775.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
+          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-31 18:32</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1241186957.html</t>
+          <t>/news,002203,1241260925.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01%</t>
+          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-31 14:01</t>
+          <t>10-31 21:52</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1241068293.html</t>
+          <t>/news,002203,1241248353.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
+          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-31 11:31</t>
+          <t>10-31 18:32</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1240981015.html</t>
+          <t>/news,002203,1241186957.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
+          <t>海亮股份：前三季度营收同比增长16.01%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-31 10:42</t>
+          <t>10-31 14:01</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1240932054.html</t>
+          <t>/news,002203,1241068293.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
+          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>10-31 11:31</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1240796164.html</t>
+          <t>/news,002203,1240981015.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
+          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-30 23:17</t>
+          <t>10-31 10:42</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1240765953.html</t>
+          <t>/news,002203,1240932054.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
+          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-30 19:01</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1240738815.html</t>
+          <t>/news,002203,1240796164.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
+          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-30 16:09</t>
+          <t>10-30 23:17</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1240722642.html</t>
+          <t>/news,002203,1240765953.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
+          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-30 15:45</t>
+          <t>10-30 19:01</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1240719401.html</t>
+          <t>/news,002203,1240738815.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
+          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-30 15:38</t>
+          <t>10-30 16:09</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1240718008.html</t>
+          <t>/news,002203,1240722642.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
+          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-30 15:45</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1240714289.html</t>
+          <t>/news,002203,1240719401.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>668</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
+          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 15:38</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1240707038.html</t>
+          <t>/news,002203,1240718008.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份10月28日获深股通增持31.72万股</t>
+          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-29 07:48</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1240599628.html</t>
+          <t>/news,002203,1240714289.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
+          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-28 09:04</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1240060169.html</t>
+          <t>/news,002203,1240707038.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海亮股份10月27日获深股通增持7.69万股</t>
+          <t>海亮股份10月28日获深股通增持31.72万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-29 07:48</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1240047226.html</t>
+          <t>/news,002203,1240599628.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
+          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-27 08:48</t>
+          <t>10-28 09:04</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1239505387.html</t>
+          <t>/news,002203,1240060169.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海亮股份10月26日被深股通减持10.18万股</t>
+          <t>海亮股份10月27日获深股通增持7.69万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-27 07:42</t>
+          <t>10-28 07:45</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1239496073.html</t>
+          <t>/news,002203,1240047226.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
+          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-26 08:46</t>
+          <t>10-27 08:48</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1238977163.html</t>
+          <t>/news,002203,1239505387.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>海亮股份10月25日获深股通增持32.12万股</t>
+          <t>海亮股份10月26日被深股通减持10.18万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-26 07:47</t>
+          <t>10-27 07:42</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1238968262.html</t>
+          <t>/news,002203,1239496073.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
+          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-25 08:47</t>
+          <t>10-26 08:46</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1238457077.html</t>
+          <t>/news,002203,1238977163.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海亮股份10月24日获深股通增持14.88万股</t>
+          <t>海亮股份10月25日获深股通增持32.12万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-25 07:42</t>
+          <t>10-26 07:47</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1238446612.html</t>
+          <t>/news,002203,1238968262.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
+          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-24 18:00</t>
+          <t>10-25 08:47</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1238323615.html</t>
+          <t>/news,002203,1238457077.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入419.49万元，融资余额13.74亿元（10-21）</t>
+          <t>海亮股份10月24日获深股通增持14.88万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-24 08:57</t>
+          <t>10-25 07:42</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1237923033.html</t>
+          <t>/news,002203,1238446612.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>海亮股份连续4周融资净买入合计7349.79万元</t>
+          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-23 15:07</t>
+          <t>10-24 18:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1237864690.html</t>
+          <t>/news,002203,1238323615.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
+          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-23 08:39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1249355580.html</t>
+          <t>/news,002203,1249882116.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份11月21日获深股通增持13.24万股</t>
+          <t>海亮股份11月22日被深股通减持29.7万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-23 07:46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1249347600.html</t>
+          <t>/news,002203,1249874729.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>914</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
+          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-21 14:00</t>
+          <t>11-23 00:13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1249114151.html</t>
+          <t>/news,002203,1249828364.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>753</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-21 10:57</t>
+          <t>11-22 18:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1249017367.html</t>
+          <t>/news,002203,1249733803.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
+          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-21 10:09</t>
+          <t>11-22 18:01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1249059951.html</t>
+          <t>/news,002203,1249727743.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
+          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,51 +637,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-21 08:42</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1248870718.html</t>
+          <t>/news,002203,1249708456.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>751</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
+          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1248769900.html</t>
+          <t>/news,002203,1249708280.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
+          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1248763121.html</t>
+          <t>/news,002203,1249708150.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海亮股份11月18日获深股通增持12.96万股</t>
+          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-19 07:47</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1248637816.html</t>
+          <t>/news,002203,1249355580.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>海亮股份11月21日获深股通增持13.24万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-18 18:06</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1248552209.html</t>
+          <t>/news,002203,1249347600.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>752</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
+          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-21 14:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1248512763.html</t>
+          <t>/news,002203,1249114151.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
+          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-21 10:57</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1248512666.html</t>
+          <t>/news,002203,1249017367.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
+          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-21 10:09</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1248512327.html</t>
+          <t>/news,002203,1249059951.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
+          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-21 08:42</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1248162901.html</t>
+          <t>/news,002203,1248870718.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
+          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-17 18:01</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1248042520.html</t>
+          <t>/news,002203,1248769900.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
+          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-17 08:41</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1247674915.html</t>
+          <t>/news,002203,1248763121.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份11月16日被深股通减持54.02万股</t>
+          <t>海亮股份11月18日获深股通增持12.96万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-17 07:33</t>
+          <t>11-19 07:47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1247664706.html</t>
+          <t>/news,002203,1248637816.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>840</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
+          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-16 18:01</t>
+          <t>11-18 18:06</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1247541531.html</t>
+          <t>/news,002203,1248552209.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
+          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-16 14:08</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1247446516.html</t>
+          <t>/news,002203,1248512763.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
+          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-16 08:41</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1247182099.html</t>
+          <t>/news,002203,1248512666.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海亮股份11月15日被深股通减持42.2万股</t>
+          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-16 07:46</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1247174778.html</t>
+          <t>/news,002203,1248512327.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-15 16:32</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1247048599.html</t>
+          <t>/news,002203,1248162901.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
+          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-15 08:46</t>
+          <t>11-17 18:01</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1246697605.html</t>
+          <t>/news,002203,1248042520.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海亮股份11月14日获深股通增持20.87万股</t>
+          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-15 07:48</t>
+          <t>11-17 08:41</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1246689780.html</t>
+          <t>/news,002203,1247674915.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份11月16日被深股通减持54.02万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-17 07:33</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1246198626.html</t>
+          <t>/news,002203,1247664706.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-16 18:01</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1246196435.html</t>
+          <t>/news,002203,1247541531.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>709</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
+          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-16 14:08</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1246101667.html</t>
+          <t>/news,002203,1247446516.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
+          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-13 14:13</t>
+          <t>11-16 08:41</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1246094933.html</t>
+          <t>/news,002203,1247182099.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>海亮股份11月11日被深股通减持56.81万股</t>
+          <t>海亮股份11月15日被深股通减持42.2万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-16 07:46</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1245986384.html</t>
+          <t>/news,002203,1247174778.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>808</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
+          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-12 00:09</t>
+          <t>11-15 16:32</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1246096434.html</t>
+          <t>/news,002203,1247048599.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
+          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-11 18:28</t>
+          <t>11-15 08:46</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1245898758.html</t>
+          <t>/news,002203,1246697605.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
+          <t>海亮股份11月14日获深股通增持20.87万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-11 08:41</t>
+          <t>11-15 07:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1245422348.html</t>
+          <t>/news,002203,1246689780.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份11月10日被深股通减持28.27万股</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-11 07:54</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1245413580.html</t>
+          <t>/news,002203,1246198626.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1245274801.html</t>
+          <t>/news,002203,1246196435.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
+          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1244898603.html</t>
+          <t>/news,002203,1246101667.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,71 +1587,71 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份11月09日被深股通减持77.83万股</t>
+          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-13 14:13</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1244892219.html</t>
+          <t>/news,002203,1246094933.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
+          <t>海亮股份11月11日被深股通减持56.81万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-09 09:01</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1244438992.html</t>
+          <t>/news,002203,1245986384.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
+          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-09 08:47</t>
+          <t>11-12 00:09</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1244435978.html</t>
+          <t>/news,002203,1246096434.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>695</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海亮股份11月08日被深股通减持11.21万股</t>
+          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-11 18:28</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1244425901.html</t>
+          <t>/news,002203,1245898758.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
+          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-08 08:45</t>
+          <t>11-11 08:41</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1243982408.html</t>
+          <t>/news,002203,1245422348.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海亮股份11月07日获深股通增持70.03万股</t>
+          <t>海亮股份11月10日被深股通减持28.27万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-08 07:41</t>
+          <t>11-11 07:54</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1243972851.html</t>
+          <t>/news,002203,1245413580.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
+          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1243512300.html</t>
+          <t>/news,002203,1245274801.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份：接受华福证券等机构调研</t>
+          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-07 06:29</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1243503533.html</t>
+          <t>/news,002203,1244898603.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,61 +1843,61 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
+          <t>海亮股份11月09日被深股通减持77.83万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-06 15:09</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1243411409.html</t>
+          <t>/news,002203,1244892219.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
+          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-09 09:01</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1243404984.html</t>
+          <t>/news,002203,1244438992.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份11月04日被深股通减持3.02万股</t>
+          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-09 08:47</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1243317851.html</t>
+          <t>/news,002203,1244435978.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
+          <t>海亮股份11月08日被深股通减持11.21万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1243229307.html</t>
+          <t>/news,002203,1244425901.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
+          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-04 08:46</t>
+          <t>11-08 08:45</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1242825348.html</t>
+          <t>/news,002203,1243982408.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份11月03日被深股通减持24.45万股</t>
+          <t>海亮股份11月07日获深股通增持70.03万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-04 07:45</t>
+          <t>11-08 07:41</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1242816307.html</t>
+          <t>/news,002203,1243972851.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
+          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-03 08:50</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1242333917.html</t>
+          <t>/news,002203,1243512300.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份11月02日被深股通减持37万股</t>
+          <t>海亮股份：接受华福证券等机构调研</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-03 07:53</t>
+          <t>11-07 06:29</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1242326027.html</t>
+          <t>/news,002203,1243503533.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
+          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-02 08:50</t>
+          <t>11-06 15:09</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1241809291.html</t>
+          <t>/news,002203,1243411409.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份11月01日被深股通减持93.33万股</t>
+          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-02 07:53</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1241801731.html</t>
+          <t>/news,002203,1243404984.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
+          <t>海亮股份11月04日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-01 19:38</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1241692171.html</t>
+          <t>/news,002203,1243317851.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
+          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-01 08:53</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1241305030.html</t>
+          <t>/news,002203,1243229307.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份10月31日被深股通减持33万股</t>
+          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-01 07:45</t>
+          <t>11-04 08:46</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1241295775.html</t>
+          <t>/news,002203,1242825348.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
+          <t>海亮股份11月03日被深股通减持24.45万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-04 07:45</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1241260925.html</t>
+          <t>/news,002203,1242816307.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
+          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-31 21:52</t>
+          <t>11-03 08:50</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1241248353.html</t>
+          <t>/news,002203,1242333917.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
+          <t>海亮股份11月02日被深股通减持37万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-31 18:32</t>
+          <t>11-03 07:53</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1241186957.html</t>
+          <t>/news,002203,1242326027.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01%</t>
+          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-31 14:01</t>
+          <t>11-02 08:50</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1241068293.html</t>
+          <t>/news,002203,1241809291.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
+          <t>海亮股份11月01日被深股通减持93.33万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-31 11:31</t>
+          <t>11-02 07:53</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1240981015.html</t>
+          <t>/news,002203,1241801731.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
+          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-31 10:42</t>
+          <t>11-01 19:38</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1240932054.html</t>
+          <t>/news,002203,1241692171.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
+          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 08:53</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1240796164.html</t>
+          <t>/news,002203,1241305030.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
+          <t>海亮股份10月31日被深股通减持33万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-30 23:17</t>
+          <t>11-01 07:45</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1240765953.html</t>
+          <t>/news,002203,1241295775.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>676</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
+          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-30 19:01</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1240738815.html</t>
+          <t>/news,002203,1241260925.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
+          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-30 16:09</t>
+          <t>10-31 21:52</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1240722642.html</t>
+          <t>/news,002203,1241248353.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
+          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-30 15:45</t>
+          <t>10-31 18:32</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1240719401.html</t>
+          <t>/news,002203,1241186957.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
+          <t>海亮股份：前三季度营收同比增长16.01%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-30 15:38</t>
+          <t>10-31 14:01</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1240718008.html</t>
+          <t>/news,002203,1241068293.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
+          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-31 11:31</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1240714289.html</t>
+          <t>/news,002203,1240981015.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
+          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-31 10:42</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1240707038.html</t>
+          <t>/news,002203,1240932054.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海亮股份10月28日获深股通增持31.72万股</t>
+          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-29 07:48</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1240599628.html</t>
+          <t>/news,002203,1240796164.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
+          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-28 09:04</t>
+          <t>10-30 23:17</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1240060169.html</t>
+          <t>/news,002203,1240765953.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海亮股份10月27日获深股通增持7.69万股</t>
+          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-28 07:45</t>
+          <t>10-30 19:01</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1240047226.html</t>
+          <t>/news,002203,1240738815.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还65.49万元，融资余额13.58亿元（10-26）</t>
+          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-27 08:48</t>
+          <t>10-30 16:09</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1239505387.html</t>
+          <t>/news,002203,1240722642.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>海亮股份10月26日被深股通减持10.18万股</t>
+          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-27 07:42</t>
+          <t>10-30 15:45</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1239496073.html</t>
+          <t>/news,002203,1240719401.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>669</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入100.96万元，融资余额13.59亿元（10-25）</t>
+          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-26 08:46</t>
+          <t>10-30 15:38</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1238977163.html</t>
+          <t>/news,002203,1240718008.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海亮股份10月25日获深股通增持32.12万股</t>
+          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-26 07:47</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1238968262.html</t>
+          <t>/news,002203,1240714289.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还1616.75万元，融资余额13.58亿元（10-24）</t>
+          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-25 08:47</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1238457077.html</t>
+          <t>/news,002203,1240707038.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份10月24日获深股通增持14.88万股</t>
+          <t>海亮股份10月28日获深股通增持31.72万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-25 07:42</t>
+          <t>10-29 07:48</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1238446612.html</t>
+          <t>/news,002203,1240599628.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1446.48万元（10-24）</t>
+          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-24 18:00</t>
+          <t>10-28 09:04</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1238323615.html</t>
+          <t>/news,002203,1240060169.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>82</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
+          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-23 08:39</t>
+          <t>11-24 08:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1249882116.html</t>
+          <t>/news,002203,1250429394.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份11月22日被深股通减持29.7万股</t>
+          <t>海亮股份11月23日被深股通减持4.21万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-23 07:46</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1249874729.html</t>
+          <t>/news,002203,1250421102.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>914</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
+          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-23 00:13</t>
+          <t>11-23 08:39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1249828364.html</t>
+          <t>/news,002203,1249882116.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
+          <t>海亮股份11月22日被深股通减持29.7万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-22 18:30</t>
+          <t>11-23 07:46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1249733803.html</t>
+          <t>/news,002203,1249874729.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>1132</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
+          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-22 18:01</t>
+          <t>11-23 00:13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1249727743.html</t>
+          <t>/news,002203,1249828364.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>862</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-22 18:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1249708456.html</t>
+          <t>/news,002203,1249733803.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>691</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
+          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-22 18:01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1249708280.html</t>
+          <t>/news,002203,1249727743.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
+          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -706,24 +706,24 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1249708150.html</t>
+          <t>/news,002203,1249708456.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>774</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
+          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1249355580.html</t>
+          <t>/news,002203,1249708280.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份11月21日获深股通增持13.24万股</t>
+          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1249347600.html</t>
+          <t>/news,002203,1249708150.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
+          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-21 14:00</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1249114151.html</t>
+          <t>/news,002203,1249355580.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份11月21日获深股通增持13.24万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-21 10:57</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1249017367.html</t>
+          <t>/news,002203,1249347600.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>764</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
+          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-21 10:09</t>
+          <t>11-21 14:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1249059951.html</t>
+          <t>/news,002203,1249114151.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
+          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,51 +893,51 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-21 08:42</t>
+          <t>11-21 10:57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1248870718.html</t>
+          <t>/news,002203,1249017367.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
+          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-21 10:09</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1248769900.html</t>
+          <t>/news,002203,1249059951.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,103 +947,103 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
+          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:42</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1248763121.html</t>
+          <t>/news,002203,1248870718.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份11月18日获深股通增持12.96万股</t>
+          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-19 07:47</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1248637816.html</t>
+          <t>/news,002203,1248769900.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-18 18:06</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1248552209.html</t>
+          <t>/news,002203,1248763121.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
+          <t>海亮股份11月18日获深股通增持12.96万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-19 07:47</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1248512763.html</t>
+          <t>/news,002203,1248637816.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>842</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
+          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-18 18:06</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1248512666.html</t>
+          <t>/news,002203,1248552209.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
+          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1122,24 +1122,24 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1248512327.html</t>
+          <t>/news,002203,1248512763.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
+          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1248162901.html</t>
+          <t>/news,002203,1248512666.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
+          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-17 18:01</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1248042520.html</t>
+          <t>/news,002203,1248512327.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
+          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-17 08:41</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1247674915.html</t>
+          <t>/news,002203,1248162901.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份11月16日被深股通减持54.02万股</t>
+          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-17 07:33</t>
+          <t>11-17 18:01</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1247664706.html</t>
+          <t>/news,002203,1248042520.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
+          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-16 18:01</t>
+          <t>11-17 08:41</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1247541531.html</t>
+          <t>/news,002203,1247674915.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
+          <t>海亮股份11月16日被深股通减持54.02万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-16 14:08</t>
+          <t>11-17 07:33</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1247446516.html</t>
+          <t>/news,002203,1247664706.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
+          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-16 08:41</t>
+          <t>11-16 18:01</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1247182099.html</t>
+          <t>/news,002203,1247541531.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>714</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>海亮股份11月15日被深股通减持42.2万股</t>
+          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-16 07:46</t>
+          <t>11-16 14:08</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1247174778.html</t>
+          <t>/news,002203,1247446516.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-15 16:32</t>
+          <t>11-16 08:41</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1247048599.html</t>
+          <t>/news,002203,1247182099.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
+          <t>海亮股份11月15日被深股通减持42.2万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-15 08:46</t>
+          <t>11-16 07:46</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1246697605.html</t>
+          <t>/news,002203,1247174778.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>811</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份11月14日获深股通增持20.87万股</t>
+          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-15 07:48</t>
+          <t>11-15 16:32</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1246689780.html</t>
+          <t>/news,002203,1247048599.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-15 08:46</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1246198626.html</t>
+          <t>/news,002203,1246697605.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份11月14日获深股通增持20.87万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-15 07:48</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1246196435.html</t>
+          <t>/news,002203,1246689780.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1246101667.html</t>
+          <t>/news,002203,1246198626.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-13 14:13</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1246094933.html</t>
+          <t>/news,002203,1246196435.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,61 +1619,61 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海亮股份11月11日被深股通减持56.81万股</t>
+          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1245986384.html</t>
+          <t>/news,002203,1246101667.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
+          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-12 00:09</t>
+          <t>11-13 14:13</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1246096434.html</t>
+          <t>/news,002203,1246094933.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
+          <t>海亮股份11月11日被深股通减持56.81万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-11 18:28</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1245898758.html</t>
+          <t>/news,002203,1245986384.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
+          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-11 08:41</t>
+          <t>11-12 00:09</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1245422348.html</t>
+          <t>/news,002203,1246096434.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>695</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海亮股份11月10日被深股通减持28.27万股</t>
+          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-11 07:54</t>
+          <t>11-11 18:28</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1245413580.html</t>
+          <t>/news,002203,1245898758.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
+          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-11 08:41</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1245274801.html</t>
+          <t>/news,002203,1245422348.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
+          <t>海亮股份11月10日被深股通减持28.27万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-11 07:54</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1244898603.html</t>
+          <t>/news,002203,1245413580.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海亮股份11月09日被深股通减持77.83万股</t>
+          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,51 +1853,51 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1244892219.html</t>
+          <t>/news,002203,1245274801.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
+          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-09 09:01</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1244438992.html</t>
+          <t>/news,002203,1244898603.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
+          <t>海亮股份11月09日被深股通减持77.83万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,51 +1917,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-09 08:47</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1244435978.html</t>
+          <t>/news,002203,1244892219.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份11月08日被深股通减持11.21万股</t>
+          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-09 09:01</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1244425901.html</t>
+          <t>/news,002203,1244438992.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
+          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-08 08:45</t>
+          <t>11-09 08:47</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1243982408.html</t>
+          <t>/news,002203,1244435978.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份11月07日获深股通增持70.03万股</t>
+          <t>海亮股份11月08日被深股通减持11.21万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-08 07:41</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1243972851.html</t>
+          <t>/news,002203,1244425901.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
+          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-08 08:45</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1243512300.html</t>
+          <t>/news,002203,1243982408.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份：接受华福证券等机构调研</t>
+          <t>海亮股份11月07日获深股通增持70.03万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-07 06:29</t>
+          <t>11-08 07:41</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1243503533.html</t>
+          <t>/news,002203,1243972851.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
+          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-06 15:09</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1243411409.html</t>
+          <t>/news,002203,1243512300.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>687</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
+          <t>海亮股份：接受华福证券等机构调研</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 06:29</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1243404984.html</t>
+          <t>/news,002203,1243503533.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份11月04日被深股通减持3.02万股</t>
+          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-06 15:09</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1243317851.html</t>
+          <t>/news,002203,1243411409.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
+          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1243229307.html</t>
+          <t>/news,002203,1243404984.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
+          <t>海亮股份11月04日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-04 08:46</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1242825348.html</t>
+          <t>/news,002203,1243317851.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>海亮股份11月03日被深股通减持24.45万股</t>
+          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-04 07:45</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1242816307.html</t>
+          <t>/news,002203,1243229307.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
+          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-03 08:50</t>
+          <t>11-04 08:46</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1242333917.html</t>
+          <t>/news,002203,1242825348.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份11月02日被深股通减持37万股</t>
+          <t>海亮股份11月03日被深股通减持24.45万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-03 07:53</t>
+          <t>11-04 07:45</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1242326027.html</t>
+          <t>/news,002203,1242816307.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
+          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-02 08:50</t>
+          <t>11-03 08:50</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1241809291.html</t>
+          <t>/news,002203,1242333917.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份11月01日被深股通减持93.33万股</t>
+          <t>海亮股份11月02日被深股通减持37万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-02 07:53</t>
+          <t>11-03 07:53</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1241801731.html</t>
+          <t>/news,002203,1242326027.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
+          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-01 19:38</t>
+          <t>11-02 08:50</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1241692171.html</t>
+          <t>/news,002203,1241809291.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
+          <t>海亮股份11月01日被深股通减持93.33万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-01 08:53</t>
+          <t>11-02 07:53</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1241305030.html</t>
+          <t>/news,002203,1241801731.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海亮股份10月31日被深股通减持33万股</t>
+          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-01 07:45</t>
+          <t>11-01 19:38</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1241295775.html</t>
+          <t>/news,002203,1241692171.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
+          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-01 08:53</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1241260925.html</t>
+          <t>/news,002203,1241305030.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,39 +2547,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
+          <t>海亮股份10月31日被深股通减持33万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-31 21:52</t>
+          <t>11-01 07:45</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1241248353.html</t>
+          <t>/news,002203,1241295775.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>677</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
+          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-31 18:32</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1241186957.html</t>
+          <t>/news,002203,1241260925.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01%</t>
+          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-31 14:01</t>
+          <t>10-31 21:52</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1241068293.html</t>
+          <t>/news,002203,1241248353.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
+          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-31 11:31</t>
+          <t>10-31 18:32</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1240981015.html</t>
+          <t>/news,002203,1241186957.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
+          <t>海亮股份：前三季度营收同比增长16.01%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-31 10:42</t>
+          <t>10-31 14:01</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1240932054.html</t>
+          <t>/news,002203,1241068293.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
+          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>10-31 11:31</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1240796164.html</t>
+          <t>/news,002203,1240981015.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
+          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-30 23:17</t>
+          <t>10-31 10:42</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1240765953.html</t>
+          <t>/news,002203,1240932054.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
+          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-30 19:01</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1240738815.html</t>
+          <t>/news,002203,1240796164.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
+          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-30 16:09</t>
+          <t>10-30 23:17</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1240722642.html</t>
+          <t>/news,002203,1240765953.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
+          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-30 15:45</t>
+          <t>10-30 19:01</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1240719401.html</t>
+          <t>/news,002203,1240738815.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
+          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-30 15:38</t>
+          <t>10-30 16:09</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1240718008.html</t>
+          <t>/news,002203,1240722642.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
+          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-30 15:45</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1240714289.html</t>
+          <t>/news,002203,1240719401.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>669</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
+          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 15:38</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1240707038.html</t>
+          <t>/news,002203,1240718008.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份10月28日获深股通增持31.72万股</t>
+          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-29 07:48</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1240599628.html</t>
+          <t>/news,002203,1240714289.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入108.25万元，融资余额13.59亿元（10-27）</t>
+          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-28 09:04</t>
+          <t>10-30 14:06</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1240060169.html</t>
+          <t>/news,002203,1240707038.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>87</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
+          <t>海亮股份：融资净偿还401.78万元，融资余额14.11亿元（11-24）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-24 08:51</t>
+          <t>11-25 08:44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1250429394.html</t>
+          <t>/news,002203,1250950068.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>111</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份11月23日被深股通减持4.21万股</t>
+          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-24 07:55</t>
+          <t>11-24 08:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1250421102.html</t>
+          <t>/news,002203,1250429394.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
+          <t>海亮股份11月23日被深股通减持4.21万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-23 08:39</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1249882116.html</t>
+          <t>/news,002203,1250421102.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份11月22日被深股通减持29.7万股</t>
+          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-23 07:46</t>
+          <t>11-23 08:39</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1249874729.html</t>
+          <t>/news,002203,1249882116.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1132</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
+          <t>海亮股份11月22日被深股通减持29.7万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-23 00:13</t>
+          <t>11-23 07:46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1249828364.html</t>
+          <t>/news,002203,1249874729.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>1261</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
+          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-22 18:30</t>
+          <t>11-23 00:13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1249733803.html</t>
+          <t>/news,002203,1249828364.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>902</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
+          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-22 18:01</t>
+          <t>11-22 18:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1249727743.html</t>
+          <t>/news,002203,1249733803.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>744</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-22 18:01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1249708456.html</t>
+          <t>/news,002203,1249727743.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>729</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
+          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -738,24 +738,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1249708280.html</t>
+          <t>/news,002203,1249708456.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>788</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
+          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -770,14 +770,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1249708150.html</t>
+          <t>/news,002203,1249708280.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
+          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1249355580.html</t>
+          <t>/news,002203,1249708150.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海亮股份11月21日获深股通增持13.24万股</t>
+          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1249347600.html</t>
+          <t>/news,002203,1249355580.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
+          <t>海亮股份11月21日获深股通增持13.24万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-21 14:00</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1249114151.html</t>
+          <t>/news,002203,1249347600.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>781</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-21 10:57</t>
+          <t>11-21 14:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1249017367.html</t>
+          <t>/news,002203,1249114151.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
+          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-21 10:09</t>
+          <t>11-21 10:57</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1249059951.html</t>
+          <t>/news,002203,1249017367.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
+          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,83 +957,83 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-21 08:42</t>
+          <t>11-21 10:09</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1248870718.html</t>
+          <t>/news,002203,1249059951.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
+          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-21 08:42</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1248769900.html</t>
+          <t>/news,002203,1248870718.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
+          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1248763121.html</t>
+          <t>/news,002203,1248769900.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,39 +1043,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份11月18日获深股通增持12.96万股</t>
+          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-19 07:47</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1248637816.html</t>
+          <t>/news,002203,1248763121.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>海亮股份11月18日获深股通增持12.96万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-18 18:06</t>
+          <t>11-19 07:47</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1248552209.html</t>
+          <t>/news,002203,1248637816.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>843</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
+          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-18 18:06</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1248512763.html</t>
+          <t>/news,002203,1248552209.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
+          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1154,24 +1154,24 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1248512666.html</t>
+          <t>/news,002203,1248512763.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
+          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1186,14 +1186,14 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1248512327.html</t>
+          <t>/news,002203,1248512666.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
+          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1248162901.html</t>
+          <t>/news,002203,1248512327.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
+          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-17 18:01</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1248042520.html</t>
+          <t>/news,002203,1248162901.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
+          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-17 08:41</t>
+          <t>11-17 18:01</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1247674915.html</t>
+          <t>/news,002203,1248042520.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份11月16日被深股通减持54.02万股</t>
+          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-17 07:33</t>
+          <t>11-17 08:41</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1247664706.html</t>
+          <t>/news,002203,1247674915.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
+          <t>海亮股份11月16日被深股通减持54.02万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-16 18:01</t>
+          <t>11-17 07:33</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1247541531.html</t>
+          <t>/news,002203,1247664706.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>473</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
+          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-16 14:08</t>
+          <t>11-16 18:01</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1247446516.html</t>
+          <t>/news,002203,1247541531.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>716</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
+          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-16 08:41</t>
+          <t>11-16 14:08</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1247182099.html</t>
+          <t>/news,002203,1247446516.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>海亮股份11月15日被深股通减持42.2万股</t>
+          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-16 07:46</t>
+          <t>11-16 08:41</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1247174778.html</t>
+          <t>/news,002203,1247182099.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份11月15日被深股通减持42.2万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-15 16:32</t>
+          <t>11-16 07:46</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1247048599.html</t>
+          <t>/news,002203,1247174778.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>814</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
+          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-15 08:46</t>
+          <t>11-15 16:32</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1246697605.html</t>
+          <t>/news,002203,1247048599.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海亮股份11月14日获深股通增持20.87万股</t>
+          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-15 07:48</t>
+          <t>11-15 08:46</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1246689780.html</t>
+          <t>/news,002203,1246697605.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份11月14日获深股通增持20.87万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-15 07:48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1246198626.html</t>
+          <t>/news,002203,1246689780.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1246196435.html</t>
+          <t>/news,002203,1246198626.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1246101667.html</t>
+          <t>/news,002203,1246196435.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
+          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-13 14:13</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1246094933.html</t>
+          <t>/news,002203,1246101667.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,39 +1683,39 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海亮股份11月11日被深股通减持56.81万股</t>
+          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-13 14:13</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1245986384.html</t>
+          <t>/news,002203,1246094933.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
+          <t>海亮股份11月11日被深股通减持56.81万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-12 00:09</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1246096434.html</t>
+          <t>/news,002203,1245986384.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
+          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-11 18:28</t>
+          <t>11-12 00:09</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1245898758.html</t>
+          <t>/news,002203,1246096434.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>696</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
+          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-11 08:41</t>
+          <t>11-11 18:28</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1245422348.html</t>
+          <t>/news,002203,1245898758.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份11月10日被深股通减持28.27万股</t>
+          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-11 07:54</t>
+          <t>11-11 08:41</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1245413580.html</t>
+          <t>/news,002203,1245422348.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
+          <t>海亮股份11月10日被深股通减持28.27万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-11 07:54</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1245274801.html</t>
+          <t>/news,002203,1245413580.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
+          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1244898603.html</t>
+          <t>/news,002203,1245274801.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份11月09日被深股通减持77.83万股</t>
+          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,83 +1917,83 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1244892219.html</t>
+          <t>/news,002203,1244898603.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
+          <t>海亮股份11月09日被深股通减持77.83万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-09 09:01</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1244438992.html</t>
+          <t>/news,002203,1244892219.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>561</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
+          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-09 08:47</t>
+          <t>11-09 09:01</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1244435978.html</t>
+          <t>/news,002203,1244438992.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份11月08日被深股通减持11.21万股</t>
+          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-09 08:47</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1244425901.html</t>
+          <t>/news,002203,1244435978.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
+          <t>海亮股份11月08日被深股通减持11.21万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-08 08:45</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1243982408.html</t>
+          <t>/news,002203,1244425901.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份11月07日获深股通增持70.03万股</t>
+          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-08 07:41</t>
+          <t>11-08 08:45</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1243972851.html</t>
+          <t>/news,002203,1243982408.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
+          <t>海亮股份11月07日获深股通增持70.03万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-08 07:41</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1243512300.html</t>
+          <t>/news,002203,1243972851.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份：接受华福证券等机构调研</t>
+          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-07 06:29</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1243503533.html</t>
+          <t>/news,002203,1243512300.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>688</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
+          <t>海亮股份：接受华福证券等机构调研</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-06 15:09</t>
+          <t>11-07 06:29</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1243411409.html</t>
+          <t>/news,002203,1243503533.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
+          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-06 15:09</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1243404984.html</t>
+          <t>/news,002203,1243411409.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份11月04日被深股通减持3.02万股</t>
+          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1243317851.html</t>
+          <t>/news,002203,1243404984.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
+          <t>海亮股份11月04日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1243229307.html</t>
+          <t>/news,002203,1243317851.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
+          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-04 08:46</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1242825348.html</t>
+          <t>/news,002203,1243229307.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份11月03日被深股通减持24.45万股</t>
+          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-04 07:45</t>
+          <t>11-04 08:46</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1242816307.html</t>
+          <t>/news,002203,1242825348.html</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
+          <t>海亮股份11月03日被深股通减持24.45万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-03 08:50</t>
+          <t>11-04 07:45</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1242333917.html</t>
+          <t>/news,002203,1242816307.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份11月02日被深股通减持37万股</t>
+          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-03 07:53</t>
+          <t>11-03 08:50</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1242326027.html</t>
+          <t>/news,002203,1242333917.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
+          <t>海亮股份11月02日被深股通减持37万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-02 08:50</t>
+          <t>11-03 07:53</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1241809291.html</t>
+          <t>/news,002203,1242326027.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海亮股份11月01日被深股通减持93.33万股</t>
+          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-02 07:53</t>
+          <t>11-02 08:50</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1241801731.html</t>
+          <t>/news,002203,1241809291.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
+          <t>海亮股份11月01日被深股通减持93.33万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-01 19:38</t>
+          <t>11-02 07:53</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1241692171.html</t>
+          <t>/news,002203,1241801731.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
+          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-01 08:53</t>
+          <t>11-01 19:38</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1241305030.html</t>
+          <t>/news,002203,1241692171.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份10月31日被深股通减持33万股</t>
+          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-01 07:45</t>
+          <t>11-01 08:53</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1241295775.html</t>
+          <t>/news,002203,1241305030.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
+          <t>海亮股份10月31日被深股通减持33万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-01 07:45</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1241260925.html</t>
+          <t>/news,002203,1241295775.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>678</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
+          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-31 21:52</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1241248353.html</t>
+          <t>/news,002203,1241260925.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
+          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-31 18:32</t>
+          <t>10-31 21:52</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1241186957.html</t>
+          <t>/news,002203,1241248353.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01%</t>
+          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-31 14:01</t>
+          <t>10-31 18:32</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1241068293.html</t>
+          <t>/news,002203,1241186957.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
+          <t>海亮股份：前三季度营收同比增长16.01%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-31 11:31</t>
+          <t>10-31 14:01</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1240981015.html</t>
+          <t>/news,002203,1241068293.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
+          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-31 10:42</t>
+          <t>10-31 11:31</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1240932054.html</t>
+          <t>/news,002203,1240981015.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
+          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>10-31 10:42</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1240796164.html</t>
+          <t>/news,002203,1240932054.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
+          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-30 23:17</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1240765953.html</t>
+          <t>/news,002203,1240796164.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
+          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-30 19:01</t>
+          <t>10-30 23:17</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1240738815.html</t>
+          <t>/news,002203,1240765953.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
+          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-30 16:09</t>
+          <t>10-30 19:01</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1240722642.html</t>
+          <t>/news,002203,1240738815.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
+          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-30 15:45</t>
+          <t>10-30 16:09</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1240719401.html</t>
+          <t>/news,002203,1240722642.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
+          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-30 15:38</t>
+          <t>10-30 15:45</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1240718008.html</t>
+          <t>/news,002203,1240719401.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>669</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
+          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>10-30 15:38</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1240714289.html</t>
+          <t>/news,002203,1240718008.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>深股通连续4周净买入海亮股份 累计净买入2315.85万元</t>
+          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-30 14:06</t>
+          <t>10-30 15:14</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1240707038.html</t>
+          <t>/news,002203,1240714289.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>107</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还401.78万元，融资余额14.11亿元（11-24）</t>
+          <t>海亮股份：融资净偿还562.65万元，融资余额13.99亿元（12-02）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-25 08:44</t>
+          <t>12-05 08:47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1250950068.html</t>
+          <t>/news,002203,1254802002.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
+          <t>海亮股份本周融资净偿还725.8万元，居有色金属板块第十八</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-24 08:51</t>
+          <t>12-04 15:09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1250429394.html</t>
+          <t>/news,002203,1254651042.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,39 +531,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海亮股份11月23日被深股通减持4.21万股</t>
+          <t>海亮股份本周深股通持股市值减少127.27万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-24 07:55</t>
+          <t>12-04 14:08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1250421102.html</t>
+          <t>/news,002203,1254643873.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
+          <t>海亮股份12月02日获深股通增持15.36万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-23 08:39</t>
+          <t>12-03 07:57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1249882116.html</t>
+          <t>/news,002203,1254513260.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海亮股份11月22日被深股通减持29.7万股</t>
+          <t>海亮股份：融资净买入69.49万元，融资余额14.05亿元（12-01）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-23 07:46</t>
+          <t>12-02 08:44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1249874729.html</t>
+          <t>/news,002203,1253919500.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
+          <t>海亮股份12月01日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-23 00:13</t>
+          <t>12-02 07:50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1249828364.html</t>
+          <t>/news,002203,1253913221.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>902</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
+          <t>大宗交易：海亮股份成交279.31万元，成交价12.37元（12-01）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-22 18:30</t>
+          <t>12-01 18:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1249733803.html</t>
+          <t>/news,002203,1253756484.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
+          <t>海亮股份：融资净偿还723.29万元，融资余额14.04亿元（11-30）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-22 18:01</t>
+          <t>12-01 08:40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1249727743.html</t>
+          <t>/news,002203,1253308454.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>海亮股份11月30日获深股通增持4.97万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>12-01 07:48</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1249708456.html</t>
+          <t>/news,002203,1253301254.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
+          <t>大宗交易：海亮股份成交473.74万元，成交价12.27元（11-30）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-30 18:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1249708280.html</t>
+          <t>/news,002203,1253167473.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
+          <t>海亮股份：融资净偿还148.1万元，融资余额14.11亿元（11-29）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-30 08:42</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1249708150.html</t>
+          <t>/news,002203,1252785027.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
+          <t>海亮股份11月29日被深股通减持4.44万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1249355580.html</t>
+          <t>/news,002203,1252778237.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份11月21日获深股通增持13.24万股</t>
+          <t>海亮股份：融资净买入76.09万元，融资余额14.13亿元（11-28）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-29 08:45</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1249347600.html</t>
+          <t>/news,002203,1252221825.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
+          <t>海亮股份11月28日被深股通减持10.33万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-21 14:00</t>
+          <t>11-29 07:43</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1249114151.html</t>
+          <t>/news,002203,1252211538.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>884</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份：在第五届中国国际进口博览会 浙江省重点进口平台推介会签约仪式上 签署了65亿元采购意向合同</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-21 10:57</t>
+          <t>11-28 14:49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1249017367.html</t>
+          <t>/news,002203,1252020931.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
+          <t>海亮股份：融资净买入86.48万元，融资余额14.12亿元（11-25）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-21 10:09</t>
+          <t>11-28 08:43</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1249059951.html</t>
+          <t>/news,002203,1251733579.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,93 +979,93 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
+          <t>海亮股份本周融资净偿还1077.79万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-21 08:42</t>
+          <t>11-27 15:26</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1248870718.html</t>
+          <t>/news,002203,1251593930.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
+          <t>海亮股份本周深股通持股市值减少253.65万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1248769900.html</t>
+          <t>/news,002203,1251584384.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>505</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
+          <t>大宗交易：海亮股份成交991.38万元，成交价12.09元（11-25）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-25 18:05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1248763121.html</t>
+          <t>/news,002203,1251306468.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份11月18日获深股通增持12.96万股</t>
+          <t>海亮股份：融资净偿还401.78万元，融资余额14.11亿元（11-24）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-19 07:47</t>
+          <t>11-25 08:44</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1248637816.html</t>
+          <t>/news,002203,1250950068.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>843</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-18 18:06</t>
+          <t>11-24 08:51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1248552209.html</t>
+          <t>/news,002203,1250429394.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
+          <t>海亮股份11月23日被深股通减持4.21万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1248512763.html</t>
+          <t>/news,002203,1250421102.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
+          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-23 08:39</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1248512666.html</t>
+          <t>/news,002203,1249882116.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
+          <t>海亮股份11月22日被深股通减持29.7万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-23 07:46</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1248512327.html</t>
+          <t>/news,002203,1249874729.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>1439</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
+          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-23 00:13</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1248162901.html</t>
+          <t>/news,002203,1249828364.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>1031</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
+          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-17 18:01</t>
+          <t>11-22 18:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1248042520.html</t>
+          <t>/news,002203,1249733803.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>815</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
+          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-17 08:41</t>
+          <t>11-22 18:01</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1247674915.html</t>
+          <t>/news,002203,1249727743.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>827</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份11月16日被深股通减持54.02万股</t>
+          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-17 07:33</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1247664706.html</t>
+          <t>/news,002203,1249708456.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>835</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
+          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-16 18:01</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1247541531.html</t>
+          <t>/news,002203,1249708280.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
+          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-16 14:08</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1247446516.html</t>
+          <t>/news,002203,1249708150.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
+          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-16 08:41</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1247182099.html</t>
+          <t>/news,002203,1249355580.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份11月15日被深股通减持42.2万股</t>
+          <t>海亮股份11月21日获深股通增持13.24万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-16 07:46</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1247174778.html</t>
+          <t>/news,002203,1249347600.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>823</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-15 16:32</t>
+          <t>11-21 14:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1247048599.html</t>
+          <t>/news,002203,1249114151.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
+          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-15 08:46</t>
+          <t>11-21 10:57</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1246697605.html</t>
+          <t>/news,002203,1249017367.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海亮股份11月14日获深股通增持20.87万股</t>
+          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-15 07:48</t>
+          <t>11-21 10:09</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1246689780.html</t>
+          <t>/news,002203,1249059951.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,51 +1597,51 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-21 08:42</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1246198626.html</t>
+          <t>/news,002203,1248870718.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1246196435.html</t>
+          <t>/news,002203,1248769900.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
+          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1246101667.html</t>
+          <t>/news,002203,1248763121.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,39 +1683,39 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
+          <t>海亮股份11月18日获深股通增持12.96万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-13 14:13</t>
+          <t>11-19 07:47</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1246094933.html</t>
+          <t>/news,002203,1248637816.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>871</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海亮股份11月11日被深股通减持56.81万股</t>
+          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-18 18:06</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1245986384.html</t>
+          <t>/news,002203,1248552209.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
+          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-12 00:09</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1246096434.html</t>
+          <t>/news,002203,1248512763.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
+          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-11 18:28</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1245898758.html</t>
+          <t>/news,002203,1248512666.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
+          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-11 08:41</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1245422348.html</t>
+          <t>/news,002203,1248512327.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海亮股份11月10日被深股通减持28.27万股</t>
+          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-11 07:54</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1245413580.html</t>
+          <t>/news,002203,1248162901.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
+          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-17 18:01</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1245274801.html</t>
+          <t>/news,002203,1248042520.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
+          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-17 08:41</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1244898603.html</t>
+          <t>/news,002203,1247674915.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份11月09日被深股通减持77.83万股</t>
+          <t>海亮股份11月16日被深股通减持54.02万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,51 +1949,51 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-17 07:33</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1244892219.html</t>
+          <t>/news,002203,1247664706.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
+          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-09 09:01</t>
+          <t>11-16 18:01</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1244438992.html</t>
+          <t>/news,002203,1247541531.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>735</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
+          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-09 08:47</t>
+          <t>11-16 14:08</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1244435978.html</t>
+          <t>/news,002203,1247446516.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海亮股份11月08日被深股通减持11.21万股</t>
+          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,12 +2045,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-16 08:41</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1244425901.html</t>
+          <t>/news,002203,1247182099.html</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
+          <t>海亮股份11月15日被深股通减持42.2万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-08 08:45</t>
+          <t>11-16 07:46</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1243982408.html</t>
+          <t>/news,002203,1247174778.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>838</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海亮股份11月07日获深股通增持70.03万股</t>
+          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-08 07:41</t>
+          <t>11-15 16:32</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1243972851.html</t>
+          <t>/news,002203,1247048599.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
+          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-15 08:46</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1243512300.html</t>
+          <t>/news,002203,1246697605.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份：接受华福证券等机构调研</t>
+          <t>海亮股份11月14日获深股通增持20.87万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-07 06:29</t>
+          <t>11-15 07:48</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1243503533.html</t>
+          <t>/news,002203,1246689780.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-06 15:09</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1243411409.html</t>
+          <t>/news,002203,1246198626.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1243404984.html</t>
+          <t>/news,002203,1246196435.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>海亮股份11月04日被深股通减持3.02万股</t>
+          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1243317851.html</t>
+          <t>/news,002203,1246101667.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
+          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-13 14:13</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1243229307.html</t>
+          <t>/news,002203,1246094933.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
+          <t>海亮股份11月11日被深股通减持56.81万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-04 08:46</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1242825348.html</t>
+          <t>/news,002203,1245986384.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份11月03日被深股通减持24.45万股</t>
+          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-04 07:45</t>
+          <t>11-12 00:09</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1242816307.html</t>
+          <t>/news,002203,1246096434.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>709</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
+          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-03 08:50</t>
+          <t>11-11 18:28</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1242333917.html</t>
+          <t>/news,002203,1245898758.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份11月02日被深股通减持37万股</t>
+          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-03 07:53</t>
+          <t>11-11 08:41</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1242326027.html</t>
+          <t>/news,002203,1245422348.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净买入累计500.53万元（11-01）</t>
+          <t>海亮股份11月10日被深股通减持28.27万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-02 08:50</t>
+          <t>11-11 07:54</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1241809291.html</t>
+          <t>/news,002203,1245413580.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海亮股份11月01日被深股通减持93.33万股</t>
+          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-02 07:53</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1241801731.html</t>
+          <t>/news,002203,1245274801.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>兴业证券维持海亮股份审慎增持评级 预计2022年净利润同比增长5.76%</t>
+          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-01 19:38</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1241692171.html</t>
+          <t>/news,002203,1244898603.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净买入累计281.4万元（10-31）</t>
+          <t>海亮股份11月09日被深股通减持77.83万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,61 +2557,61 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-01 08:53</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1241305030.html</t>
+          <t>/news,002203,1244892219.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>573</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>海亮股份10月31日被深股通减持33万股</t>
+          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-01 07:45</t>
+          <t>11-09 09:01</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1241295775.html</t>
+          <t>/news,002203,1244438992.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>东吴证券给予海亮股份买入评级 2022Q3业绩点评：汇兑损益影响扣非利润 铜箔进展较快</t>
+          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-09 08:47</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1241260925.html</t>
+          <t>/news,002203,1244435978.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>东吴证券维持海亮股份买入评级 预计2022年净利润同比增长9.1%</t>
+          <t>海亮股份11月08日被深股通减持11.21万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-31 21:52</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1241248353.html</t>
+          <t>/news,002203,1244425901.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收同比增长16.01% 产品应用领域出现新增量</t>
+          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-31 18:32</t>
+          <t>11-08 08:45</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1241186957.html</t>
+          <t>/news,002203,1243982408.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01%</t>
+          <t>海亮股份11月07日获深股通增持70.03万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-31 14:01</t>
+          <t>11-08 07:41</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1241068293.html</t>
+          <t>/news,002203,1243972851.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份：人民币汇率波动 第三季度扣非后归母净利同比降42.51%</t>
+          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-31 11:31</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1240981015.html</t>
+          <t>/news,002203,1243512300.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>706</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海亮股份前三季度营收增长16% 产品应用领域出现新增量</t>
+          <t>海亮股份：接受华福证券等机构调研</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-31 10:42</t>
+          <t>11-07 06:29</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1240932054.html</t>
+          <t>/news,002203,1243503533.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入104.78万元，融资余额13.6亿元（10-28）</t>
+          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-06 15:09</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1240796164.html</t>
+          <t>/news,002203,1243411409.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>海亮股份：前三季度营收同比增长16.01% 矢志创新抢占发展制高点</t>
+          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-30 23:17</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1240765953.html</t>
+          <t>/news,002203,1243404984.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>【图解季报】海亮股份：2022年前三季度归母净利润同比小幅增长1.2%，约为9.3亿元</t>
+          <t>海亮股份11月04日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-30 19:01</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1240738815.html</t>
+          <t>/news,002203,1243317851.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润约9.33亿元</t>
+          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-30 16:09</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1240722642.html</t>
+          <t>/news,002203,1243229307.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海亮股份股东户数下降4.64%，户均持股141.26万元</t>
+          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-30 15:45</t>
+          <t>11-04 08:46</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1240719401.html</t>
+          <t>/news,002203,1242825348.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份：2022年前三季度净利润同比增长1.17%</t>
+          <t>海亮股份11月03日被深股通减持24.45万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-30 15:38</t>
+          <t>11-04 07:45</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1240718008.html</t>
+          <t>/news,002203,1242816307.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1473.02万元，居有色金属板块第十二</t>
+          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-30 15:14</t>
+          <t>11-03 08:50</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1240714289.html</t>
+          <t>/news,002203,1242333917.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>94</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还562.65万元，融资余额13.99亿元（12-02）</t>
+          <t>海亮股份：融资净偿还421.93万元，融资余额13.95亿元（12-05）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-05 08:47</t>
+          <t>12-06 08:43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1254802002.html</t>
+          <t>/news,002203,1255455903.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>107</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还725.8万元，居有色金属板块第十八</t>
+          <t>海亮股份12月05日获深股通增持21.23万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-04 15:09</t>
+          <t>12-06 07:47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1254651042.html</t>
+          <t>/news,002203,1255447526.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,61 +531,61 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少127.27万元，居有色金属板块第十</t>
+          <t>海亮股份：融资净偿还562.65万元，融资余额13.99亿元（12-02）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-04 14:08</t>
+          <t>12-05 08:47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1254643873.html</t>
+          <t>/news,002203,1254802002.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份12月02日获深股通增持15.36万股</t>
+          <t>海亮股份本周融资净偿还725.8万元，居有色金属板块第十八</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-03 07:57</t>
+          <t>12-04 15:09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1254513260.html</t>
+          <t>/news,002203,1254651042.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入69.49万元，融资余额14.05亿元（12-01）</t>
+          <t>海亮股份本周深股通持股市值减少127.27万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-02 08:44</t>
+          <t>12-04 14:08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1253919500.html</t>
+          <t>/news,002203,1254643873.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海亮股份12月01日被深股通减持16.05万股</t>
+          <t>海亮股份12月02日获深股通增持15.36万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-02 07:50</t>
+          <t>12-03 07:57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1253913221.html</t>
+          <t>/news,002203,1254513260.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交279.31万元，成交价12.37元（12-01）</t>
+          <t>海亮股份：融资净买入69.49万元，融资余额14.05亿元（12-01）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-01 18:00</t>
+          <t>12-02 08:44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1253756484.html</t>
+          <t>/news,002203,1253919500.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还723.29万元，融资余额14.04亿元（11-30）</t>
+          <t>海亮股份12月01日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-01 08:40</t>
+          <t>12-02 07:50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1253308454.html</t>
+          <t>/news,002203,1253913221.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海亮股份11月30日获深股通增持4.97万股</t>
+          <t>大宗交易：海亮股份成交279.31万元，成交价12.37元（12-01）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-01 07:48</t>
+          <t>12-01 18:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1253301254.html</t>
+          <t>/news,002203,1253756484.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交473.74万元，成交价12.27元（11-30）</t>
+          <t>海亮股份：融资净偿还723.29万元，融资余额14.04亿元（11-30）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-30 18:00</t>
+          <t>12-01 08:40</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1253167473.html</t>
+          <t>/news,002203,1253308454.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还148.1万元，融资余额14.11亿元（11-29）</t>
+          <t>海亮股份11月30日获深股通增持4.97万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-30 08:42</t>
+          <t>12-01 07:48</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1252785027.html</t>
+          <t>/news,002203,1253301254.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海亮股份11月29日被深股通减持4.44万股</t>
+          <t>大宗交易：海亮股份成交473.74万元，成交价12.27元（11-30）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>11-30 18:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1252778237.html</t>
+          <t>/news,002203,1253167473.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入76.09万元，融资余额14.13亿元（11-28）</t>
+          <t>海亮股份：融资净偿还148.1万元，融资余额14.11亿元（11-29）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-29 08:45</t>
+          <t>11-30 08:42</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1252221825.html</t>
+          <t>/news,002203,1252785027.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海亮股份11月28日被深股通减持10.33万股</t>
+          <t>海亮股份11月29日被深股通减持4.44万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-29 07:43</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1252211538.html</t>
+          <t>/news,002203,1252778237.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海亮股份：在第五届中国国际进口博览会 浙江省重点进口平台推介会签约仪式上 签署了65亿元采购意向合同</t>
+          <t>海亮股份：融资净买入76.09万元，融资余额14.13亿元（11-28）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-28 14:49</t>
+          <t>11-29 08:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1252020931.html</t>
+          <t>/news,002203,1252221825.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入86.48万元，融资余额14.12亿元（11-25）</t>
+          <t>海亮股份11月28日被深股通减持10.33万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,51 +957,51 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-28 08:43</t>
+          <t>11-29 07:43</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1251733579.html</t>
+          <t>/news,002203,1252211538.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>904</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1077.79万元，居有色金属板块第九</t>
+          <t>海亮股份：在第五届中国国际进口博览会 浙江省重点进口平台推介会签约仪式上 签署了65亿元采购意向合同</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-27 15:26</t>
+          <t>11-28 14:49</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1251593930.html</t>
+          <t>/news,002203,1252020931.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,61 +1011,61 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少253.65万元，居有色金属板块第七</t>
+          <t>海亮股份：融资净买入86.48万元，融资余额14.12亿元（11-25）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-28 08:43</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1251584384.html</t>
+          <t>/news,002203,1251733579.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交991.38万元，成交价12.09元（11-25）</t>
+          <t>海亮股份本周融资净偿还1077.79万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-25 18:05</t>
+          <t>11-27 15:26</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1251306468.html</t>
+          <t>/news,002203,1251593930.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,39 +1075,39 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还401.78万元，融资余额14.11亿元（11-24）</t>
+          <t>海亮股份本周深股通持股市值减少253.65万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-25 08:44</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1250950068.html</t>
+          <t>/news,002203,1251584384.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
+          <t>大宗交易：海亮股份成交991.38万元，成交价12.09元（11-25）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-24 08:51</t>
+          <t>11-25 18:05</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1250429394.html</t>
+          <t>/news,002203,1251306468.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份11月23日被深股通减持4.21万股</t>
+          <t>海亮股份：融资净偿还401.78万元，融资余额14.11亿元（11-24）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-24 07:55</t>
+          <t>11-25 08:44</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1250421102.html</t>
+          <t>/news,002203,1250950068.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
+          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-23 08:39</t>
+          <t>11-24 08:51</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1249882116.html</t>
+          <t>/news,002203,1250429394.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海亮股份11月22日被深股通减持29.7万股</t>
+          <t>海亮股份11月23日被深股通减持4.21万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-23 07:46</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1249874729.html</t>
+          <t>/news,002203,1250421102.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1439</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
+          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-23 00:13</t>
+          <t>11-23 08:39</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1249828364.html</t>
+          <t>/news,002203,1249882116.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
+          <t>海亮股份11月22日被深股通减持29.7万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-22 18:30</t>
+          <t>11-23 07:46</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1249733803.html</t>
+          <t>/news,002203,1249874729.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
+          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-22 18:01</t>
+          <t>11-23 00:13</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1249727743.html</t>
+          <t>/news,002203,1249828364.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-22 18:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1249708456.html</t>
+          <t>/news,002203,1249733803.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>816</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
+          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-22 18:01</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1249708280.html</t>
+          <t>/news,002203,1249727743.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>830</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
+          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1410,24 +1410,24 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1249708150.html</t>
+          <t>/news,002203,1249708456.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>839</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
+          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1249355580.html</t>
+          <t>/news,002203,1249708280.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份11月21日获深股通增持13.24万股</t>
+          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1249347600.html</t>
+          <t>/news,002203,1249708150.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
+          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-21 14:00</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1249114151.html</t>
+          <t>/news,002203,1249355580.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份11月21日获深股通增持13.24万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-21 10:57</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1249017367.html</t>
+          <t>/news,002203,1249347600.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>823</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
+          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-21 10:09</t>
+          <t>11-21 14:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1249059951.html</t>
+          <t>/news,002203,1249114151.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
+          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,51 +1597,51 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-21 08:42</t>
+          <t>11-21 10:57</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1248870718.html</t>
+          <t>/news,002203,1249017367.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
+          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-21 10:09</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1248769900.html</t>
+          <t>/news,002203,1249059951.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,103 +1651,103 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
+          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:42</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1248763121.html</t>
+          <t>/news,002203,1248870718.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海亮股份11月18日获深股通增持12.96万股</t>
+          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-19 07:47</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1248637816.html</t>
+          <t>/news,002203,1248769900.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>871</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-18 18:06</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1248552209.html</t>
+          <t>/news,002203,1248763121.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
+          <t>海亮股份11月18日获深股通增持12.96万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-19 07:47</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1248512763.html</t>
+          <t>/news,002203,1248637816.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>871</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
+          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-18 18:06</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1248512666.html</t>
+          <t>/news,002203,1248552209.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>573</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
+          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1826,24 +1826,24 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1248512327.html</t>
+          <t>/news,002203,1248512763.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
+          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1248162901.html</t>
+          <t>/news,002203,1248512666.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
+          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-17 18:01</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1248042520.html</t>
+          <t>/news,002203,1248512327.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
+          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-17 08:41</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1247674915.html</t>
+          <t>/news,002203,1248162901.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>484</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份11月16日被深股通减持54.02万股</t>
+          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-17 07:33</t>
+          <t>11-17 18:01</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1247664706.html</t>
+          <t>/news,002203,1248042520.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
+          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-16 18:01</t>
+          <t>11-17 08:41</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1247541531.html</t>
+          <t>/news,002203,1247674915.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
+          <t>海亮股份11月16日被深股通减持54.02万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-16 14:08</t>
+          <t>11-17 07:33</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1247446516.html</t>
+          <t>/news,002203,1247664706.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
+          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-16 08:41</t>
+          <t>11-16 18:01</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1247182099.html</t>
+          <t>/news,002203,1247541531.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>735</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份11月15日被深股通减持42.2万股</t>
+          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-16 07:46</t>
+          <t>11-16 14:08</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1247174778.html</t>
+          <t>/news,002203,1247446516.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>838</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-15 16:32</t>
+          <t>11-16 08:41</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1247048599.html</t>
+          <t>/news,002203,1247182099.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
+          <t>海亮股份11月15日被深股通减持42.2万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-15 08:46</t>
+          <t>11-16 07:46</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1246697605.html</t>
+          <t>/news,002203,1247174778.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>838</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份11月14日获深股通增持20.87万股</t>
+          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-15 07:48</t>
+          <t>11-15 16:32</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1246689780.html</t>
+          <t>/news,002203,1247048599.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-15 08:46</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1246198626.html</t>
+          <t>/news,002203,1246697605.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份11月14日获深股通增持20.87万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-15 07:48</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1246196435.html</t>
+          <t>/news,002203,1246689780.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1246101667.html</t>
+          <t>/news,002203,1246198626.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-13 14:13</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1246094933.html</t>
+          <t>/news,002203,1246196435.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,61 +2323,61 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份11月11日被深股通减持56.81万股</t>
+          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1245986384.html</t>
+          <t>/news,002203,1246101667.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
+          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-12 00:09</t>
+          <t>11-13 14:13</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1246096434.html</t>
+          <t>/news,002203,1246094933.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
+          <t>海亮股份11月11日被深股通减持56.81万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-11 18:28</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1245898758.html</t>
+          <t>/news,002203,1245986384.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
+          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-11 08:41</t>
+          <t>11-12 00:09</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1245422348.html</t>
+          <t>/news,002203,1246096434.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>709</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海亮股份11月10日被深股通减持28.27万股</t>
+          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-11 07:54</t>
+          <t>11-11 18:28</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1245413580.html</t>
+          <t>/news,002203,1245898758.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
+          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-11 08:41</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1245274801.html</t>
+          <t>/news,002203,1245422348.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
+          <t>海亮股份11月10日被深股通减持28.27万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-11 07:54</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1244898603.html</t>
+          <t>/news,002203,1245413580.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份11月09日被深股通减持77.83万股</t>
+          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,51 +2557,51 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1244892219.html</t>
+          <t>/news,002203,1245274801.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
+          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-09 09:01</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1244438992.html</t>
+          <t>/news,002203,1244898603.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
+          <t>海亮股份11月09日被深股通减持77.83万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-09 08:47</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1244435978.html</t>
+          <t>/news,002203,1244892219.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>575</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份11月08日被深股通减持11.21万股</t>
+          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-09 09:01</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1244425901.html</t>
+          <t>/news,002203,1244438992.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
+          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-08 08:45</t>
+          <t>11-09 08:47</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1243982408.html</t>
+          <t>/news,002203,1244435978.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海亮股份11月07日获深股通增持70.03万股</t>
+          <t>海亮股份11月08日被深股通减持11.21万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-08 07:41</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1243972851.html</t>
+          <t>/news,002203,1244425901.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
+          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-08 08:45</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1243512300.html</t>
+          <t>/news,002203,1243982408.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海亮股份：接受华福证券等机构调研</t>
+          <t>海亮股份11月07日获深股通增持70.03万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-07 06:29</t>
+          <t>11-08 07:41</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1243503533.html</t>
+          <t>/news,002203,1243972851.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
+          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-06 15:09</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1243411409.html</t>
+          <t>/news,002203,1243512300.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>706</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
+          <t>海亮股份：接受华福证券等机构调研</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 06:29</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1243404984.html</t>
+          <t>/news,002203,1243503533.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海亮股份11月04日被深股通减持3.02万股</t>
+          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-06 15:09</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1243317851.html</t>
+          <t>/news,002203,1243411409.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
+          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1243229307.html</t>
+          <t>/news,002203,1243404984.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
+          <t>海亮股份11月04日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-04 08:46</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1242825348.html</t>
+          <t>/news,002203,1243317851.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份11月03日被深股通减持24.45万股</t>
+          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-04 07:45</t>
+          <t>11-04 18:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1242816307.html</t>
+          <t>/news,002203,1243229307.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还923.96万元，融资余额13.54亿元（11-02）</t>
+          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-03 08:50</t>
+          <t>11-04 08:46</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1242333917.html</t>
+          <t>/news,002203,1242825348.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>97</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还421.93万元，融资余额13.95亿元（12-05）</t>
+          <t>海亮股份：连续3日融资净偿还累计2061.08万元（12-06）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-06 08:43</t>
+          <t>12-07 08:53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1255455903.html</t>
+          <t>/news,002203,1256099796.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>105</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份12月05日获深股通增持21.23万股</t>
+          <t>海亮股份12月06日获深股通增持17.26万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-06 07:47</t>
+          <t>12-07 07:45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1255447526.html</t>
+          <t>/news,002203,1256090378.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还562.65万元，融资余额13.99亿元（12-02）</t>
+          <t>海亮股份：融资净偿还421.93万元，融资余额13.95亿元（12-05）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-05 08:47</t>
+          <t>12-06 08:43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1254802002.html</t>
+          <t>/news,002203,1255455903.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还725.8万元，居有色金属板块第十八</t>
+          <t>海亮股份12月05日获深股通增持21.23万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-04 15:09</t>
+          <t>12-06 07:47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1254651042.html</t>
+          <t>/news,002203,1255447526.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,61 +595,61 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少127.27万元，居有色金属板块第十</t>
+          <t>海亮股份：融资净偿还562.65万元，融资余额13.99亿元（12-02）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-04 14:08</t>
+          <t>12-05 08:47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1254643873.html</t>
+          <t>/news,002203,1254802002.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海亮股份12月02日获深股通增持15.36万股</t>
+          <t>海亮股份本周融资净偿还725.8万元，居有色金属板块第十八</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-03 07:57</t>
+          <t>12-04 15:09</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1254513260.html</t>
+          <t>/news,002203,1254651042.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入69.49万元，融资余额14.05亿元（12-01）</t>
+          <t>海亮股份本周深股通持股市值减少127.27万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-02 08:44</t>
+          <t>12-04 14:08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1253919500.html</t>
+          <t>/news,002203,1254643873.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份12月01日被深股通减持16.05万股</t>
+          <t>海亮股份12月02日获深股通增持15.36万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-02 07:50</t>
+          <t>12-03 07:57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1253913221.html</t>
+          <t>/news,002203,1254513260.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交279.31万元，成交价12.37元（12-01）</t>
+          <t>海亮股份：融资净买入69.49万元，融资余额14.05亿元（12-01）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-01 18:00</t>
+          <t>12-02 08:44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1253756484.html</t>
+          <t>/news,002203,1253919500.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还723.29万元，融资余额14.04亿元（11-30）</t>
+          <t>海亮股份12月01日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-01 08:40</t>
+          <t>12-02 07:50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1253308454.html</t>
+          <t>/news,002203,1253913221.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份11月30日获深股通增持4.97万股</t>
+          <t>大宗交易：海亮股份成交279.31万元，成交价12.37元（12-01）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-01 07:48</t>
+          <t>12-01 18:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1253301254.html</t>
+          <t>/news,002203,1253756484.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交473.74万元，成交价12.27元（11-30）</t>
+          <t>海亮股份：融资净偿还723.29万元，融资余额14.04亿元（11-30）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-30 18:00</t>
+          <t>12-01 08:40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1253167473.html</t>
+          <t>/news,002203,1253308454.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还148.1万元，融资余额14.11亿元（11-29）</t>
+          <t>海亮股份11月30日获深股通增持4.97万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-30 08:42</t>
+          <t>12-01 07:48</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1252785027.html</t>
+          <t>/news,002203,1253301254.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海亮股份11月29日被深股通减持4.44万股</t>
+          <t>大宗交易：海亮股份成交473.74万元，成交价12.27元（11-30）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>11-30 18:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1252778237.html</t>
+          <t>/news,002203,1253167473.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入76.09万元，融资余额14.13亿元（11-28）</t>
+          <t>海亮股份：融资净偿还148.1万元，融资余额14.11亿元（11-29）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-29 08:45</t>
+          <t>11-30 08:42</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1252221825.html</t>
+          <t>/news,002203,1252785027.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海亮股份11月28日被深股通减持10.33万股</t>
+          <t>海亮股份11月29日被深股通减持4.44万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-29 07:43</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1252211538.html</t>
+          <t>/news,002203,1252778237.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>904</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份：在第五届中国国际进口博览会 浙江省重点进口平台推介会签约仪式上 签署了65亿元采购意向合同</t>
+          <t>海亮股份：融资净买入76.09万元，融资余额14.13亿元（11-28）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-28 14:49</t>
+          <t>11-29 08:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1252020931.html</t>
+          <t>/news,002203,1252221825.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入86.48万元，融资余额14.12亿元（11-25）</t>
+          <t>海亮股份11月28日被深股通减持10.33万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,51 +1021,51 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-28 08:43</t>
+          <t>11-29 07:43</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1251733579.html</t>
+          <t>/news,002203,1252211538.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>914</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1077.79万元，居有色金属板块第九</t>
+          <t>海亮股份：在第五届中国国际进口博览会 浙江省重点进口平台推介会签约仪式上 签署了65亿元采购意向合同</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-27 15:26</t>
+          <t>11-28 14:49</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1251593930.html</t>
+          <t>/news,002203,1252020931.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,61 +1075,61 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少253.65万元，居有色金属板块第七</t>
+          <t>海亮股份：融资净买入86.48万元，融资余额14.12亿元（11-25）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-28 08:43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1251584384.html</t>
+          <t>/news,002203,1251733579.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交991.38万元，成交价12.09元（11-25）</t>
+          <t>海亮股份本周融资净偿还1077.79万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-25 18:05</t>
+          <t>11-27 15:26</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1251306468.html</t>
+          <t>/news,002203,1251593930.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,39 +1139,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还401.78万元，融资余额14.11亿元（11-24）</t>
+          <t>海亮股份本周深股通持股市值减少253.65万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-25 08:44</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1250950068.html</t>
+          <t>/news,002203,1251584384.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
+          <t>大宗交易：海亮股份成交991.38万元，成交价12.09元（11-25）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-24 08:51</t>
+          <t>11-25 18:05</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1250429394.html</t>
+          <t>/news,002203,1251306468.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海亮股份11月23日被深股通减持4.21万股</t>
+          <t>海亮股份：融资净偿还401.78万元，融资余额14.11亿元（11-24）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-24 07:55</t>
+          <t>11-25 08:44</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1250421102.html</t>
+          <t>/news,002203,1250950068.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
+          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-23 08:39</t>
+          <t>11-24 08:51</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1249882116.html</t>
+          <t>/news,002203,1250429394.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>海亮股份11月22日被深股通减持29.7万股</t>
+          <t>海亮股份11月23日被深股通减持4.21万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-23 07:46</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1249874729.html</t>
+          <t>/news,002203,1250421102.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
+          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-23 00:13</t>
+          <t>11-23 08:39</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1249828364.html</t>
+          <t>/news,002203,1249882116.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
+          <t>海亮股份11月22日被深股通减持29.7万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-22 18:30</t>
+          <t>11-23 07:46</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1249733803.html</t>
+          <t>/news,002203,1249874729.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>1450</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
+          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-22 18:01</t>
+          <t>11-23 00:13</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1249727743.html</t>
+          <t>/news,002203,1249828364.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>1045</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-22 18:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1249708456.html</t>
+          <t>/news,002203,1249733803.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>818</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
+          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-22 18:01</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1249708280.html</t>
+          <t>/news,002203,1249727743.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>836</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
+          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1474,24 +1474,24 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1249708150.html</t>
+          <t>/news,002203,1249708456.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>840</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
+          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1249355580.html</t>
+          <t>/news,002203,1249708280.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海亮股份11月21日获深股通增持13.24万股</t>
+          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1249347600.html</t>
+          <t>/news,002203,1249708150.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
+          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-21 14:00</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1249114151.html</t>
+          <t>/news,002203,1249355580.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份11月21日获深股通增持13.24万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-21 10:57</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1249017367.html</t>
+          <t>/news,002203,1249347600.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>833</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
+          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-21 10:09</t>
+          <t>11-21 14:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1249059951.html</t>
+          <t>/news,002203,1249114151.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
+          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,51 +1661,51 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-21 08:42</t>
+          <t>11-21 10:57</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1248870718.html</t>
+          <t>/news,002203,1249017367.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
+          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-21 10:09</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1248769900.html</t>
+          <t>/news,002203,1249059951.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,103 +1715,103 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
+          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:42</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1248763121.html</t>
+          <t>/news,002203,1248870718.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海亮股份11月18日获深股通增持12.96万股</t>
+          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-19 07:47</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1248637816.html</t>
+          <t>/news,002203,1248769900.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>871</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-18 18:06</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1248552209.html</t>
+          <t>/news,002203,1248763121.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
+          <t>海亮股份11月18日获深股通增持12.96万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-19 07:47</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1248512763.html</t>
+          <t>/news,002203,1248637816.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>873</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
+          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-18 18:06</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1248512666.html</t>
+          <t>/news,002203,1248552209.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
+          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1890,24 +1890,24 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1248512327.html</t>
+          <t>/news,002203,1248512763.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
+          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1248162901.html</t>
+          <t>/news,002203,1248512666.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
+          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-17 18:01</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1248042520.html</t>
+          <t>/news,002203,1248512327.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
+          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-17 08:41</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1247674915.html</t>
+          <t>/news,002203,1248162901.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份11月16日被深股通减持54.02万股</t>
+          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-17 07:33</t>
+          <t>11-17 18:01</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1247664706.html</t>
+          <t>/news,002203,1248042520.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
+          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-16 18:01</t>
+          <t>11-17 08:41</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1247541531.html</t>
+          <t>/news,002203,1247674915.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
+          <t>海亮股份11月16日被深股通减持54.02万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-16 14:08</t>
+          <t>11-17 07:33</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1247446516.html</t>
+          <t>/news,002203,1247664706.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
+          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-16 08:41</t>
+          <t>11-16 18:01</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1247182099.html</t>
+          <t>/news,002203,1247541531.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>736</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份11月15日被深股通减持42.2万股</t>
+          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-16 07:46</t>
+          <t>11-16 14:08</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1247174778.html</t>
+          <t>/news,002203,1247446516.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>838</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-15 16:32</t>
+          <t>11-16 08:41</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1247048599.html</t>
+          <t>/news,002203,1247182099.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
+          <t>海亮股份11月15日被深股通减持42.2万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-15 08:46</t>
+          <t>11-16 07:46</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1246697605.html</t>
+          <t>/news,002203,1247174778.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>839</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份11月14日获深股通增持20.87万股</t>
+          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-15 07:48</t>
+          <t>11-15 16:32</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1246689780.html</t>
+          <t>/news,002203,1247048599.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-15 08:46</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1246198626.html</t>
+          <t>/news,002203,1246697605.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份11月14日获深股通增持20.87万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-15 07:48</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1246196435.html</t>
+          <t>/news,002203,1246689780.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1246101667.html</t>
+          <t>/news,002203,1246198626.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-13 14:13</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1246094933.html</t>
+          <t>/news,002203,1246196435.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,61 +2387,61 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份11月11日被深股通减持56.81万股</t>
+          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1245986384.html</t>
+          <t>/news,002203,1246101667.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
+          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-12 00:09</t>
+          <t>11-13 14:13</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1246096434.html</t>
+          <t>/news,002203,1246094933.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
+          <t>海亮股份11月11日被深股通减持56.81万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-11 18:28</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1245898758.html</t>
+          <t>/news,002203,1245986384.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
+          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-11 08:41</t>
+          <t>11-12 00:09</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1245422348.html</t>
+          <t>/news,002203,1246096434.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>709</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>海亮股份11月10日被深股通减持28.27万股</t>
+          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-11 07:54</t>
+          <t>11-11 18:28</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1245413580.html</t>
+          <t>/news,002203,1245898758.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
+          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-11 08:41</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1245274801.html</t>
+          <t>/news,002203,1245422348.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
+          <t>海亮股份11月10日被深股通减持28.27万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-11 07:54</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1244898603.html</t>
+          <t>/news,002203,1245413580.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>海亮股份11月09日被深股通减持77.83万股</t>
+          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1244892219.html</t>
+          <t>/news,002203,1245274801.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
+          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-09 09:01</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1244438992.html</t>
+          <t>/news,002203,1244898603.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
+          <t>海亮股份11月09日被深股通减持77.83万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,51 +2685,51 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-09 08:47</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1244435978.html</t>
+          <t>/news,002203,1244892219.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>575</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海亮股份11月08日被深股通减持11.21万股</t>
+          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-09 09:01</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1244425901.html</t>
+          <t>/news,002203,1244438992.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
+          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-08 08:45</t>
+          <t>11-09 08:47</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1243982408.html</t>
+          <t>/news,002203,1244435978.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海亮股份11月07日获深股通增持70.03万股</t>
+          <t>海亮股份11月08日被深股通减持11.21万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-08 07:41</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1243972851.html</t>
+          <t>/news,002203,1244425901.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
+          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-08 08:45</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1243512300.html</t>
+          <t>/news,002203,1243982408.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>海亮股份：接受华福证券等机构调研</t>
+          <t>海亮股份11月07日获深股通增持70.03万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-07 06:29</t>
+          <t>11-08 07:41</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1243503533.html</t>
+          <t>/news,002203,1243972851.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
+          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-06 15:09</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1243411409.html</t>
+          <t>/news,002203,1243512300.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>706</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
+          <t>海亮股份：接受华福证券等机构调研</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 06:29</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1243404984.html</t>
+          <t>/news,002203,1243503533.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海亮股份11月04日被深股通减持3.02万股</t>
+          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-06 15:09</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1243317851.html</t>
+          <t>/news,002203,1243411409.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份210.97万元（11-04）</t>
+          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-04 18:00</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1243229307.html</t>
+          <t>/news,002203,1243404984.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还529.19万元，融资余额13.48亿元（11-03）</t>
+          <t>海亮股份11月04日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-04 08:46</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1242825348.html</t>
+          <t>/news,002203,1243317851.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>101</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计2061.08万元（12-06）</t>
+          <t>海亮股份：连续4日融资净偿还累计2272.74万元（12-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-07 08:53</t>
+          <t>12-08 08:47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1256099796.html</t>
+          <t>/news,002203,1256765649.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>87</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份12月06日获深股通增持17.26万股</t>
+          <t>海亮股份12月07日获深股通增持20.82万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-07 07:45</t>
+          <t>12-08 07:55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1256090378.html</t>
+          <t>/news,002203,1256757264.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还421.93万元，融资余额13.95亿元（12-05）</t>
+          <t>大宗交易：机构账户买入海亮股份733.8万元（12-07）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-06 08:43</t>
+          <t>12-07 18:01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1255455903.html</t>
+          <t>/news,002203,1256553093.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份12月05日获深股通增持21.23万股</t>
+          <t>海亮股份：连续3日融资净偿还累计2061.08万元（12-06）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-06 07:47</t>
+          <t>12-07 08:53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1255447526.html</t>
+          <t>/news,002203,1256099796.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还562.65万元，融资余额13.99亿元（12-02）</t>
+          <t>海亮股份12月06日获深股通增持17.26万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-05 08:47</t>
+          <t>12-07 07:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1254802002.html</t>
+          <t>/news,002203,1256090378.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还725.8万元，居有色金属板块第十八</t>
+          <t>海亮股份：融资净偿还421.93万元，融资余额13.95亿元（12-05）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-04 15:09</t>
+          <t>12-06 08:43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1254651042.html</t>
+          <t>/news,002203,1255455903.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少127.27万元，居有色金属板块第十</t>
+          <t>海亮股份12月05日获深股通增持21.23万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-04 14:08</t>
+          <t>12-06 07:47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1254643873.html</t>
+          <t>/news,002203,1255447526.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份12月02日获深股通增持15.36万股</t>
+          <t>海亮股份：融资净偿还562.65万元，融资余额13.99亿元（12-02）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-03 07:57</t>
+          <t>12-05 08:47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1254513260.html</t>
+          <t>/news,002203,1254802002.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入69.49万元，融资余额14.05亿元（12-01）</t>
+          <t>海亮股份本周融资净偿还725.8万元，居有色金属板块第十八</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-02 08:44</t>
+          <t>12-04 15:09</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1253919500.html</t>
+          <t>/news,002203,1254651042.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份12月01日被深股通减持16.05万股</t>
+          <t>海亮股份本周深股通持股市值减少127.27万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 07:50</t>
+          <t>12-04 14:08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1253913221.html</t>
+          <t>/news,002203,1254643873.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交279.31万元，成交价12.37元（12-01）</t>
+          <t>海亮股份12月02日获深股通增持15.36万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-01 18:00</t>
+          <t>12-03 07:57</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1253756484.html</t>
+          <t>/news,002203,1254513260.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还723.29万元，融资余额14.04亿元（11-30）</t>
+          <t>海亮股份：融资净买入69.49万元，融资余额14.05亿元（12-01）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-01 08:40</t>
+          <t>12-02 08:44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1253308454.html</t>
+          <t>/news,002203,1253919500.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份11月30日获深股通增持4.97万股</t>
+          <t>海亮股份12月01日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-01 07:48</t>
+          <t>12-02 07:50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1253301254.html</t>
+          <t>/news,002203,1253913221.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交473.74万元，成交价12.27元（11-30）</t>
+          <t>大宗交易：海亮股份成交279.31万元，成交价12.37元（12-01）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-30 18:00</t>
+          <t>12-01 18:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1253167473.html</t>
+          <t>/news,002203,1253756484.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还148.1万元，融资余额14.11亿元（11-29）</t>
+          <t>海亮股份：融资净偿还723.29万元，融资余额14.04亿元（11-30）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-30 08:42</t>
+          <t>12-01 08:40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1252785027.html</t>
+          <t>/news,002203,1253308454.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海亮股份11月29日被深股通减持4.44万股</t>
+          <t>海亮股份11月30日获深股通增持4.97万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-01 07:48</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1252778237.html</t>
+          <t>/news,002203,1253301254.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入76.09万元，融资余额14.13亿元（11-28）</t>
+          <t>大宗交易：海亮股份成交473.74万元，成交价12.27元（11-30）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-29 08:45</t>
+          <t>11-30 18:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1252221825.html</t>
+          <t>/news,002203,1253167473.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海亮股份11月28日被深股通减持10.33万股</t>
+          <t>海亮股份：融资净偿还148.1万元，融资余额14.11亿元（11-29）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-29 07:43</t>
+          <t>11-30 08:42</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1252211538.html</t>
+          <t>/news,002203,1252785027.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>914</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份：在第五届中国国际进口博览会 浙江省重点进口平台推介会签约仪式上 签署了65亿元采购意向合同</t>
+          <t>海亮股份11月29日被深股通减持4.44万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-28 14:49</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1252020931.html</t>
+          <t>/news,002203,1252778237.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入86.48万元，融资余额14.12亿元（11-25）</t>
+          <t>海亮股份：融资净买入76.09万元，融资余额14.13亿元（11-28）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-28 08:43</t>
+          <t>11-29 08:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1251733579.html</t>
+          <t>/news,002203,1252221825.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,71 +1107,71 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1077.79万元，居有色金属板块第九</t>
+          <t>海亮股份11月28日被深股通减持10.33万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-27 15:26</t>
+          <t>11-29 07:43</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1251593930.html</t>
+          <t>/news,002203,1252211538.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>928</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少253.65万元，居有色金属板块第七</t>
+          <t>海亮股份：在第五届中国国际进口博览会 浙江省重点进口平台推介会签约仪式上 签署了65亿元采购意向合同</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-28 14:49</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1251584384.html</t>
+          <t>/news,002203,1252020931.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交991.38万元，成交价12.09元（11-25）</t>
+          <t>海亮股份：融资净买入86.48万元，融资余额14.12亿元（11-25）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-25 18:05</t>
+          <t>11-28 08:43</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1251306468.html</t>
+          <t>/news,002203,1251733579.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还401.78万元，融资余额14.11亿元（11-24）</t>
+          <t>海亮股份本周融资净偿还1077.79万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-25 08:44</t>
+          <t>11-27 15:26</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1250950068.html</t>
+          <t>/news,002203,1251593930.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
+          <t>海亮股份本周深股通持股市值减少253.65万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-24 08:51</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1250429394.html</t>
+          <t>/news,002203,1251584384.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>海亮股份11月23日被深股通减持4.21万股</t>
+          <t>大宗交易：海亮股份成交991.38万元，成交价12.09元（11-25）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-24 07:55</t>
+          <t>11-25 18:05</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1250421102.html</t>
+          <t>/news,002203,1251306468.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
+          <t>海亮股份：融资净偿还401.78万元，融资余额14.11亿元（11-24）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-23 08:39</t>
+          <t>11-25 08:44</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1249882116.html</t>
+          <t>/news,002203,1250950068.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份11月22日被深股通减持29.7万股</t>
+          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-23 07:46</t>
+          <t>11-24 08:51</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1249874729.html</t>
+          <t>/news,002203,1250429394.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
+          <t>海亮股份11月23日被深股通减持4.21万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-23 00:13</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1249828364.html</t>
+          <t>/news,002203,1250421102.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1045</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
+          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-22 18:30</t>
+          <t>11-23 08:39</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1249733803.html</t>
+          <t>/news,002203,1249882116.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
+          <t>海亮股份11月22日被深股通减持29.7万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-22 18:01</t>
+          <t>11-23 07:46</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1249727743.html</t>
+          <t>/news,002203,1249874729.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>836</t>
+          <t>1456</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-23 00:13</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1249708456.html</t>
+          <t>/news,002203,1249828364.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
+          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-22 18:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1249708280.html</t>
+          <t>/news,002203,1249733803.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>824</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
+          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-22 18:01</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1249708150.html</t>
+          <t>/news,002203,1249727743.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>841</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
+          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1249355580.html</t>
+          <t>/news,002203,1249708456.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>844</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份11月21日获深股通增持13.24万股</t>
+          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1249347600.html</t>
+          <t>/news,002203,1249708280.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
+          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-21 14:00</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1249114151.html</t>
+          <t>/news,002203,1249708150.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-21 10:57</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1249017367.html</t>
+          <t>/news,002203,1249355580.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
+          <t>海亮股份11月21日获深股通增持13.24万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-21 10:09</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1249059951.html</t>
+          <t>/news,002203,1249347600.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>836</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
+          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,51 +1725,51 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-21 08:42</t>
+          <t>11-21 14:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1248870718.html</t>
+          <t>/news,002203,1249114151.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
+          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-21 10:57</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1248769900.html</t>
+          <t>/news,002203,1249017367.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
+          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 10:09</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1248763121.html</t>
+          <t>/news,002203,1249059951.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份11月18日获深股通增持12.96万股</t>
+          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,93 +1821,93 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-19 07:47</t>
+          <t>11-21 08:42</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1248637816.html</t>
+          <t>/news,002203,1248870718.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-18 18:06</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1248552209.html</t>
+          <t>/news,002203,1248769900.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
+          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1248512763.html</t>
+          <t>/news,002203,1248763121.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
+          <t>海亮股份11月18日获深股通增持12.96万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-19 07:47</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1248512666.html</t>
+          <t>/news,002203,1248637816.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>874</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
+          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-18 18:06</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1248512327.html</t>
+          <t>/news,002203,1248552209.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>575</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
+          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1248162901.html</t>
+          <t>/news,002203,1248512763.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
+          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-17 18:01</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1248042520.html</t>
+          <t>/news,002203,1248512666.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
+          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-17 08:41</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1247674915.html</t>
+          <t>/news,002203,1248512327.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份11月16日被深股通减持54.02万股</t>
+          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-17 07:33</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1247664706.html</t>
+          <t>/news,002203,1248162901.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>486</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
+          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-16 18:01</t>
+          <t>11-17 18:01</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1247541531.html</t>
+          <t>/news,002203,1248042520.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
+          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-16 14:08</t>
+          <t>11-17 08:41</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1247446516.html</t>
+          <t>/news,002203,1247674915.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
+          <t>海亮股份11月16日被深股通减持54.02万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-16 08:41</t>
+          <t>11-17 07:33</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1247182099.html</t>
+          <t>/news,002203,1247664706.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>海亮股份11月15日被深股通减持42.2万股</t>
+          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-16 07:46</t>
+          <t>11-16 18:01</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1247174778.html</t>
+          <t>/news,002203,1247541531.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-15 16:32</t>
+          <t>11-16 14:08</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1247048599.html</t>
+          <t>/news,002203,1247446516.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
+          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-15 08:46</t>
+          <t>11-16 08:41</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1246697605.html</t>
+          <t>/news,002203,1247182099.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>海亮股份11月14日获深股通增持20.87万股</t>
+          <t>海亮股份11月15日被深股通减持42.2万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-15 07:48</t>
+          <t>11-16 07:46</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1246689780.html</t>
+          <t>/news,002203,1247174778.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>839</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-15 16:32</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1246198626.html</t>
+          <t>/news,002203,1247048599.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-15 08:46</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1246196435.html</t>
+          <t>/news,002203,1246697605.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
+          <t>海亮股份11月14日获深股通增持20.87万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-15 07:48</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1246101667.html</t>
+          <t>/news,002203,1246689780.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-13 14:13</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1246094933.html</t>
+          <t>/news,002203,1246198626.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海亮股份11月11日被深股通减持56.81万股</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,51 +2461,51 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1245986384.html</t>
+          <t>/news,002203,1246196435.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
+          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-12 00:09</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1246096434.html</t>
+          <t>/news,002203,1246101667.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
+          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-11 18:28</t>
+          <t>11-13 14:13</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1245898758.html</t>
+          <t>/news,002203,1246094933.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
+          <t>海亮股份11月11日被深股通减持56.81万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-11 08:41</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1245422348.html</t>
+          <t>/news,002203,1245986384.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>海亮股份11月10日被深股通减持28.27万股</t>
+          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-11 07:54</t>
+          <t>11-12 00:09</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1245413580.html</t>
+          <t>/news,002203,1246096434.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>711</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
+          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-11 18:28</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1245274801.html</t>
+          <t>/news,002203,1245898758.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
+          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-11 08:41</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1244898603.html</t>
+          <t>/news,002203,1245422348.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份11月09日被深股通减持77.83万股</t>
+          <t>海亮股份11月10日被深股通减持28.27万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,51 +2685,51 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:54</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1244892219.html</t>
+          <t>/news,002203,1245413580.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
+          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-09 09:01</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1244438992.html</t>
+          <t>/news,002203,1245274801.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
+          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-09 08:47</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1244435978.html</t>
+          <t>/news,002203,1244898603.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海亮股份11月08日被深股通减持11.21万股</t>
+          <t>海亮股份11月09日被深股通减持77.83万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1244425901.html</t>
+          <t>/news,002203,1244892219.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>575</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
+          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-08 08:45</t>
+          <t>11-09 09:01</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1243982408.html</t>
+          <t>/news,002203,1244438992.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>海亮股份11月07日获深股通增持70.03万股</t>
+          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,12 +2845,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-08 07:41</t>
+          <t>11-09 08:47</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1243972851.html</t>
+          <t>/news,002203,1244435978.html</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
+          <t>海亮股份11月08日被深股通减持11.21万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1243512300.html</t>
+          <t>/news,002203,1244425901.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海亮股份：接受华福证券等机构调研</t>
+          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-07 06:29</t>
+          <t>11-08 08:45</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1243503533.html</t>
+          <t>/news,002203,1243982408.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1165.64万元，居有色金属板块第九</t>
+          <t>海亮股份11月07日获深股通增持70.03万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-06 15:09</t>
+          <t>11-08 07:41</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1243411409.html</t>
+          <t>/news,002203,1243972851.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少2227.69万元，居有色金属板块第一</t>
+          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1243404984.html</t>
+          <t>/news,002203,1243512300.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>706</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>海亮股份11月04日被深股通减持3.02万股</t>
+          <t>海亮股份：接受华福证券等机构调研</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-07 06:29</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1243317851.html</t>
+          <t>/news,002203,1243503533.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>99</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净偿还累计2272.74万元（12-07）</t>
+          <t>海亮股份：连续5日融资净偿还累计2314.72万元（12-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-08 08:47</t>
+          <t>12-09 09:02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1256765649.html</t>
+          <t>/news,002203,1257405331.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>114</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份12月07日获深股通增持20.82万股</t>
+          <t>海亮股份12月08日获深股通增持82.93万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-08 07:55</t>
+          <t>12-09 07:46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1256757264.html</t>
+          <t>/news,002203,1257392379.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份733.8万元（12-07）</t>
+          <t>大宗交易：机构账户买入海亮股份751.44万元（12-08）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-07 18:01</t>
+          <t>12-08 18:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1256553093.html</t>
+          <t>/news,002203,1257206478.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计2061.08万元（12-06）</t>
+          <t>海亮股份：连续4日融资净偿还累计2272.74万元（12-07）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-07 08:53</t>
+          <t>12-08 08:47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1256099796.html</t>
+          <t>/news,002203,1256765649.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海亮股份12月06日获深股通增持17.26万股</t>
+          <t>海亮股份12月07日获深股通增持20.82万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-07 07:45</t>
+          <t>12-08 07:55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1256090378.html</t>
+          <t>/news,002203,1256757264.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还421.93万元，融资余额13.95亿元（12-05）</t>
+          <t>大宗交易：机构账户买入海亮股份733.8万元（12-07）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-06 08:43</t>
+          <t>12-07 18:01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1255455903.html</t>
+          <t>/news,002203,1256553093.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海亮股份12月05日获深股通增持21.23万股</t>
+          <t>海亮股份：连续3日融资净偿还累计2061.08万元（12-06）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-06 07:47</t>
+          <t>12-07 08:53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1255447526.html</t>
+          <t>/news,002203,1256099796.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还562.65万元，融资余额13.99亿元（12-02）</t>
+          <t>海亮股份12月06日获深股通增持17.26万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-05 08:47</t>
+          <t>12-07 07:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1254802002.html</t>
+          <t>/news,002203,1256090378.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还725.8万元，居有色金属板块第十八</t>
+          <t>海亮股份：融资净偿还421.93万元，融资余额13.95亿元（12-05）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-04 15:09</t>
+          <t>12-06 08:43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1254651042.html</t>
+          <t>/news,002203,1255455903.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少127.27万元，居有色金属板块第十</t>
+          <t>海亮股份12月05日获深股通增持21.23万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-04 14:08</t>
+          <t>12-06 07:47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1254643873.html</t>
+          <t>/news,002203,1255447526.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份12月02日获深股通增持15.36万股</t>
+          <t>海亮股份：融资净偿还562.65万元，融资余额13.99亿元（12-02）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-03 07:57</t>
+          <t>12-05 08:47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1254513260.html</t>
+          <t>/news,002203,1254802002.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入69.49万元，融资余额14.05亿元（12-01）</t>
+          <t>海亮股份本周融资净偿还725.8万元，居有色金属板块第十八</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 08:44</t>
+          <t>12-04 15:09</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1253919500.html</t>
+          <t>/news,002203,1254651042.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份12月01日被深股通减持16.05万股</t>
+          <t>海亮股份本周深股通持股市值减少127.27万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 07:50</t>
+          <t>12-04 14:08</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1253913221.html</t>
+          <t>/news,002203,1254643873.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交279.31万元，成交价12.37元（12-01）</t>
+          <t>海亮股份12月02日获深股通增持15.36万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-01 18:00</t>
+          <t>12-03 07:57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1253756484.html</t>
+          <t>/news,002203,1254513260.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还723.29万元，融资余额14.04亿元（11-30）</t>
+          <t>海亮股份：融资净买入69.49万元，融资余额14.05亿元（12-01）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-01 08:40</t>
+          <t>12-02 08:44</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1253308454.html</t>
+          <t>/news,002203,1253919500.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海亮股份11月30日获深股通增持4.97万股</t>
+          <t>海亮股份12月01日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 07:48</t>
+          <t>12-02 07:50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1253301254.html</t>
+          <t>/news,002203,1253913221.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交473.74万元，成交价12.27元（11-30）</t>
+          <t>大宗交易：海亮股份成交279.31万元，成交价12.37元（12-01）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-30 18:00</t>
+          <t>12-01 18:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1253167473.html</t>
+          <t>/news,002203,1253756484.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还148.1万元，融资余额14.11亿元（11-29）</t>
+          <t>海亮股份：融资净偿还723.29万元，融资余额14.04亿元（11-30）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-30 08:42</t>
+          <t>12-01 08:40</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1252785027.html</t>
+          <t>/news,002203,1253308454.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份11月29日被深股通减持4.44万股</t>
+          <t>海亮股份11月30日获深股通增持4.97万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-01 07:48</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1252778237.html</t>
+          <t>/news,002203,1253301254.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入76.09万元，融资余额14.13亿元（11-28）</t>
+          <t>大宗交易：海亮股份成交473.74万元，成交价12.27元（11-30）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-29 08:45</t>
+          <t>11-30 18:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1252221825.html</t>
+          <t>/news,002203,1253167473.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海亮股份11月28日被深股通减持10.33万股</t>
+          <t>海亮股份：融资净偿还148.1万元，融资余额14.11亿元（11-29）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-29 07:43</t>
+          <t>11-30 08:42</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1252211538.html</t>
+          <t>/news,002203,1252785027.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份：在第五届中国国际进口博览会 浙江省重点进口平台推介会签约仪式上 签署了65亿元采购意向合同</t>
+          <t>海亮股份11月29日被深股通减持4.44万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-28 14:49</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1252020931.html</t>
+          <t>/news,002203,1252778237.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入86.48万元，融资余额14.12亿元（11-25）</t>
+          <t>海亮股份：融资净买入76.09万元，融资余额14.13亿元（11-28）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-28 08:43</t>
+          <t>11-29 08:45</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1251733579.html</t>
+          <t>/news,002203,1252221825.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,71 +1203,71 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1077.79万元，居有色金属板块第九</t>
+          <t>海亮股份11月28日被深股通减持10.33万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-27 15:26</t>
+          <t>11-29 07:43</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1251593930.html</t>
+          <t>/news,002203,1252211538.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>940</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少253.65万元，居有色金属板块第七</t>
+          <t>海亮股份：在第五届中国国际进口博览会 浙江省重点进口平台推介会签约仪式上 签署了65亿元采购意向合同</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-28 14:49</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1251584384.html</t>
+          <t>/news,002203,1252020931.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交991.38万元，成交价12.09元（11-25）</t>
+          <t>海亮股份：融资净买入86.48万元，融资余额14.12亿元（11-25）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-25 18:05</t>
+          <t>11-28 08:43</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1251306468.html</t>
+          <t>/news,002203,1251733579.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还401.78万元，融资余额14.11亿元（11-24）</t>
+          <t>海亮股份本周融资净偿还1077.79万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-25 08:44</t>
+          <t>11-27 15:26</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1250950068.html</t>
+          <t>/news,002203,1251593930.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,39 +1331,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
+          <t>海亮股份本周深股通持股市值减少253.65万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-24 08:51</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1250429394.html</t>
+          <t>/news,002203,1251584384.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>海亮股份11月23日被深股通减持4.21万股</t>
+          <t>大宗交易：海亮股份成交991.38万元，成交价12.09元（11-25）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-24 07:55</t>
+          <t>11-25 18:05</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1250421102.html</t>
+          <t>/news,002203,1251306468.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
+          <t>海亮股份：融资净偿还401.78万元，融资余额14.11亿元（11-24）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-23 08:39</t>
+          <t>11-25 08:44</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1249882116.html</t>
+          <t>/news,002203,1250950068.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>海亮股份11月22日被深股通减持29.7万股</t>
+          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-23 07:46</t>
+          <t>11-24 08:51</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1249874729.html</t>
+          <t>/news,002203,1250429394.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1456</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
+          <t>海亮股份11月23日被深股通减持4.21万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-23 00:13</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1249828364.html</t>
+          <t>/news,002203,1250421102.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
+          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-22 18:30</t>
+          <t>11-23 08:39</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1249733803.html</t>
+          <t>/news,002203,1249882116.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>824</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
+          <t>海亮股份11月22日被深股通减持29.7万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-22 18:01</t>
+          <t>11-23 07:46</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1249727743.html</t>
+          <t>/news,002203,1249874729.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>1467</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-23 00:13</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1249708456.html</t>
+          <t>/news,002203,1249828364.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
+          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-22 18:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1249708280.html</t>
+          <t>/news,002203,1249733803.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>828</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
+          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-22 18:01</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1249708150.html</t>
+          <t>/news,002203,1249727743.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>845</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
+          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1249355580.html</t>
+          <t>/news,002203,1249708456.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>850</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海亮股份11月21日获深股通增持13.24万股</t>
+          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1249347600.html</t>
+          <t>/news,002203,1249708280.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>836</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
+          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-21 14:00</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1249114151.html</t>
+          <t>/news,002203,1249708150.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-21 10:57</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1249017367.html</t>
+          <t>/news,002203,1249355580.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
+          <t>海亮股份11月21日获深股通增持13.24万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-21 10:09</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1249059951.html</t>
+          <t>/news,002203,1249347600.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>840</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
+          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,51 +1821,51 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-21 08:42</t>
+          <t>11-21 14:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1248870718.html</t>
+          <t>/news,002203,1249114151.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>499</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
+          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-21 10:57</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1248769900.html</t>
+          <t>/news,002203,1249017367.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
+          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 10:09</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1248763121.html</t>
+          <t>/news,002203,1249059951.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份11月18日获深股通增持12.96万股</t>
+          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,93 +1917,93 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-19 07:47</t>
+          <t>11-21 08:42</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1248637816.html</t>
+          <t>/news,002203,1248870718.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>874</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-18 18:06</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1248552209.html</t>
+          <t>/news,002203,1248769900.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
+          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1248512763.html</t>
+          <t>/news,002203,1248763121.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
+          <t>海亮股份11月18日获深股通增持12.96万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-19 07:47</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1248512666.html</t>
+          <t>/news,002203,1248637816.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>878</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
+          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-18 18:06</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1248512327.html</t>
+          <t>/news,002203,1248552209.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
+          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1248162901.html</t>
+          <t>/news,002203,1248512763.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
+          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-17 18:01</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1248042520.html</t>
+          <t>/news,002203,1248512666.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
+          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-17 08:41</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1247674915.html</t>
+          <t>/news,002203,1248512327.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份11月16日被深股通减持54.02万股</t>
+          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-17 07:33</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1247664706.html</t>
+          <t>/news,002203,1248162901.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
+          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-16 18:01</t>
+          <t>11-17 18:01</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1247541531.html</t>
+          <t>/news,002203,1248042520.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
+          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-16 14:08</t>
+          <t>11-17 08:41</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1247446516.html</t>
+          <t>/news,002203,1247674915.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
+          <t>海亮股份11月16日被深股通减持54.02万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-16 08:41</t>
+          <t>11-17 07:33</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1247182099.html</t>
+          <t>/news,002203,1247664706.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>海亮股份11月15日被深股通减持42.2万股</t>
+          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-16 07:46</t>
+          <t>11-16 18:01</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1247174778.html</t>
+          <t>/news,002203,1247541531.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-15 16:32</t>
+          <t>11-16 14:08</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1247048599.html</t>
+          <t>/news,002203,1247446516.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
+          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-15 08:46</t>
+          <t>11-16 08:41</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1246697605.html</t>
+          <t>/news,002203,1247182099.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份11月14日获深股通增持20.87万股</t>
+          <t>海亮股份11月15日被深股通减持42.2万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-15 07:48</t>
+          <t>11-16 07:46</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1246689780.html</t>
+          <t>/news,002203,1247174778.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>841</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-15 16:32</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1246198626.html</t>
+          <t>/news,002203,1247048599.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-15 08:46</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1246196435.html</t>
+          <t>/news,002203,1246697605.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
+          <t>海亮股份11月14日获深股通增持20.87万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-15 07:48</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1246101667.html</t>
+          <t>/news,002203,1246689780.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-13 14:13</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1246094933.html</t>
+          <t>/news,002203,1246198626.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份11月11日被深股通减持56.81万股</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,51 +2557,51 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1245986384.html</t>
+          <t>/news,002203,1246196435.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
+          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-12 00:09</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1246096434.html</t>
+          <t>/news,002203,1246101667.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
+          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-11 18:28</t>
+          <t>11-13 14:13</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1245898758.html</t>
+          <t>/news,002203,1246094933.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
+          <t>海亮股份11月11日被深股通减持56.81万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-11 08:41</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1245422348.html</t>
+          <t>/news,002203,1245986384.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份11月10日被深股通减持28.27万股</t>
+          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-11 07:54</t>
+          <t>11-12 00:09</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1245413580.html</t>
+          <t>/news,002203,1246096434.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>711</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
+          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-11 18:28</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1245274801.html</t>
+          <t>/news,002203,1245898758.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
+          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-11 08:41</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1244898603.html</t>
+          <t>/news,002203,1245422348.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海亮股份11月09日被深股通减持77.83万股</t>
+          <t>海亮股份11月10日被深股通减持28.27万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 07:54</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1244892219.html</t>
+          <t>/news,002203,1245413580.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
+          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-09 09:01</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1244438992.html</t>
+          <t>/news,002203,1245274801.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
+          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-09 08:47</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1244435978.html</t>
+          <t>/news,002203,1244898603.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海亮股份11月08日被深股通减持11.21万股</t>
+          <t>海亮股份11月09日被深股通减持77.83万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,51 +2877,51 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1244425901.html</t>
+          <t>/news,002203,1244892219.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>577</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
+          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-08 08:45</t>
+          <t>11-09 09:01</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1243982408.html</t>
+          <t>/news,002203,1244438992.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海亮股份11月07日获深股通增持70.03万股</t>
+          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-08 07:41</t>
+          <t>11-09 08:47</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1243972851.html</t>
+          <t>/news,002203,1244435978.html</t>
         </is>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计1510.35万元（11-04）</t>
+          <t>海亮股份11月08日被深股通减持11.21万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-09 07:37</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1243512300.html</t>
+          <t>/news,002203,1244425901.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>海亮股份：接受华福证券等机构调研</t>
+          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-07 06:29</t>
+          <t>11-08 08:45</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1243503533.html</t>
+          <t>/news,002203,1243982408.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>97</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：连续5日融资净偿还累计2314.72万元（12-08）</t>
+          <t>海亮股份：连续6日融资净偿还累计2371.93万元（12-09）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-09 09:02</t>
+          <t>12-12 08:50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1257405331.html</t>
+          <t>/news,002203,1258213227.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份12月08日获深股通增持82.93万股</t>
+          <t>海亮股份本周融资净偿还1752.07万元，居有色金属板块第六</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-09 07:46</t>
+          <t>12-11 15:08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1257392379.html</t>
+          <t>/news,002203,1258089871.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份751.44万元（12-08）</t>
+          <t>海亮股份本周深股通持股市值增加1858.33万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-08 18:00</t>
+          <t>12-11 14:06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1257206478.html</t>
+          <t>/news,002203,1258081963.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净偿还累计2272.74万元（12-07）</t>
+          <t>海亮股份12月09日获深股通增持9.87万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-08 08:47</t>
+          <t>12-10 07:55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1256765649.html</t>
+          <t>/news,002203,1257965683.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海亮股份12月07日获深股通增持20.82万股</t>
+          <t>海亮股份：连续5日融资净偿还累计2314.72万元（12-08）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-08 07:55</t>
+          <t>12-09 09:02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1256757264.html</t>
+          <t>/news,002203,1257405331.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份733.8万元（12-07）</t>
+          <t>海亮股份12月08日获深股通增持82.93万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-07 18:01</t>
+          <t>12-09 07:46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1256553093.html</t>
+          <t>/news,002203,1257392379.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计2061.08万元（12-06）</t>
+          <t>大宗交易：机构账户买入海亮股份751.44万元（12-08）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-07 08:53</t>
+          <t>12-08 18:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1256099796.html</t>
+          <t>/news,002203,1257206478.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份12月06日获深股通增持17.26万股</t>
+          <t>海亮股份：连续4日融资净偿还累计2272.74万元（12-07）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-07 07:45</t>
+          <t>12-08 08:47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1256090378.html</t>
+          <t>/news,002203,1256765649.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还421.93万元，融资余额13.95亿元（12-05）</t>
+          <t>海亮股份12月07日获深股通增持20.82万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-06 08:43</t>
+          <t>12-08 07:55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1255455903.html</t>
+          <t>/news,002203,1256757264.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份12月05日获深股通增持21.23万股</t>
+          <t>大宗交易：机构账户买入海亮股份733.8万元（12-07）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,12 +765,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-06 07:47</t>
+          <t>12-07 18:01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1255447526.html</t>
+          <t>/news,002203,1256553093.html</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还562.65万元，融资余额13.99亿元（12-02）</t>
+          <t>海亮股份：连续3日融资净偿还累计2061.08万元（12-06）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-05 08:47</t>
+          <t>12-07 08:53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1254802002.html</t>
+          <t>/news,002203,1256099796.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还725.8万元，居有色金属板块第十八</t>
+          <t>海亮股份12月06日获深股通增持17.26万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-04 15:09</t>
+          <t>12-07 07:45</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1254651042.html</t>
+          <t>/news,002203,1256090378.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,39 +851,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少127.27万元，居有色金属板块第十</t>
+          <t>海亮股份：融资净偿还421.93万元，融资余额13.95亿元（12-05）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-04 14:08</t>
+          <t>12-06 08:43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1254643873.html</t>
+          <t>/news,002203,1255455903.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海亮股份12月02日获深股通增持15.36万股</t>
+          <t>海亮股份12月05日获深股通增持21.23万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-03 07:57</t>
+          <t>12-06 07:47</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1254513260.html</t>
+          <t>/news,002203,1255447526.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入69.49万元，融资余额14.05亿元（12-01）</t>
+          <t>海亮股份：融资净偿还562.65万元，融资余额13.99亿元（12-02）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-02 08:44</t>
+          <t>12-05 08:47</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1253919500.html</t>
+          <t>/news,002203,1254802002.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,71 +947,71 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海亮股份12月01日被深股通减持16.05万股</t>
+          <t>海亮股份本周融资净偿还725.8万元，居有色金属板块第十八</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-02 07:50</t>
+          <t>12-04 15:09</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1253913221.html</t>
+          <t>/news,002203,1254651042.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交279.31万元，成交价12.37元（12-01）</t>
+          <t>海亮股份本周深股通持股市值减少127.27万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-01 18:00</t>
+          <t>12-04 14:08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1253756484.html</t>
+          <t>/news,002203,1254643873.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还723.29万元，融资余额14.04亿元（11-30）</t>
+          <t>海亮股份12月02日获深股通增持15.36万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-01 08:40</t>
+          <t>12-03 07:57</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1253308454.html</t>
+          <t>/news,002203,1254513260.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份11月30日获深股通增持4.97万股</t>
+          <t>海亮股份：融资净买入69.49万元，融资余额14.05亿元（12-01）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 07:48</t>
+          <t>12-02 08:44</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1253301254.html</t>
+          <t>/news,002203,1253919500.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交473.74万元，成交价12.27元（11-30）</t>
+          <t>海亮股份12月01日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-30 18:00</t>
+          <t>12-02 07:50</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1253167473.html</t>
+          <t>/news,002203,1253913221.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还148.1万元，融资余额14.11亿元（11-29）</t>
+          <t>大宗交易：海亮股份成交279.31万元，成交价12.37元（12-01）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-30 08:42</t>
+          <t>12-01 18:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1252785027.html</t>
+          <t>/news,002203,1253756484.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份11月29日被深股通减持4.44万股</t>
+          <t>海亮股份：融资净偿还723.29万元，融资余额14.04亿元（11-30）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-01 08:40</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1252778237.html</t>
+          <t>/news,002203,1253308454.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入76.09万元，融资余额14.13亿元（11-28）</t>
+          <t>海亮股份11月30日获深股通增持4.97万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-29 08:45</t>
+          <t>12-01 07:48</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1252221825.html</t>
+          <t>/news,002203,1253301254.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海亮股份11月28日被深股通减持10.33万股</t>
+          <t>大宗交易：海亮股份成交473.74万元，成交价12.27元（11-30）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-29 07:43</t>
+          <t>11-30 18:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1252211538.html</t>
+          <t>/news,002203,1253167473.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份：在第五届中国国际进口博览会 浙江省重点进口平台推介会签约仪式上 签署了65亿元采购意向合同</t>
+          <t>海亮股份：融资净偿还148.1万元，融资余额14.11亿元（11-29）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-28 14:49</t>
+          <t>11-30 08:42</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1252020931.html</t>
+          <t>/news,002203,1252785027.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入86.48万元，融资余额14.12亿元（11-25）</t>
+          <t>海亮股份11月29日被深股通减持4.44万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-28 08:43</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1251733579.html</t>
+          <t>/news,002203,1252778237.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1077.79万元，居有色金属板块第九</t>
+          <t>海亮股份：融资净买入76.09万元，融资余额14.13亿元（11-28）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-27 15:26</t>
+          <t>11-29 08:45</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1251593930.html</t>
+          <t>/news,002203,1252221825.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少253.65万元，居有色金属板块第七</t>
+          <t>海亮股份11月28日被深股通减持10.33万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-29 07:43</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1251584384.html</t>
+          <t>/news,002203,1252211538.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>964</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交991.38万元，成交价12.09元（11-25）</t>
+          <t>海亮股份：在第五届中国国际进口博览会 浙江省重点进口平台推介会签约仪式上 签署了65亿元采购意向合同</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-25 18:05</t>
+          <t>11-28 14:49</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1251306468.html</t>
+          <t>/news,002203,1252020931.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还401.78万元，融资余额14.11亿元（11-24）</t>
+          <t>海亮股份：融资净买入86.48万元，融资余额14.12亿元（11-25）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-25 08:44</t>
+          <t>11-28 08:43</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1250950068.html</t>
+          <t>/news,002203,1251733579.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
+          <t>海亮股份本周融资净偿还1077.79万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-24 08:51</t>
+          <t>11-27 15:26</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1250429394.html</t>
+          <t>/news,002203,1251593930.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份11月23日被深股通减持4.21万股</t>
+          <t>海亮股份本周深股通持股市值减少253.65万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-24 07:55</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1250421102.html</t>
+          <t>/news,002203,1251584384.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
+          <t>大宗交易：海亮股份成交991.38万元，成交价12.09元（11-25）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-23 08:39</t>
+          <t>11-25 18:05</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1249882116.html</t>
+          <t>/news,002203,1251306468.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海亮股份11月22日被深股通减持29.7万股</t>
+          <t>海亮股份：融资净偿还401.78万元，融资余额14.11亿元（11-24）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-23 07:46</t>
+          <t>11-25 08:44</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1249874729.html</t>
+          <t>/news,002203,1250950068.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1467</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
+          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-23 00:13</t>
+          <t>11-24 08:51</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1249828364.html</t>
+          <t>/news,002203,1250429394.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
+          <t>海亮股份11月23日被深股通减持4.21万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-22 18:30</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1249733803.html</t>
+          <t>/news,002203,1250421102.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
+          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-22 18:01</t>
+          <t>11-23 08:39</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1249727743.html</t>
+          <t>/news,002203,1249882116.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>海亮股份11月22日被深股通减持29.7万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-23 07:46</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1249708456.html</t>
+          <t>/news,002203,1249874729.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>1485</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
+          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-23 00:13</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1249708280.html</t>
+          <t>/news,002203,1249828364.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
+          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-22 18:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1249708150.html</t>
+          <t>/news,002203,1249733803.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>837</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
+          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-22 18:01</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1249355580.html</t>
+          <t>/news,002203,1249727743.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>854</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海亮股份11月21日获深股通增持13.24万股</t>
+          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1249347600.html</t>
+          <t>/news,002203,1249708456.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>861</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
+          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-21 14:00</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1249114151.html</t>
+          <t>/news,002203,1249708280.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-21 10:57</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1249017367.html</t>
+          <t>/news,002203,1249708150.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
+          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-21 10:09</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1249059951.html</t>
+          <t>/news,002203,1249355580.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
+          <t>海亮股份11月21日获深股通增持13.24万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,51 +1917,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-21 08:42</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1248870718.html</t>
+          <t>/news,002203,1249347600.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>848</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
+          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-21 14:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1248769900.html</t>
+          <t>/news,002203,1249114151.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>507</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
+          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 10:57</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1248763121.html</t>
+          <t>/news,002203,1249017367.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份11月18日获深股通增持12.96万股</t>
+          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-19 07:47</t>
+          <t>11-21 10:09</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1248637816.html</t>
+          <t>/news,002203,1249059951.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,83 +2045,83 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-18 18:06</t>
+          <t>11-21 08:42</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1248552209.html</t>
+          <t>/news,002203,1248870718.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
+          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1248512763.html</t>
+          <t>/news,002203,1248769900.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
+          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1248512666.html</t>
+          <t>/news,002203,1248763121.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
+          <t>海亮股份11月18日获深股通增持12.96万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-19 07:47</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1248512327.html</t>
+          <t>/news,002203,1248637816.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>884</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
+          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-18 18:06</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1248162901.html</t>
+          <t>/news,002203,1248552209.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
+          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-17 18:01</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1248042520.html</t>
+          <t>/news,002203,1248512763.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
+          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-17 08:41</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1247674915.html</t>
+          <t>/news,002203,1248512666.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>海亮股份11月16日被深股通减持54.02万股</t>
+          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-17 07:33</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1247664706.html</t>
+          <t>/news,002203,1248512327.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
+          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-16 18:01</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1247541531.html</t>
+          <t>/news,002203,1248162901.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
+          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-16 14:08</t>
+          <t>11-17 18:01</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1247446516.html</t>
+          <t>/news,002203,1248042520.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
+          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-16 08:41</t>
+          <t>11-17 08:41</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1247182099.html</t>
+          <t>/news,002203,1247674915.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份11月15日被深股通减持42.2万股</t>
+          <t>海亮股份11月16日被深股通减持54.02万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-16 07:46</t>
+          <t>11-17 07:33</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1247174778.html</t>
+          <t>/news,002203,1247664706.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-15 16:32</t>
+          <t>11-16 18:01</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1247048599.html</t>
+          <t>/news,002203,1247541531.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>739</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
+          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-15 08:46</t>
+          <t>11-16 14:08</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1246697605.html</t>
+          <t>/news,002203,1247446516.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海亮股份11月14日获深股通增持20.87万股</t>
+          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-15 07:48</t>
+          <t>11-16 08:41</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1246689780.html</t>
+          <t>/news,002203,1247182099.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份11月15日被深股通减持42.2万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-16 07:46</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1246198626.html</t>
+          <t>/news,002203,1247174778.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>844</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-15 16:32</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1246196435.html</t>
+          <t>/news,002203,1247048599.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
+          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-15 08:46</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1246101667.html</t>
+          <t>/news,002203,1246697605.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
+          <t>海亮股份11月14日获深股通增持20.87万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-13 14:13</t>
+          <t>11-15 07:48</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1246094933.html</t>
+          <t>/news,002203,1246689780.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份11月11日被深股通减持56.81万股</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1245986384.html</t>
+          <t>/news,002203,1246198626.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-12 00:09</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1246096434.html</t>
+          <t>/news,002203,1246196435.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
+          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-11 18:28</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1245898758.html</t>
+          <t>/news,002203,1246101667.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
+          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-11 08:41</t>
+          <t>11-13 14:13</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1245422348.html</t>
+          <t>/news,002203,1246094933.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海亮股份11月10日被深股通减持28.27万股</t>
+          <t>海亮股份11月11日被深股通减持56.81万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-11 07:54</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1245413580.html</t>
+          <t>/news,002203,1245986384.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
+          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-12 00:09</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1245274801.html</t>
+          <t>/news,002203,1246096434.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>713</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
+          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-11 18:28</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1244898603.html</t>
+          <t>/news,002203,1245898758.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海亮股份11月09日被深股通减持77.83万股</t>
+          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,51 +2877,51 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-11 08:41</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1244892219.html</t>
+          <t>/news,002203,1245422348.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>财通证券首次给予海亮股份增持评级 预计2022年净利润同比增长4.67%</t>
+          <t>海亮股份11月10日被深股通减持28.27万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-09 09:01</t>
+          <t>11-11 07:54</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1244438992.html</t>
+          <t>/news,002203,1245413580.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还167.54万元，融资余额13.47亿元（11-08）</t>
+          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-09 08:47</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1244435978.html</t>
+          <t>/news,002203,1245274801.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份11月08日被深股通减持11.21万股</t>
+          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-09 07:37</t>
+          <t>11-10 08:43</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1244425901.html</t>
+          <t>/news,002203,1244898603.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入83.29万元，融资余额13.49亿元（11-07）</t>
+          <t>海亮股份11月09日被深股通减持77.83万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-08 08:45</t>
+          <t>11-10 07:54</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1243982408.html</t>
+          <t>/news,002203,1244892219.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>95</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：连续6日融资净偿还累计2371.93万元（12-09）</t>
+          <t>海亮股份：融资净买入14.31万元，融资余额13.81亿元（12-12）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-12 08:50</t>
+          <t>12-13 08:50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1258213227.html</t>
+          <t>/news,002203,1258769105.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>106</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1752.07万元，居有色金属板块第六</t>
+          <t>海亮股份12月12日被深股通减持33.46万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-11 15:08</t>
+          <t>12-13 07:49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1258089871.html</t>
+          <t>/news,002203,1258761025.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加1858.33万元，居有色金属板块第十</t>
+          <t>海亮股份：连续6日融资净偿还累计2371.93万元（12-09）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-11 14:06</t>
+          <t>12-12 08:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1258081963.html</t>
+          <t>/news,002203,1258213227.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份12月09日获深股通增持9.87万股</t>
+          <t>海亮股份本周融资净偿还1752.07万元，居有色金属板块第六</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-10 07:55</t>
+          <t>12-11 15:08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1257965683.html</t>
+          <t>/news,002203,1258089871.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海亮股份：连续5日融资净偿还累计2314.72万元（12-08）</t>
+          <t>海亮股份本周深股通持股市值增加1858.33万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-09 09:02</t>
+          <t>12-11 14:06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1257405331.html</t>
+          <t>/news,002203,1258081963.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海亮股份12月08日获深股通增持82.93万股</t>
+          <t>海亮股份12月09日获深股通增持9.87万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-09 07:46</t>
+          <t>12-10 07:55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1257392379.html</t>
+          <t>/news,002203,1257965683.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份751.44万元（12-08）</t>
+          <t>海亮股份：连续5日融资净偿还累计2314.72万元（12-08）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-08 18:00</t>
+          <t>12-09 09:02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1257206478.html</t>
+          <t>/news,002203,1257405331.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净偿还累计2272.74万元（12-07）</t>
+          <t>海亮股份12月08日获深股通增持82.93万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-08 08:47</t>
+          <t>12-09 07:46</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1256765649.html</t>
+          <t>/news,002203,1257392379.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海亮股份12月07日获深股通增持20.82万股</t>
+          <t>大宗交易：机构账户买入海亮股份751.44万元（12-08）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-08 07:55</t>
+          <t>12-08 18:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1256757264.html</t>
+          <t>/news,002203,1257206478.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份733.8万元（12-07）</t>
+          <t>海亮股份：连续4日融资净偿还累计2272.74万元（12-07）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-07 18:01</t>
+          <t>12-08 08:47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1256553093.html</t>
+          <t>/news,002203,1256765649.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计2061.08万元（12-06）</t>
+          <t>海亮股份12月07日获深股通增持20.82万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-07 08:53</t>
+          <t>12-08 07:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1256099796.html</t>
+          <t>/news,002203,1256757264.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海亮股份12月06日获深股通增持17.26万股</t>
+          <t>大宗交易：机构账户买入海亮股份733.8万元（12-07）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-07 07:45</t>
+          <t>12-07 18:01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1256090378.html</t>
+          <t>/news,002203,1256553093.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还421.93万元，融资余额13.95亿元（12-05）</t>
+          <t>海亮股份：连续3日融资净偿还累计2061.08万元（12-06）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,12 +861,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-06 08:43</t>
+          <t>12-07 08:53</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1255455903.html</t>
+          <t>/news,002203,1256099796.html</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海亮股份12月05日获深股通增持21.23万股</t>
+          <t>海亮股份12月06日获深股通增持17.26万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-06 07:47</t>
+          <t>12-07 07:45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1255447526.html</t>
+          <t>/news,002203,1256090378.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还562.65万元，融资余额13.99亿元（12-02）</t>
+          <t>海亮股份：融资净偿还421.93万元，融资余额13.95亿元（12-05）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-05 08:47</t>
+          <t>12-06 08:43</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1254802002.html</t>
+          <t>/news,002203,1255455903.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还725.8万元，居有色金属板块第十八</t>
+          <t>海亮股份12月05日获深股通增持21.23万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-04 15:09</t>
+          <t>12-06 07:47</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1254651042.html</t>
+          <t>/news,002203,1255447526.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,61 +979,61 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少127.27万元，居有色金属板块第十</t>
+          <t>海亮股份：融资净偿还562.65万元，融资余额13.99亿元（12-02）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-04 14:08</t>
+          <t>12-05 08:47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1254643873.html</t>
+          <t>/news,002203,1254802002.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海亮股份12月02日获深股通增持15.36万股</t>
+          <t>海亮股份本周融资净偿还725.8万元，居有色金属板块第十八</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-03 07:57</t>
+          <t>12-04 15:09</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1254513260.html</t>
+          <t>/news,002203,1254651042.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,39 +1043,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入69.49万元，融资余额14.05亿元（12-01）</t>
+          <t>海亮股份本周深股通持股市值减少127.27万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-02 08:44</t>
+          <t>12-04 14:08</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1253919500.html</t>
+          <t>/news,002203,1254643873.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份12月01日被深股通减持16.05万股</t>
+          <t>海亮股份12月02日获深股通增持15.36万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-02 07:50</t>
+          <t>12-03 07:57</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1253913221.html</t>
+          <t>/news,002203,1254513260.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交279.31万元，成交价12.37元（12-01）</t>
+          <t>海亮股份：融资净买入69.49万元，融资余额14.05亿元（12-01）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 18:00</t>
+          <t>12-02 08:44</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1253756484.html</t>
+          <t>/news,002203,1253919500.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还723.29万元，融资余额14.04亿元（11-30）</t>
+          <t>海亮股份12月01日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 08:40</t>
+          <t>12-02 07:50</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1253308454.html</t>
+          <t>/news,002203,1253913221.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海亮股份11月30日获深股通增持4.97万股</t>
+          <t>大宗交易：海亮股份成交279.31万元，成交价12.37元（12-01）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 07:48</t>
+          <t>12-01 18:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1253301254.html</t>
+          <t>/news,002203,1253756484.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交473.74万元，成交价12.27元（11-30）</t>
+          <t>海亮股份：融资净偿还723.29万元，融资余额14.04亿元（11-30）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-30 18:00</t>
+          <t>12-01 08:40</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1253167473.html</t>
+          <t>/news,002203,1253308454.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还148.1万元，融资余额14.11亿元（11-29）</t>
+          <t>海亮股份11月30日获深股通增持4.97万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-30 08:42</t>
+          <t>12-01 07:48</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1252785027.html</t>
+          <t>/news,002203,1253301254.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>海亮股份11月29日被深股通减持4.44万股</t>
+          <t>大宗交易：海亮股份成交473.74万元，成交价12.27元（11-30）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>11-30 18:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1252778237.html</t>
+          <t>/news,002203,1253167473.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入76.09万元，融资余额14.13亿元（11-28）</t>
+          <t>海亮股份：融资净偿还148.1万元，融资余额14.11亿元（11-29）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-29 08:45</t>
+          <t>11-30 08:42</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1252221825.html</t>
+          <t>/news,002203,1252785027.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份11月28日被深股通减持10.33万股</t>
+          <t>海亮股份11月29日被深股通减持4.44万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-29 07:43</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1252211538.html</t>
+          <t>/news,002203,1252778237.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>海亮股份：在第五届中国国际进口博览会 浙江省重点进口平台推介会签约仪式上 签署了65亿元采购意向合同</t>
+          <t>海亮股份：融资净买入76.09万元，融资余额14.13亿元（11-28）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-28 14:49</t>
+          <t>11-29 08:45</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1252020931.html</t>
+          <t>/news,002203,1252221825.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入86.48万元，融资余额14.12亿元（11-25）</t>
+          <t>海亮股份11月28日被深股通减持10.33万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,51 +1405,51 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-28 08:43</t>
+          <t>11-29 07:43</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1251733579.html</t>
+          <t>/news,002203,1252211538.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>971</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1077.79万元，居有色金属板块第九</t>
+          <t>海亮股份：在第五届中国国际进口博览会 浙江省重点进口平台推介会签约仪式上 签署了65亿元采购意向合同</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-27 15:26</t>
+          <t>11-28 14:49</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1251593930.html</t>
+          <t>/news,002203,1252020931.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,61 +1459,61 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少253.65万元，居有色金属板块第七</t>
+          <t>海亮股份：融资净买入86.48万元，融资余额14.12亿元（11-25）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-28 08:43</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1251584384.html</t>
+          <t>/news,002203,1251733579.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交991.38万元，成交价12.09元（11-25）</t>
+          <t>海亮股份本周融资净偿还1077.79万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-25 18:05</t>
+          <t>11-27 15:26</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1251306468.html</t>
+          <t>/news,002203,1251593930.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,39 +1523,39 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还401.78万元，融资余额14.11亿元（11-24）</t>
+          <t>海亮股份本周深股通持股市值减少253.65万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-25 08:44</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1250950068.html</t>
+          <t>/news,002203,1251584384.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
+          <t>大宗交易：海亮股份成交991.38万元，成交价12.09元（11-25）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-24 08:51</t>
+          <t>11-25 18:05</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1250429394.html</t>
+          <t>/news,002203,1251306468.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份11月23日被深股通减持4.21万股</t>
+          <t>海亮股份：融资净偿还401.78万元，融资余额14.11亿元（11-24）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-24 07:55</t>
+          <t>11-25 08:44</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1250421102.html</t>
+          <t>/news,002203,1250950068.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
+          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-23 08:39</t>
+          <t>11-24 08:51</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1249882116.html</t>
+          <t>/news,002203,1250429394.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份11月22日被深股通减持29.7万股</t>
+          <t>海亮股份11月23日被深股通减持4.21万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-23 07:46</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1249874729.html</t>
+          <t>/news,002203,1250421102.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1485</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
+          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-23 00:13</t>
+          <t>11-23 08:39</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1249828364.html</t>
+          <t>/news,002203,1249882116.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
+          <t>海亮股份11月22日被深股通减持29.7万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-22 18:30</t>
+          <t>11-23 07:46</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1249733803.html</t>
+          <t>/news,002203,1249874729.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>1492</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
+          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-22 18:01</t>
+          <t>11-23 00:13</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1249727743.html</t>
+          <t>/news,002203,1249828364.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-22 18:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1249708456.html</t>
+          <t>/news,002203,1249733803.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>837</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
+          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-22 18:01</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1249708280.html</t>
+          <t>/news,002203,1249727743.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>856</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
+          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1858,24 +1858,24 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1249708150.html</t>
+          <t>/news,002203,1249708456.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>861</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
+          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1249355580.html</t>
+          <t>/news,002203,1249708280.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份11月21日获深股通增持13.24万股</t>
+          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1249347600.html</t>
+          <t>/news,002203,1249708150.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>848</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
+          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-21 14:00</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1249114151.html</t>
+          <t>/news,002203,1249355580.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份11月21日获深股通增持13.24万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-21 10:57</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1249017367.html</t>
+          <t>/news,002203,1249347600.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>849</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
+          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-21 10:09</t>
+          <t>11-21 14:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1249059951.html</t>
+          <t>/news,002203,1249114151.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>508</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
+          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,51 +2045,51 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-21 08:42</t>
+          <t>11-21 10:57</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1248870718.html</t>
+          <t>/news,002203,1249017367.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
+          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-21 10:09</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1248769900.html</t>
+          <t>/news,002203,1249059951.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,103 +2099,103 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
+          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:42</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1248763121.html</t>
+          <t>/news,002203,1248870718.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份11月18日获深股通增持12.96万股</t>
+          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-19 07:47</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1248637816.html</t>
+          <t>/news,002203,1248769900.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-18 18:06</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1248552209.html</t>
+          <t>/news,002203,1248763121.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
+          <t>海亮股份11月18日获深股通增持12.96万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-19 07:47</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1248512763.html</t>
+          <t>/news,002203,1248637816.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>885</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
+          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-18 18:06</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1248512666.html</t>
+          <t>/news,002203,1248552209.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
+          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2274,24 +2274,24 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1248512327.html</t>
+          <t>/news,002203,1248512763.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
+          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1248162901.html</t>
+          <t>/news,002203,1248512666.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
+          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-17 18:01</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1248042520.html</t>
+          <t>/news,002203,1248512327.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
+          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-17 08:41</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1247674915.html</t>
+          <t>/news,002203,1248162901.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份11月16日被深股通减持54.02万股</t>
+          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-17 07:33</t>
+          <t>11-17 18:01</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1247664706.html</t>
+          <t>/news,002203,1248042520.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
+          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-16 18:01</t>
+          <t>11-17 08:41</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1247541531.html</t>
+          <t>/news,002203,1247674915.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
+          <t>海亮股份11月16日被深股通减持54.02万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-16 14:08</t>
+          <t>11-17 07:33</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1247446516.html</t>
+          <t>/news,002203,1247664706.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
+          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-16 08:41</t>
+          <t>11-16 18:01</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1247182099.html</t>
+          <t>/news,002203,1247541531.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>739</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>海亮股份11月15日被深股通减持42.2万股</t>
+          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-16 07:46</t>
+          <t>11-16 14:08</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1247174778.html</t>
+          <t>/news,002203,1247446516.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-15 16:32</t>
+          <t>11-16 08:41</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1247048599.html</t>
+          <t>/news,002203,1247182099.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
+          <t>海亮股份11月15日被深股通减持42.2万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-15 08:46</t>
+          <t>11-16 07:46</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1246697605.html</t>
+          <t>/news,002203,1247174778.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>844</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>海亮股份11月14日获深股通增持20.87万股</t>
+          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-15 07:48</t>
+          <t>11-15 16:32</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1246689780.html</t>
+          <t>/news,002203,1247048599.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-15 08:46</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1246198626.html</t>
+          <t>/news,002203,1246697605.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份11月14日获深股通增持20.87万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-15 07:48</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1246196435.html</t>
+          <t>/news,002203,1246689780.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1246101667.html</t>
+          <t>/news,002203,1246198626.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-13 14:13</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1246094933.html</t>
+          <t>/news,002203,1246196435.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,61 +2771,61 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海亮股份11月11日被深股通减持56.81万股</t>
+          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1245986384.html</t>
+          <t>/news,002203,1246101667.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
+          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-12 00:09</t>
+          <t>11-13 14:13</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1246096434.html</t>
+          <t>/news,002203,1246094933.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
+          <t>海亮股份11月11日被深股通减持56.81万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-11 18:28</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1245898758.html</t>
+          <t>/news,002203,1245986384.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
+          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-11 08:41</t>
+          <t>11-12 00:09</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1245422348.html</t>
+          <t>/news,002203,1246096434.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>713</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海亮股份11月10日被深股通减持28.27万股</t>
+          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-11 07:54</t>
+          <t>11-11 18:28</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1245413580.html</t>
+          <t>/news,002203,1245898758.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
+          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-11 08:41</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1245274801.html</t>
+          <t>/news,002203,1245422348.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入68.29万元，融资余额13.48亿元（11-09）</t>
+          <t>海亮股份11月10日被深股通减持28.27万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-10 08:43</t>
+          <t>11-11 07:54</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1244898603.html</t>
+          <t>/news,002203,1245413580.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>海亮股份11月09日被深股通减持77.83万股</t>
+          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-10 07:54</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1244892219.html</t>
+          <t>/news,002203,1245274801.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>94</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入14.31万元，融资余额13.81亿元（12-12）</t>
+          <t>海亮股份：融资净偿还2329.36万元，融资余额13.58亿元（12-13）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-13 08:50</t>
+          <t>12-14 08:55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1258769105.html</t>
+          <t>/news,002203,1259355567.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>101</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份12月12日被深股通减持33.46万股</t>
+          <t>海亮股份12月13日被深股通减持9.21万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-13 07:49</t>
+          <t>12-14 07:56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1258761025.html</t>
+          <t>/news,002203,1259348018.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海亮股份：连续6日融资净偿还累计2371.93万元（12-09）</t>
+          <t>大宗交易：海亮股份成交1.99亿元，折价0.41%（12-13）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-12 08:50</t>
+          <t>12-13 18:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1258213227.html</t>
+          <t>/news,002203,1259133205.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1752.07万元，居有色金属板块第六</t>
+          <t>海亮股份：融资净买入14.31万元，融资余额13.81亿元（12-12）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-11 15:08</t>
+          <t>12-13 08:50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1258089871.html</t>
+          <t>/news,002203,1258769105.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加1858.33万元，居有色金属板块第十</t>
+          <t>海亮股份12月12日被深股通减持33.46万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-11 14:06</t>
+          <t>12-13 07:49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1258081963.html</t>
+          <t>/news,002203,1258761025.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海亮股份12月09日获深股通增持9.87万股</t>
+          <t>海亮股份：连续6日融资净偿还累计2371.93万元（12-09）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-10 07:55</t>
+          <t>12-12 08:50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1257965683.html</t>
+          <t>/news,002203,1258213227.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海亮股份：连续5日融资净偿还累计2314.72万元（12-08）</t>
+          <t>海亮股份本周融资净偿还1752.07万元，居有色金属板块第六</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-09 09:02</t>
+          <t>12-11 15:08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1257405331.html</t>
+          <t>/news,002203,1258089871.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份12月08日获深股通增持82.93万股</t>
+          <t>海亮股份本周深股通持股市值增加1858.33万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-09 07:46</t>
+          <t>12-11 14:06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1257392379.html</t>
+          <t>/news,002203,1258081963.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份751.44万元（12-08）</t>
+          <t>海亮股份12月09日获深股通增持9.87万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-08 18:00</t>
+          <t>12-10 07:55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1257206478.html</t>
+          <t>/news,002203,1257965683.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净偿还累计2272.74万元（12-07）</t>
+          <t>海亮股份：连续5日融资净偿还累计2314.72万元（12-08）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-08 08:47</t>
+          <t>12-09 09:02</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1256765649.html</t>
+          <t>/news,002203,1257405331.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份12月07日获深股通增持20.82万股</t>
+          <t>海亮股份12月08日获深股通增持82.93万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-08 07:55</t>
+          <t>12-09 07:46</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1256757264.html</t>
+          <t>/news,002203,1257392379.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份733.8万元（12-07）</t>
+          <t>大宗交易：机构账户买入海亮股份751.44万元（12-08）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-07 18:01</t>
+          <t>12-08 18:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1256553093.html</t>
+          <t>/news,002203,1257206478.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计2061.08万元（12-06）</t>
+          <t>海亮股份：连续4日融资净偿还累计2272.74万元（12-07）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-07 08:53</t>
+          <t>12-08 08:47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1256099796.html</t>
+          <t>/news,002203,1256765649.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海亮股份12月06日获深股通增持17.26万股</t>
+          <t>海亮股份12月07日获深股通增持20.82万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-07 07:45</t>
+          <t>12-08 07:55</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1256090378.html</t>
+          <t>/news,002203,1256757264.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还421.93万元，融资余额13.95亿元（12-05）</t>
+          <t>大宗交易：机构账户买入海亮股份733.8万元（12-07）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-06 08:43</t>
+          <t>12-07 18:01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1255455903.html</t>
+          <t>/news,002203,1256553093.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海亮股份12月05日获深股通增持21.23万股</t>
+          <t>海亮股份：连续3日融资净偿还累计2061.08万元（12-06）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-06 07:47</t>
+          <t>12-07 08:53</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1255447526.html</t>
+          <t>/news,002203,1256099796.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还562.65万元，融资余额13.99亿元（12-02）</t>
+          <t>海亮股份12月06日获深股通增持17.26万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-05 08:47</t>
+          <t>12-07 07:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1254802002.html</t>
+          <t>/news,002203,1256090378.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还725.8万元，居有色金属板块第十八</t>
+          <t>海亮股份：融资净偿还421.93万元，融资余额13.95亿元（12-05）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-04 15:09</t>
+          <t>12-06 08:43</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1254651042.html</t>
+          <t>/news,002203,1255455903.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,39 +1043,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少127.27万元，居有色金属板块第十</t>
+          <t>海亮股份12月05日获深股通增持21.23万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-04 14:08</t>
+          <t>12-06 07:47</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1254643873.html</t>
+          <t>/news,002203,1255447526.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份12月02日获深股通增持15.36万股</t>
+          <t>海亮股份：融资净偿还562.65万元，融资余额13.99亿元（12-02）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-03 07:57</t>
+          <t>12-05 08:47</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1254513260.html</t>
+          <t>/news,002203,1254802002.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入69.49万元，融资余额14.05亿元（12-01）</t>
+          <t>海亮股份本周融资净偿还725.8万元，居有色金属板块第十八</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-02 08:44</t>
+          <t>12-04 15:09</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1253919500.html</t>
+          <t>/news,002203,1254651042.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份12月01日被深股通减持16.05万股</t>
+          <t>海亮股份本周深股通持股市值减少127.27万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-02 07:50</t>
+          <t>12-04 14:08</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1253913221.html</t>
+          <t>/news,002203,1254643873.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交279.31万元，成交价12.37元（12-01）</t>
+          <t>海亮股份12月02日获深股通增持15.36万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,12 +1181,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 18:00</t>
+          <t>12-03 07:57</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1253756484.html</t>
+          <t>/news,002203,1254513260.html</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还723.29万元，融资余额14.04亿元（11-30）</t>
+          <t>海亮股份：融资净买入69.49万元，融资余额14.05亿元（12-01）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 08:40</t>
+          <t>12-02 08:44</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1253308454.html</t>
+          <t>/news,002203,1253919500.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份11月30日获深股通增持4.97万股</t>
+          <t>海亮股份12月01日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-01 07:48</t>
+          <t>12-02 07:50</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1253301254.html</t>
+          <t>/news,002203,1253913221.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交473.74万元，成交价12.27元（11-30）</t>
+          <t>大宗交易：海亮股份成交279.31万元，成交价12.37元（12-01）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-30 18:00</t>
+          <t>12-01 18:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1253167473.html</t>
+          <t>/news,002203,1253756484.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还148.1万元，融资余额14.11亿元（11-29）</t>
+          <t>海亮股份：融资净偿还723.29万元，融资余额14.04亿元（11-30）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-30 08:42</t>
+          <t>12-01 08:40</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1252785027.html</t>
+          <t>/news,002203,1253308454.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份11月29日被深股通减持4.44万股</t>
+          <t>海亮股份11月30日获深股通增持4.97万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-01 07:48</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1252778237.html</t>
+          <t>/news,002203,1253301254.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入76.09万元，融资余额14.13亿元（11-28）</t>
+          <t>大宗交易：海亮股份成交473.74万元，成交价12.27元（11-30）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-29 08:45</t>
+          <t>11-30 18:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1252221825.html</t>
+          <t>/news,002203,1253167473.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份11月28日被深股通减持10.33万股</t>
+          <t>海亮股份：融资净偿还148.1万元，融资余额14.11亿元（11-29）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-29 07:43</t>
+          <t>11-30 08:42</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1252211538.html</t>
+          <t>/news,002203,1252785027.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>971</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>海亮股份：在第五届中国国际进口博览会 浙江省重点进口平台推介会签约仪式上 签署了65亿元采购意向合同</t>
+          <t>海亮股份11月29日被深股通减持4.44万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-28 14:49</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1252020931.html</t>
+          <t>/news,002203,1252778237.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入86.48万元，融资余额14.12亿元（11-25）</t>
+          <t>海亮股份：融资净买入76.09万元，融资余额14.13亿元（11-28）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-28 08:43</t>
+          <t>11-29 08:45</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1251733579.html</t>
+          <t>/news,002203,1252221825.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,71 +1491,71 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1077.79万元，居有色金属板块第九</t>
+          <t>海亮股份11月28日被深股通减持10.33万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-27 15:26</t>
+          <t>11-29 07:43</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1251593930.html</t>
+          <t>/news,002203,1252211538.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>979</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少253.65万元，居有色金属板块第七</t>
+          <t>海亮股份：在第五届中国国际进口博览会 浙江省重点进口平台推介会签约仪式上 签署了65亿元采购意向合同</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-28 14:49</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1251584384.html</t>
+          <t>/news,002203,1252020931.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交991.38万元，成交价12.09元（11-25）</t>
+          <t>海亮股份：融资净买入86.48万元，融资余额14.12亿元（11-25）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-25 18:05</t>
+          <t>11-28 08:43</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1251306468.html</t>
+          <t>/news,002203,1251733579.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还401.78万元，融资余额14.11亿元（11-24）</t>
+          <t>海亮股份本周融资净偿还1077.79万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-25 08:44</t>
+          <t>11-27 15:26</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1250950068.html</t>
+          <t>/news,002203,1251593930.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,39 +1619,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
+          <t>海亮股份本周深股通持股市值减少253.65万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-24 08:51</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1250429394.html</t>
+          <t>/news,002203,1251584384.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份11月23日被深股通减持4.21万股</t>
+          <t>大宗交易：海亮股份成交991.38万元，成交价12.09元（11-25）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-24 07:55</t>
+          <t>11-25 18:05</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1250421102.html</t>
+          <t>/news,002203,1251306468.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
+          <t>海亮股份：融资净偿还401.78万元，融资余额14.11亿元（11-24）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-23 08:39</t>
+          <t>11-25 08:44</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1249882116.html</t>
+          <t>/news,002203,1250950068.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海亮股份11月22日被深股通减持29.7万股</t>
+          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-23 07:46</t>
+          <t>11-24 08:51</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1249874729.html</t>
+          <t>/news,002203,1250429394.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1492</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
+          <t>海亮股份11月23日被深股通减持4.21万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-23 00:13</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1249828364.html</t>
+          <t>/news,002203,1250421102.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1068</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
+          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-22 18:30</t>
+          <t>11-23 08:39</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1249733803.html</t>
+          <t>/news,002203,1249882116.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
+          <t>海亮股份11月22日被深股通减持29.7万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-22 18:01</t>
+          <t>11-23 07:46</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1249727743.html</t>
+          <t>/news,002203,1249874729.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>1496</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-23 00:13</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1249708456.html</t>
+          <t>/news,002203,1249828364.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>1070</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
+          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-22 18:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1249708280.html</t>
+          <t>/news,002203,1249733803.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>850</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
+          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-22 18:01</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1249708150.html</t>
+          <t>/news,002203,1249727743.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>858</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
+          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1249355580.html</t>
+          <t>/news,002203,1249708456.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>862</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海亮股份11月21日获深股通增持13.24万股</t>
+          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1249347600.html</t>
+          <t>/news,002203,1249708280.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
+          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-21 14:00</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1249114151.html</t>
+          <t>/news,002203,1249708150.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-21 10:57</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1249017367.html</t>
+          <t>/news,002203,1249355580.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
+          <t>海亮股份11月21日获深股通增持13.24万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-21 10:09</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1249059951.html</t>
+          <t>/news,002203,1249347600.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>851</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
+          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,51 +2109,51 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-21 08:42</t>
+          <t>11-21 14:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1248870718.html</t>
+          <t>/news,002203,1249114151.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
+          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-21 10:57</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1248769900.html</t>
+          <t>/news,002203,1249017367.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
+          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 10:09</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1248763121.html</t>
+          <t>/news,002203,1249059951.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>海亮股份11月18日获深股通增持12.96万股</t>
+          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,93 +2205,93 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-19 07:47</t>
+          <t>11-21 08:42</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1248637816.html</t>
+          <t>/news,002203,1248870718.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-18 18:06</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1248552209.html</t>
+          <t>/news,002203,1248769900.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
+          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1248512763.html</t>
+          <t>/news,002203,1248763121.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
+          <t>海亮股份11月18日获深股通增持12.96万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-19 07:47</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1248512666.html</t>
+          <t>/news,002203,1248637816.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>886</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
+          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-18 18:06</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1248512327.html</t>
+          <t>/news,002203,1248552209.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
+          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1248162901.html</t>
+          <t>/news,002203,1248512763.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
+          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-17 18:01</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1248042520.html</t>
+          <t>/news,002203,1248512666.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>473</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
+          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-17 08:41</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1247674915.html</t>
+          <t>/news,002203,1248512327.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海亮股份11月16日被深股通减持54.02万股</t>
+          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-17 07:33</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1247664706.html</t>
+          <t>/news,002203,1248162901.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>504</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
+          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-16 18:01</t>
+          <t>11-17 18:01</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1247541531.html</t>
+          <t>/news,002203,1248042520.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
+          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-16 14:08</t>
+          <t>11-17 08:41</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1247446516.html</t>
+          <t>/news,002203,1247674915.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
+          <t>海亮股份11月16日被深股通减持54.02万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-16 08:41</t>
+          <t>11-17 07:33</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1247182099.html</t>
+          <t>/news,002203,1247664706.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>499</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>海亮股份11月15日被深股通减持42.2万股</t>
+          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-16 07:46</t>
+          <t>11-16 18:01</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1247174778.html</t>
+          <t>/news,002203,1247541531.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>739</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-15 16:32</t>
+          <t>11-16 14:08</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1247048599.html</t>
+          <t>/news,002203,1247446516.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
+          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-15 08:46</t>
+          <t>11-16 08:41</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1246697605.html</t>
+          <t>/news,002203,1247182099.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份11月14日获深股通增持20.87万股</t>
+          <t>海亮股份11月15日被深股通减持42.2万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-15 07:48</t>
+          <t>11-16 07:46</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1246689780.html</t>
+          <t>/news,002203,1247174778.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>844</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-15 16:32</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1246198626.html</t>
+          <t>/news,002203,1247048599.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-15 08:46</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1246196435.html</t>
+          <t>/news,002203,1246697605.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
+          <t>海亮股份11月14日获深股通增持20.87万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-15 07:48</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1246101667.html</t>
+          <t>/news,002203,1246689780.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-13 14:13</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1246094933.html</t>
+          <t>/news,002203,1246198626.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>海亮股份11月11日被深股通减持56.81万股</t>
+          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,51 +2845,51 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1245986384.html</t>
+          <t>/news,002203,1246196435.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
+          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-12 00:09</t>
+          <t>11-13 15:15</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1246096434.html</t>
+          <t>/news,002203,1246101667.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
+          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-11 18:28</t>
+          <t>11-13 14:13</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1245898758.html</t>
+          <t>/news,002203,1246094933.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入558.3万元，融资余额13.53亿元（11-10）</t>
+          <t>海亮股份11月11日被深股通减持56.81万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-11 08:41</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1245422348.html</t>
+          <t>/news,002203,1245986384.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份11月10日被深股通减持28.27万股</t>
+          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-11 07:54</t>
+          <t>11-12 00:09</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1245413580.html</t>
+          <t>/news,002203,1246096434.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>714</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份627.48万元（11-10）</t>
+          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-11 18:28</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1245274801.html</t>
+          <t>/news,002203,1245898758.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还2329.36万元，融资余额13.58亿元（12-13）</t>
+          <t>海亮股份：融资净买入69.71万元，融资余额13.48亿元（12-19）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-14 08:55</t>
+          <t>12-20 08:46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1259355567.html</t>
+          <t>/news,002203,1261730823.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份12月13日被深股通减持9.21万股</t>
+          <t>海亮股份12月19日被深股通减持30.77万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-14 07:56</t>
+          <t>12-20 07:46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1259348018.html</t>
+          <t>/news,002203,1261723751.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1.99亿元，折价0.41%（12-13）</t>
+          <t>大宗交易：机构账户买入海亮股份453.96万元（12-19）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-13 18:00</t>
+          <t>12-19 18:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1259133205.html</t>
+          <t>/news,002203,1261565503.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入14.31万元，融资余额13.81亿元（12-12）</t>
+          <t>海亮股份：连续4日融资净偿还累计3366.17万元（12-16）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-13 08:50</t>
+          <t>12-19 09:02</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1258769105.html</t>
+          <t>/news,002203,1261209218.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海亮股份12月12日被深股通减持33.46万股</t>
+          <t>海亮股份本周融资净偿还3348.43万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-13 07:49</t>
+          <t>12-18 15:08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1258761025.html</t>
+          <t>/news,002203,1261087455.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,93 +627,93 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海亮股份：连续6日融资净偿还累计2371.93万元（12-09）</t>
+          <t>海亮股份本周被深股通减持41.93万股 最新持股量1825.57万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-12 08:50</t>
+          <t>12-18 14:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1258213227.html</t>
+          <t>/news,002203,1261080956.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1752.07万元，居有色金属板块第六</t>
+          <t>海亮股份12月16日获深股通增持9.21万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-11 15:08</t>
+          <t>12-17 07:56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1258089871.html</t>
+          <t>/news,002203,1260976597.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加1858.33万元，居有色金属板块第十</t>
+          <t>海亮股份：连续3日融资净偿还累计3362.74万元（12-15）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-11 14:06</t>
+          <t>12-16 08:55</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1258081963.html</t>
+          <t>/news,002203,1260486852.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海亮股份12月09日获深股通增持9.87万股</t>
+          <t>海亮股份：融资净偿还977.61万元，融资余额13.48亿元（12-14）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-10 07:55</t>
+          <t>12-15 08:47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1257965683.html</t>
+          <t>/news,002203,1259941516.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份：连续5日融资净偿还累计2314.72万元（12-08）</t>
+          <t>海亮股份12月14日被深股通减持8.12万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-09 09:02</t>
+          <t>12-15 07:45</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1257405331.html</t>
+          <t>/news,002203,1259932430.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海亮股份12月08日获深股通增持82.93万股</t>
+          <t>大宗交易：海亮股份成交1.06亿元，溢价0.63%（12-14）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-09 07:46</t>
+          <t>12-14 18:01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1257392379.html</t>
+          <t>/news,002203,1259730385.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份751.44万元（12-08）</t>
+          <t>海亮股份：融资净偿还2329.36万元，融资余额13.58亿元（12-13）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-08 18:00</t>
+          <t>12-14 08:55</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1257206478.html</t>
+          <t>/news,002203,1259355567.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净偿还累计2272.74万元（12-07）</t>
+          <t>海亮股份12月13日被深股通减持9.21万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-08 08:47</t>
+          <t>12-14 07:56</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1256765649.html</t>
+          <t>/news,002203,1259348018.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海亮股份12月07日获深股通增持20.82万股</t>
+          <t>大宗交易：海亮股份成交1.99亿元，折价0.41%（12-13）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-08 07:55</t>
+          <t>12-13 18:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1256757264.html</t>
+          <t>/news,002203,1259133205.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份733.8万元（12-07）</t>
+          <t>海亮股份：融资净买入14.31万元，融资余额13.81亿元（12-12）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-07 18:01</t>
+          <t>12-13 08:50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1256553093.html</t>
+          <t>/news,002203,1258769105.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计2061.08万元（12-06）</t>
+          <t>海亮股份12月12日被深股通减持33.46万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-07 08:53</t>
+          <t>12-13 07:49</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1256099796.html</t>
+          <t>/news,002203,1258761025.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份12月06日获深股通增持17.26万股</t>
+          <t>海亮股份：连续6日融资净偿还累计2371.93万元（12-09）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-07 07:45</t>
+          <t>12-12 08:50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1256090378.html</t>
+          <t>/news,002203,1258213227.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还421.93万元，融资余额13.95亿元（12-05）</t>
+          <t>海亮股份本周融资净偿还1752.07万元，居有色金属板块第六</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-06 08:43</t>
+          <t>12-11 15:08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1255455903.html</t>
+          <t>/news,002203,1258089871.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份12月05日获深股通增持21.23万股</t>
+          <t>海亮股份本周深股通持股市值增加1858.33万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-06 07:47</t>
+          <t>12-11 14:06</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1255447526.html</t>
+          <t>/news,002203,1258081963.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还562.65万元，融资余额13.99亿元（12-02）</t>
+          <t>海亮股份12月09日获深股通增持9.87万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-05 08:47</t>
+          <t>12-10 07:55</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1254802002.html</t>
+          <t>/news,002203,1257965683.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还725.8万元，居有色金属板块第十八</t>
+          <t>海亮股份：连续5日融资净偿还累计2314.72万元（12-08）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-04 15:09</t>
+          <t>12-09 09:02</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1254651042.html</t>
+          <t>/news,002203,1257405331.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,39 +1139,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少127.27万元，居有色金属板块第十</t>
+          <t>海亮股份12月08日获深股通增持82.93万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-04 14:08</t>
+          <t>12-09 07:46</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1254643873.html</t>
+          <t>/news,002203,1257392379.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>海亮股份12月02日获深股通增持15.36万股</t>
+          <t>大宗交易：机构账户买入海亮股份751.44万元（12-08）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-03 07:57</t>
+          <t>12-08 18:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1254513260.html</t>
+          <t>/news,002203,1257206478.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入69.49万元，融资余额14.05亿元（12-01）</t>
+          <t>海亮股份：连续4日融资净偿还累计2272.74万元（12-07）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-02 08:44</t>
+          <t>12-08 08:47</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1253919500.html</t>
+          <t>/news,002203,1256765649.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份12月01日被深股通减持16.05万股</t>
+          <t>海亮股份12月07日获深股通增持20.82万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-02 07:50</t>
+          <t>12-08 07:55</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1253913221.html</t>
+          <t>/news,002203,1256757264.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交279.31万元，成交价12.37元（12-01）</t>
+          <t>大宗交易：机构账户买入海亮股份733.8万元（12-07）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-01 18:00</t>
+          <t>12-07 18:01</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1253756484.html</t>
+          <t>/news,002203,1256553093.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还723.29万元，融资余额14.04亿元（11-30）</t>
+          <t>海亮股份：连续3日融资净偿还累计2061.08万元（12-06）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-01 08:40</t>
+          <t>12-07 08:53</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1253308454.html</t>
+          <t>/news,002203,1256099796.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份11月30日获深股通增持4.97万股</t>
+          <t>海亮股份12月06日获深股通增持17.26万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-01 07:48</t>
+          <t>12-07 07:45</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1253301254.html</t>
+          <t>/news,002203,1256090378.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交473.74万元，成交价12.27元（11-30）</t>
+          <t>海亮股份：融资净偿还421.93万元，融资余额13.95亿元（12-05）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-30 18:00</t>
+          <t>12-06 08:43</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1253167473.html</t>
+          <t>/news,002203,1255455903.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还148.1万元，融资余额14.11亿元（11-29）</t>
+          <t>海亮股份12月05日获深股通增持21.23万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-30 08:42</t>
+          <t>12-06 07:47</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1252785027.html</t>
+          <t>/news,002203,1255447526.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>海亮股份11月29日被深股通减持4.44万股</t>
+          <t>海亮股份：融资净偿还562.65万元，融资余额13.99亿元（12-02）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-05 08:47</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1252778237.html</t>
+          <t>/news,002203,1254802002.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入76.09万元，融资余额14.13亿元（11-28）</t>
+          <t>海亮股份本周融资净偿还725.8万元，居有色金属板块第十八</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-29 08:45</t>
+          <t>12-04 15:09</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1252221825.html</t>
+          <t>/news,002203,1254651042.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份11月28日被深股通减持10.33万股</t>
+          <t>海亮股份本周深股通持股市值减少127.27万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-29 07:43</t>
+          <t>12-04 14:08</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1252211538.html</t>
+          <t>/news,002203,1254643873.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海亮股份：在第五届中国国际进口博览会 浙江省重点进口平台推介会签约仪式上 签署了65亿元采购意向合同</t>
+          <t>海亮股份12月02日获深股通增持15.36万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-28 14:49</t>
+          <t>12-03 07:57</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1252020931.html</t>
+          <t>/news,002203,1254513260.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入86.48万元，融资余额14.12亿元（11-25）</t>
+          <t>海亮股份：融资净买入69.49万元，融资余额14.05亿元（12-01）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-28 08:43</t>
+          <t>12-02 08:44</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1251733579.html</t>
+          <t>/news,002203,1253919500.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,71 +1587,71 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1077.79万元，居有色金属板块第九</t>
+          <t>海亮股份12月01日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-27 15:26</t>
+          <t>12-02 07:50</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1251593930.html</t>
+          <t>/news,002203,1253913221.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少253.65万元，居有色金属板块第七</t>
+          <t>大宗交易：海亮股份成交279.31万元，成交价12.37元（12-01）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>12-01 18:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1251584384.html</t>
+          <t>/news,002203,1253756484.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交991.38万元，成交价12.09元（11-25）</t>
+          <t>海亮股份：融资净偿还723.29万元，融资余额14.04亿元（11-30）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-25 18:05</t>
+          <t>12-01 08:40</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1251306468.html</t>
+          <t>/news,002203,1253308454.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还401.78万元，融资余额14.11亿元（11-24）</t>
+          <t>海亮股份11月30日获深股通增持4.97万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-25 08:44</t>
+          <t>12-01 07:48</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1250950068.html</t>
+          <t>/news,002203,1253301254.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
+          <t>大宗交易：海亮股份成交473.74万元，成交价12.27元（11-30）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-24 08:51</t>
+          <t>11-30 18:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1250429394.html</t>
+          <t>/news,002203,1253167473.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海亮股份11月23日被深股通减持4.21万股</t>
+          <t>海亮股份：融资净偿还148.1万元，融资余额14.11亿元（11-29）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-24 07:55</t>
+          <t>11-30 08:42</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1250421102.html</t>
+          <t>/news,002203,1252785027.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
+          <t>海亮股份11月29日被深股通减持4.44万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-23 08:39</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1249882116.html</t>
+          <t>/news,002203,1252778237.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份11月22日被深股通减持29.7万股</t>
+          <t>海亮股份：融资净买入76.09万元，融资余额14.13亿元（11-28）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-23 07:46</t>
+          <t>11-29 08:45</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1249874729.html</t>
+          <t>/news,002203,1252221825.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1496</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
+          <t>海亮股份11月28日被深股通减持10.33万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-23 00:13</t>
+          <t>11-29 07:43</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1249828364.html</t>
+          <t>/news,002203,1252211538.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1070</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
+          <t>海亮股份：在第五届中国国际进口博览会 浙江省重点进口平台推介会签约仪式上 签署了65亿元采购意向合同</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-22 18:30</t>
+          <t>11-28 14:49</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1249733803.html</t>
+          <t>/news,002203,1252020931.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
+          <t>海亮股份：融资净买入86.48万元，融资余额14.12亿元（11-25）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,93 +1917,93 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-22 18:01</t>
+          <t>11-28 08:43</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1249727743.html</t>
+          <t>/news,002203,1251733579.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>海亮股份本周融资净偿还1077.79万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-27 15:26</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1249708456.html</t>
+          <t>/news,002203,1251593930.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
+          <t>海亮股份本周深股通持股市值减少253.65万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1249708280.html</t>
+          <t>/news,002203,1251584384.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>551</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
+          <t>大宗交易：海亮股份成交991.38万元，成交价12.09元（11-25）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-25 18:05</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1249708150.html</t>
+          <t>/news,002203,1251306468.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
+          <t>海亮股份：融资净偿还401.78万元，融资余额14.11亿元（11-24）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-25 08:44</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1249355580.html</t>
+          <t>/news,002203,1250950068.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份11月21日获深股通增持13.24万股</t>
+          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-24 08:51</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1249347600.html</t>
+          <t>/news,002203,1250429394.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
+          <t>海亮股份11月23日被深股通减持4.21万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-21 14:00</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1249114151.html</t>
+          <t>/news,002203,1250421102.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-21 10:57</t>
+          <t>11-23 08:39</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1249017367.html</t>
+          <t>/news,002203,1249882116.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
+          <t>海亮股份11月22日被深股通减持29.7万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-21 10:09</t>
+          <t>11-23 07:46</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1249059951.html</t>
+          <t>/news,002203,1249874729.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>1526</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
+          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,93 +2205,93 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-21 08:42</t>
+          <t>11-23 00:13</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1248870718.html</t>
+          <t>/news,002203,1249828364.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>1083</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
+          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-22 18:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1248769900.html</t>
+          <t>/news,002203,1249733803.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>867</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
+          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-22 18:01</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1248763121.html</t>
+          <t>/news,002203,1249727743.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>874</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>海亮股份11月18日获深股通增持12.96万股</t>
+          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-19 07:47</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1248637816.html</t>
+          <t>/news,002203,1249708456.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>873</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-18 18:06</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1248552209.html</t>
+          <t>/news,002203,1249708280.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
+          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1248512763.html</t>
+          <t>/news,002203,1249708150.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
+          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1248512666.html</t>
+          <t>/news,002203,1249355580.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
+          <t>海亮股份11月21日获深股通增持13.24万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1248512327.html</t>
+          <t>/news,002203,1249347600.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>860</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
+          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-21 14:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1248162901.html</t>
+          <t>/news,002203,1249114151.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
+          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-17 18:01</t>
+          <t>11-21 10:57</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1248042520.html</t>
+          <t>/news,002203,1249017367.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
+          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-17 08:41</t>
+          <t>11-21 10:09</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1247674915.html</t>
+          <t>/news,002203,1249059951.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份11月16日被深股通减持54.02万股</t>
+          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,51 +2557,51 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-17 07:33</t>
+          <t>11-21 08:42</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1247664706.html</t>
+          <t>/news,002203,1248870718.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
+          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-16 18:01</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1247541531.html</t>
+          <t>/news,002203,1248769900.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
+          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-16 14:08</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1247446516.html</t>
+          <t>/news,002203,1248763121.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
+          <t>海亮股份11月18日获深股通增持12.96万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-16 08:41</t>
+          <t>11-19 07:47</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1247182099.html</t>
+          <t>/news,002203,1248637816.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>893</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份11月15日被深股通减持42.2万股</t>
+          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-16 07:46</t>
+          <t>11-18 18:06</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1247174778.html</t>
+          <t>/news,002203,1248552209.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海亮股份：项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-15 16:32</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1247048599.html</t>
+          <t>/news,002203,1248512763.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份：融资余额14.23亿元，创历史新高（11-14）</t>
+          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-15 08:46</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1246697605.html</t>
+          <t>/news,002203,1248512666.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海亮股份11月14日获深股通增持20.87万股</t>
+          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-15 07:48</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1246689780.html</t>
+          <t>/news,002203,1248512327.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-18 08:49</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1246198626.html</t>
+          <t>/news,002203,1248162901.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>507</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入6265.06万元，创近一年新高（11-11）</t>
+          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-17 18:01</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1246196435.html</t>
+          <t>/news,002203,1248042520.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>融资融券周汇总：海亮股份本周融资净买入542.34万元</t>
+          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-13 15:15</t>
+          <t>11-17 08:41</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1246101667.html</t>
+          <t>/news,002203,1247674915.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少1332.08万元，居有色金属板块第八</t>
+          <t>海亮股份11月16日被深股通减持54.02万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-13 14:13</t>
+          <t>11-17 07:33</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1246094933.html</t>
+          <t>/news,002203,1247664706.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>海亮股份11月11日被深股通减持56.81万股</t>
+          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-16 18:01</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1245986384.html</t>
+          <t>/news,002203,1247541531.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>741</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待德邦证券等多家机构调研</t>
+          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-12 00:09</t>
+          <t>11-16 14:08</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1246096434.html</t>
+          <t>/news,002203,1247446516.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份1596.98万元（11-11）</t>
+          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-11 18:28</t>
+          <t>11-16 08:41</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1245898758.html</t>
+          <t>/news,002203,1247182099.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002203.xlsx
+++ b/news_ann/news/tmp/002203.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入69.71万元，融资余额13.48亿元（12-19）</t>
+          <t>海亮股份：融资净买入161.15万元，融资余额13.47亿元（12-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,12 +477,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-20 08:46</t>
+          <t>12-23 08:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002203,1261730823.html</t>
+          <t>/news,002203,1263200706.html</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海亮股份12月19日被深股通减持30.77万股</t>
+          <t>海亮股份12月22日被深股通减持26.86万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-20 07:46</t>
+          <t>12-23 07:36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002203,1261723751.html</t>
+          <t>/news,002203,1263189530.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份453.96万元（12-19）</t>
+          <t>海亮股份：融资净偿还277.06万元，融资余额13.45亿元（12-21）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-19 18:00</t>
+          <t>12-22 08:43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002203,1261565503.html</t>
+          <t>/news,002203,1262677813.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净偿还累计3366.17万元（12-16）</t>
+          <t>海亮股份12月21日获深股通增持3.7万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-19 09:02</t>
+          <t>12-22 07:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002203,1261209218.html</t>
+          <t>/news,002203,1262667827.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还3348.43万元，居有色金属板块第三</t>
+          <t>海亮股份：融资净偿还4.22万元，融资余额13.48亿元（12-20）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-18 15:08</t>
+          <t>12-21 08:55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002203,1261087455.html</t>
+          <t>/news,002203,1262205465.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,39 +627,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海亮股份本周被深股通减持41.93万股 最新持股量1825.57万股</t>
+          <t>海亮股份12月20日获深股通增持18.74万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-18 14:06</t>
+          <t>12-21 07:43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002203,1261080956.html</t>
+          <t>/news,002203,1262197139.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海亮股份12月16日获深股通增持9.21万股</t>
+          <t>大宗交易：机构账户买入海亮股份207.18万元（12-20）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-17 07:56</t>
+          <t>12-20 18:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002203,1260976597.html</t>
+          <t>/news,002203,1262043948.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计3362.74万元（12-15）</t>
+          <t>海亮股份：融资净买入69.71万元，融资余额13.48亿元（12-19）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-16 08:55</t>
+          <t>12-20 08:46</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002203,1260486852.html</t>
+          <t>/news,002203,1261730823.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还977.61万元，融资余额13.48亿元（12-14）</t>
+          <t>海亮股份12月19日被深股通减持30.77万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-15 08:47</t>
+          <t>12-20 07:46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002203,1259941516.html</t>
+          <t>/news,002203,1261723751.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海亮股份12月14日被深股通减持8.12万股</t>
+          <t>大宗交易：机构账户买入海亮股份453.96万元（12-19）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-15 07:45</t>
+          <t>12-19 18:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002203,1259932430.html</t>
+          <t>/news,002203,1261565503.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1.06亿元，溢价0.63%（12-14）</t>
+          <t>海亮股份：连续4日融资净偿还累计3366.17万元（12-16）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-14 18:01</t>
+          <t>12-19 09:02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002203,1259730385.html</t>
+          <t>/news,002203,1261209218.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还2329.36万元，融资余额13.58亿元（12-13）</t>
+          <t>海亮股份本周融资净偿还3348.43万元，居有色金属板块第三</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-14 08:55</t>
+          <t>12-18 15:08</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002203,1259355567.html</t>
+          <t>/news,002203,1261087455.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,39 +851,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海亮股份12月13日被深股通减持9.21万股</t>
+          <t>海亮股份本周被深股通减持41.93万股 最新持股量1825.57万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-14 07:56</t>
+          <t>12-18 14:06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002203,1259348018.html</t>
+          <t>/news,002203,1261080956.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1.99亿元，折价0.41%（12-13）</t>
+          <t>海亮股份12月16日获深股通增持9.21万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-13 18:00</t>
+          <t>12-17 07:56</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002203,1259133205.html</t>
+          <t>/news,002203,1260976597.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入14.31万元，融资余额13.81亿元（12-12）</t>
+          <t>海亮股份：连续3日融资净偿还累计3362.74万元（12-15）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-13 08:50</t>
+          <t>12-16 08:55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002203,1258769105.html</t>
+          <t>/news,002203,1260486852.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海亮股份12月12日被深股通减持33.46万股</t>
+          <t>海亮股份：融资净偿还977.61万元，融资余额13.48亿元（12-14）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-13 07:49</t>
+          <t>12-15 08:47</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002203,1258761025.html</t>
+          <t>/news,002203,1259941516.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海亮股份：连续6日融资净偿还累计2371.93万元（12-09）</t>
+          <t>海亮股份12月14日被深股通减持8.12万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,51 +989,51 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-12 08:50</t>
+          <t>12-15 07:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002203,1258213227.html</t>
+          <t>/news,002203,1259932430.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1752.07万元，居有色金属板块第六</t>
+          <t>大宗交易：海亮股份成交1.06亿元，溢价0.63%（12-14）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-11 15:08</t>
+          <t>12-14 18:01</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002203,1258089871.html</t>
+          <t>/news,002203,1259730385.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值增加1858.33万元，居有色金属板块第十</t>
+          <t>海亮股份：融资净偿还2329.36万元，融资余额13.58亿元（12-13）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-11 14:06</t>
+          <t>12-14 08:55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002203,1258081963.html</t>
+          <t>/news,002203,1259355567.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海亮股份12月09日获深股通增持9.87万股</t>
+          <t>海亮股份12月13日被深股通减持9.21万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-10 07:55</t>
+          <t>12-14 07:56</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002203,1257965683.html</t>
+          <t>/news,002203,1259348018.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>海亮股份：连续5日融资净偿还累计2314.72万元（12-08）</t>
+          <t>大宗交易：海亮股份成交1.99亿元，折价0.41%（12-13）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-09 09:02</t>
+          <t>12-13 18:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002203,1257405331.html</t>
+          <t>/news,002203,1259133205.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>海亮股份12月08日获深股通增持82.93万股</t>
+          <t>海亮股份：融资净买入14.31万元，融资余额13.81亿元（12-12）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-09 07:46</t>
+          <t>12-13 08:50</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002203,1257392379.html</t>
+          <t>/news,002203,1258769105.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份751.44万元（12-08）</t>
+          <t>海亮股份12月12日被深股通减持33.46万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-08 18:00</t>
+          <t>12-13 07:49</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002203,1257206478.html</t>
+          <t>/news,002203,1258761025.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海亮股份：连续4日融资净偿还累计2272.74万元（12-07）</t>
+          <t>海亮股份：连续6日融资净偿还累计2371.93万元（12-09）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-08 08:47</t>
+          <t>12-12 08:50</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002203,1256765649.html</t>
+          <t>/news,002203,1258213227.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,61 +1235,61 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海亮股份12月07日获深股通增持20.82万股</t>
+          <t>海亮股份本周融资净偿还1752.07万元，居有色金属板块第六</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-08 07:55</t>
+          <t>12-11 15:08</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002203,1256757264.html</t>
+          <t>/news,002203,1258089871.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入海亮股份733.8万元（12-07）</t>
+          <t>海亮股份本周深股通持股市值增加1858.33万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-07 18:01</t>
+          <t>12-11 14:06</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002203,1256553093.html</t>
+          <t>/news,002203,1258081963.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计2061.08万元（12-06）</t>
+          <t>海亮股份12月09日获深股通增持9.87万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-07 08:53</t>
+          <t>12-10 07:55</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002203,1256099796.html</t>
+          <t>/news,002203,1257965683.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>海亮股份12月06日获深股通增持17.26万股</t>
+          <t>海亮股份：连续5日融资净偿还累计2314.72万元（12-08）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-07 07:45</t>
+          <t>12-09 09:02</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002203,1256090378.html</t>
+          <t>/news,002203,1257405331.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还421.93万元，融资余额13.95亿元（12-05）</t>
+          <t>海亮股份12月08日获深股通增持82.93万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-06 08:43</t>
+          <t>12-09 07:46</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002203,1255455903.html</t>
+          <t>/news,002203,1257392379.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海亮股份12月05日获深股通增持21.23万股</t>
+          <t>大宗交易：机构账户买入海亮股份751.44万元（12-08）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-06 07:47</t>
+          <t>12-08 18:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002203,1255447526.html</t>
+          <t>/news,002203,1257206478.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还562.65万元，融资余额13.99亿元（12-02）</t>
+          <t>海亮股份：连续4日融资净偿还累计2272.74万元（12-07）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-05 08:47</t>
+          <t>12-08 08:47</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002203,1254802002.html</t>
+          <t>/news,002203,1256765649.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,71 +1459,71 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还725.8万元，居有色金属板块第十八</t>
+          <t>海亮股份12月07日获深股通增持20.82万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-04 15:09</t>
+          <t>12-08 07:55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002203,1254651042.html</t>
+          <t>/news,002203,1256757264.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少127.27万元，居有色金属板块第十</t>
+          <t>大宗交易：机构账户买入海亮股份733.8万元（12-07）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-04 14:08</t>
+          <t>12-07 18:01</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002203,1254643873.html</t>
+          <t>/news,002203,1256553093.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>海亮股份12月02日获深股通增持15.36万股</t>
+          <t>海亮股份：连续3日融资净偿还累计2061.08万元（12-06）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12-03 07:57</t>
+          <t>12-07 08:53</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002203,1254513260.html</t>
+          <t>/news,002203,1256099796.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入69.49万元，融资余额14.05亿元（12-01）</t>
+          <t>海亮股份12月06日获深股通增持17.26万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12-02 08:44</t>
+          <t>12-07 07:45</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002203,1253919500.html</t>
+          <t>/news,002203,1256090378.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海亮股份12月01日被深股通减持16.05万股</t>
+          <t>海亮股份：融资净偿还421.93万元，融资余额13.95亿元（12-05）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12-02 07:50</t>
+          <t>12-06 08:43</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002203,1253913221.html</t>
+          <t>/news,002203,1255455903.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交279.31万元，成交价12.37元（12-01）</t>
+          <t>海亮股份12月05日获深股通增持21.23万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12-01 18:00</t>
+          <t>12-06 07:47</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002203,1253756484.html</t>
+          <t>/news,002203,1255447526.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还723.29万元，融资余额14.04亿元（11-30）</t>
+          <t>海亮股份：融资净偿还562.65万元，融资余额13.99亿元（12-02）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,93 +1661,93 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12-01 08:40</t>
+          <t>12-05 08:47</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002203,1253308454.html</t>
+          <t>/news,002203,1254802002.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>海亮股份11月30日获深股通增持4.97万股</t>
+          <t>海亮股份本周融资净偿还725.8万元，居有色金属板块第十八</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>12-01 07:48</t>
+          <t>12-04 15:09</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002203,1253301254.html</t>
+          <t>/news,002203,1254651042.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交473.74万元，成交价12.27元（11-30）</t>
+          <t>海亮股份本周深股通持股市值减少127.27万元，居有色金属板块第十</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-30 18:00</t>
+          <t>12-04 14:08</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002203,1253167473.html</t>
+          <t>/news,002203,1254643873.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还148.1万元，融资余额14.11亿元（11-29）</t>
+          <t>海亮股份12月02日获深股通增持15.36万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-30 08:42</t>
+          <t>12-03 07:57</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002203,1252785027.html</t>
+          <t>/news,002203,1254513260.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海亮股份11月29日被深股通减持4.44万股</t>
+          <t>海亮股份：融资净买入69.49万元，融资余额14.05亿元（12-01）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-02 08:44</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002203,1252778237.html</t>
+          <t>/news,002203,1253919500.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入76.09万元，融资余额14.13亿元（11-28）</t>
+          <t>海亮股份12月01日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-29 08:45</t>
+          <t>12-02 07:50</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002203,1252221825.html</t>
+          <t>/news,002203,1253913221.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>474</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>海亮股份11月28日被深股通减持10.33万股</t>
+          <t>大宗交易：海亮股份成交279.31万元，成交价12.37元（12-01）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-29 07:43</t>
+          <t>12-01 18:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002203,1252211538.html</t>
+          <t>/news,002203,1253756484.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>海亮股份：在第五届中国国际进口博览会 浙江省重点进口平台推介会签约仪式上 签署了65亿元采购意向合同</t>
+          <t>海亮股份：融资净偿还723.29万元，融资余额14.04亿元（11-30）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-28 14:49</t>
+          <t>12-01 08:40</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002203,1252020931.html</t>
+          <t>/news,002203,1253308454.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入86.48万元，融资余额14.12亿元（11-25）</t>
+          <t>海亮股份11月30日获深股通增持4.97万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,51 +1917,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-28 08:43</t>
+          <t>12-01 07:48</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002203,1251733579.html</t>
+          <t>/news,002203,1253301254.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还1077.79万元，居有色金属板块第九</t>
+          <t>大宗交易：海亮股份成交473.74万元，成交价12.27元（11-30）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-27 15:26</t>
+          <t>11-30 18:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002203,1251593930.html</t>
+          <t>/news,002203,1253167473.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,39 +1971,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少253.65万元，居有色金属板块第七</t>
+          <t>海亮股份：融资净偿还148.1万元，融资余额14.11亿元（11-29）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-30 08:42</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002203,1251584384.html</t>
+          <t>/news,002203,1252785027.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交991.38万元，成交价12.09元（11-25）</t>
+          <t>海亮股份11月29日被深股通减持4.44万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-25 18:05</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002203,1251306468.html</t>
+          <t>/news,002203,1252778237.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还401.78万元，融资余额14.11亿元（11-24）</t>
+          <t>海亮股份：融资净买入76.09万元，融资余额14.13亿元（11-28）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-25 08:44</t>
+          <t>11-29 08:45</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002203,1250950068.html</t>
+          <t>/news,002203,1252221825.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
+          <t>海亮股份11月28日被深股通减持10.33万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-24 08:51</t>
+          <t>11-29 07:43</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002203,1250429394.html</t>
+          <t>/news,002203,1252211538.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>海亮股份11月23日被深股通减持4.21万股</t>
+          <t>海亮股份：在第五届中国国际进口博览会 浙江省重点进口平台推介会签约仪式上 签署了65亿元采购意向合同</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-24 07:55</t>
+          <t>11-28 14:49</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002203,1250421102.html</t>
+          <t>/news,002203,1252020931.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
+          <t>海亮股份：融资净买入86.48万元，融资余额14.12亿元（11-25）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-23 08:39</t>
+          <t>11-28 08:43</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002203,1249882116.html</t>
+          <t>/news,002203,1251733579.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,71 +2163,71 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>海亮股份11月22日被深股通减持29.7万股</t>
+          <t>海亮股份本周融资净偿还1077.79万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-23 07:46</t>
+          <t>11-27 15:26</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002203,1249874729.html</t>
+          <t>/news,002203,1251593930.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1526</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
+          <t>海亮股份本周深股通持股市值减少253.65万元，居有色金属板块第七</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-23 00:13</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002203,1249828364.html</t>
+          <t>/news,002203,1251584384.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
+          <t>大宗交易：海亮股份成交991.38万元，成交价12.09元（11-25）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-22 18:30</t>
+          <t>11-25 18:05</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002203,1249733803.html</t>
+          <t>/news,002203,1251306468.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
+          <t>海亮股份：融资净偿还401.78万元，融资余额14.11亿元（11-24）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-22 18:01</t>
+          <t>11-25 08:44</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002203,1249727743.html</t>
+          <t>/news,002203,1250950068.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>874</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>海亮股份：融资净买入112.03万元，融资余额14.15亿元（11-23）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-24 08:51</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002203,1249708456.html</t>
+          <t>/news,002203,1250429394.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
+          <t>海亮股份11月23日被深股通减持4.21万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002203,1249708280.html</t>
+          <t>/news,002203,1250421102.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
+          <t>海亮股份：融资净偿还232万元，融资余额14.14亿元（11-22）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-22 16:44</t>
+          <t>11-23 08:39</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002203,1249708150.html</t>
+          <t>/news,002203,1249882116.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
+          <t>海亮股份11月22日被深股通减持29.7万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-22 08:46</t>
+          <t>11-23 07:46</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002203,1249355580.html</t>
+          <t>/news,002203,1249874729.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>1539</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海亮股份11月21日获深股通增持13.24万股</t>
+          <t>海亮股份：高性能铜箔材料项目已于9月投产 PET复合铜箔研发已立项</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-22 07:46</t>
+          <t>11-23 00:13</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002203,1249347600.html</t>
+          <t>/news,002203,1249828364.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>1088</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
+          <t>沪深两市11月22日77只个股发生140笔大宗交易 共成交21.78亿元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-21 14:00</t>
+          <t>11-22 18:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002203,1249114151.html</t>
+          <t>/news,002203,1249733803.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>872</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
+          <t>大宗交易：海亮股份成交2亿元，折价0.49%（11-22）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-21 10:57</t>
+          <t>11-22 18:01</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002203,1249017367.html</t>
+          <t>/news,002203,1249727743.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>882</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
+          <t>海亮股份：年产15万吨高性能铜箔材料项目一期一步1.25 万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-21 10:09</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002203,1249059951.html</t>
+          <t>/news,002203,1249708456.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>880</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
+          <t>海亮股份：目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项 正在推进研发工作</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,51 +2557,51 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-21 08:42</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002203,1248870718.html</t>
+          <t>/news,002203,1249708280.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
+          <t>海亮股份：公司海水淡化管主要应用于热法海水淡化领域</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-20 15:08</t>
+          <t>11-22 16:44</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002203,1248769900.html</t>
+          <t>/news,002203,1249708150.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
+          <t>海亮股份：融资净偿还556.04万元，融资余额14.16亿元（11-21）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>海亮股份资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-22 08:46</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002203,1248763121.html</t>
+          <t>/news,002203,1249355580.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>海亮股份11月18日获深股通增持12.96万股</t>
+          <t>海亮股份11月21日获深股通增持13.24万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-19 07:47</t>
+          <t>11-22 07:46</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002203,1248637816.html</t>
+          <t>/news,002203,1249347600.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>865</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
+          <t>海亮股份：锂电铜箔在相当一段时间内会处于供需两旺的行情中</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-18 18:06</t>
+          <t>11-21 14:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002203,1248552209.html</t>
+          <t>/news,002203,1249114151.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
+          <t>海亮股份：美国项目设备已基本到厂，预计今年年底或明年初投产</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-21 10:57</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002203,1248512763.html</t>
+          <t>/news,002203,1249017367.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
+          <t>【调研快报】海亮股份接待中金公司等多家机构调研</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-21 10:09</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002203,1248512666.html</t>
+          <t>/news,002203,1249059951.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
+          <t>海亮股份：融资净买入706.2万元，融资余额14.22亿元（11-18）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,83 +2781,83 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-18 15:27</t>
+          <t>11-21 08:42</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002203,1248512327.html</t>
+          <t>/news,002203,1248870718.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>海亮股份：连续3日融资净偿还累计785.19万元（11-17）</t>
+          <t>海亮股份本周融资净偿还113.12万元，居有色金属板块第二十</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-18 08:49</t>
+          <t>11-20 15:08</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002203,1248162901.html</t>
+          <t>/news,002203,1248769900.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>大宗交易：海亮股份成交1730.4万元，成交均价12.36元（11-17）</t>
+          <t>海亮股份本周深股通持股市值减少810.75万元，居有色金属板块第九</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>海亮股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-17 18:01</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002203,1248042520.html</t>
+          <t>/news,002203,1248763121.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还7.18万元，融资余额14.22亿元（11-16）</t>
+          <t>海亮股份11月18日获深股通增持12.96万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-17 08:41</t>
+          <t>11-19 07:47</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002203,1247674915.html</t>
+          <t>/news,002203,1248637816.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>895</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>海亮股份11月16日被深股通减持54.02万股</t>
+          <t>海亮股份：公司年产1.25万吨高性能锂电铜箔产能已于今年9月中旬投产</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-17 07:33</t>
+          <t>11-18 18:06</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002203,1247664706.html</t>
+          <t>/news,002203,1248552209.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>599</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户卖出海亮股份517.2万元（11-16）</t>
+          <t>海亮股份：目前公司已具备4.5μm 、6μm、 8μm 锂电铜箔的量产能力</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-16 18:01</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002203,1247541531.html</t>
+          <t>/news,002203,1248512763.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>海亮股份：美国得州海亮项目设备已基本到厂 正在进行最后安装、调试 预计今年年底或明年初投产</t>
+          <t>海亮股份：目前，公司4.5um铜箔的良品率已达到行业平均水平</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-16 14:08</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002203,1247446516.html</t>
+          <t>/news,002203,1248512666.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>海亮股份：融资净偿还83.91万元，融资余额14.22亿元（11-15）</t>
+          <t>海亮股份：公司目前有多个集流体创新研发项目在开展 其中PET复合铜箔已立项</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-16 08:41</t>
+          <t>11-18 15:27</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002203,1247182099.html</t>
+          <t>/news,002203,1248512327.html</t>
         </is>
       </c>
     </row>
